--- a/QuantLibXL/Data2/XLS/SEK/SEK_CurvesBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_CurvesBootstrapping.xlsx
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I3" s="14">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42335</v>
+        <v>42354</v>
       </c>
       <c r="J3" s="89"/>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="I4" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="J4" s="89"/>
     </row>
@@ -2257,7 +2257,9 @@
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21">
+        <v>42354.613761574074</v>
+      </c>
       <c r="E5" s="89"/>
       <c r="G5" s="91"/>
       <c r="H5" s="15" t="s">
@@ -2364,16 +2366,16 @@
       </c>
       <c r="D13" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve($D$15,$D$16,Calendar,_xll.ohPack(RateHelpersON),,JumpQuotes_ON,JumpDates_ON,D17,D18,D19,Permanent,,ObjectOverwrite)</f>
-        <v>_SEKON#0009</v>
+        <v>_SEKON#0000</v>
       </c>
       <c r="E13" s="43"/>
       <c r="G13" s="23"/>
       <c r="H13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="42" t="str">
+      <c r="I13" s="42" t="e">
         <f>_xll.qlPiecewiseYieldCurve(I15,I16,Calendar,_xll.ohPack(RateHelpers3M),,JumpQuotes_3M,JumpDates_3M,I17,I18,I19,Permanent,,ObjectOverwrite)</f>
-        <v>_SEK3M#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J13" s="43"/>
     </row>
@@ -2392,8 +2394,8 @@
         <v>11</v>
       </c>
       <c r="I14" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(YieldCurve_3M)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve_3M)</f>
+        <v>qlPiecewiseYieldCurve - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to typ</v>
       </c>
       <c r="J14" s="43"/>
     </row>
@@ -2499,7 +2501,7 @@
       <c r="B21" s="23"/>
       <c r="C21" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_ON)</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="D21" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C21,,Trigger)</f>
@@ -2507,13 +2509,13 @@
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="32">
+      <c r="H21" s="32" t="e">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_3M)</f>
-        <v>42339</v>
-      </c>
-      <c r="I21" s="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="33" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H21,,Trigger)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="43"/>
     </row>
@@ -2521,21 +2523,21 @@
       <c r="B22" s="23"/>
       <c r="C22" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_ON,Trigger)</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="D22" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C22,,Trigger)</f>
-        <v>0.50776963763058536</v>
+        <v>0.50513418590257497</v>
       </c>
       <c r="E22" s="43"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="34">
+      <c r="H22" s="34" t="e">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_3M,Trigger)</f>
-        <v>53297</v>
-      </c>
-      <c r="I22" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="35" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H22,,Trigger)</f>
-        <v>0.49992612963480643</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -2555,9 +2557,9 @@
         <f>[1]Stibor!$J$9</f>
         <v>SEK3M#0000</v>
       </c>
-      <c r="I23" s="35" t="b">
+      <c r="I23" s="35" t="e">
         <f>_xll.qlRelinkableHandleLinkTo(H23,I13,Trigger)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="J23" s="43"/>
     </row>
@@ -2618,7 +2620,7 @@
       </c>
       <c r="D28" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D30,D31,Calendar,_xll.ohPack(RateHelpers6M),,JumpQuotes_6M,JumpDates_6M,D32,D33,D34,Permanent,,ObjectOverwrite)</f>
-        <v>_SEK6M#0004</v>
+        <v>_SEK6M#0000</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="50"/>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="I28" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I30,I31,Calendar,_xll.ohPack(RateHelpers1M),,JumpQuotes_1M,JumpDates_1M,I32,I33,I34,Permanent,,ObjectOverwrite)</f>
-        <v>_SEK1M#0004</v>
+        <v>_SEK1M#0000</v>
       </c>
       <c r="J28" s="43"/>
     </row>
@@ -2761,45 +2763,45 @@
       <c r="B36" s="23"/>
       <c r="C36" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_6M)</f>
-        <v>42339</v>
-      </c>
-      <c r="D36" s="33">
+        <v>42356</v>
+      </c>
+      <c r="D36" s="33" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C36,,Trigger)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="50"/>
       <c r="G36" s="23"/>
       <c r="H36" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_1M)</f>
-        <v>42339</v>
-      </c>
-      <c r="I36" s="33">
+        <v>42356</v>
+      </c>
+      <c r="I36" s="33" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H36,,Trigger)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="J36" s="43"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="23"/>
-      <c r="C37" s="34">
+      <c r="C37" s="34" t="e">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_6M,Trigger)</f>
-        <v>53297</v>
-      </c>
-      <c r="D37" s="35">
+        <v>#NUM!</v>
+      </c>
+      <c r="D37" s="35" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C37,,Trigger)</f>
-        <v>0.49127780013659822</v>
+        <v>#NUM!</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="50"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="34">
+      <c r="H37" s="34" t="e">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_1M,Trigger)</f>
-        <v>53297</v>
-      </c>
-      <c r="I37" s="35">
+        <v>#NUM!</v>
+      </c>
+      <c r="I37" s="35" t="e">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H37,,Trigger)</f>
-        <v>0.51256379606518931</v>
+        <v>#NUM!</v>
       </c>
       <c r="J37" s="43"/>
     </row>
@@ -3105,7 +3107,7 @@
       </c>
       <c r="U3" s="4" t="str">
         <f t="array" ref="U3:U59">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),AH3,AH4,AH5,AH6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00160</v>
+        <v>obj_0015e</v>
       </c>
       <c r="V3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U3,Trigger),"")</f>
@@ -3113,7 +3115,7 @@
       </c>
       <c r="W3" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U3,Trigger),"")</f>
-        <v>-3.7599999999999999E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="X3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U3)),_xll.qlSwapRateHelperSpread($U3))</f>
@@ -3121,14 +3123,14 @@
       </c>
       <c r="Y3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U3,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U3,Trigger),"")</f>
-        <v>42373</v>
+        <v>42387</v>
       </c>
       <c r="AA3" s="81">
-        <v>1.000355237259809</v>
+        <v>1.0003531802478043</v>
       </c>
       <c r="AB3" s="190"/>
       <c r="AD3" s="111" t="s">
@@ -3198,7 +3200,7 @@
         <v>OISShort</v>
       </c>
       <c r="U4" s="4" t="str">
-        <v>obj_00162</v>
+        <v>obj_0015d</v>
       </c>
       <c r="V4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U4,Trigger),"")</f>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="W4" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U4,Trigger),"")</f>
-        <v>-4.4299999999999999E-3</v>
+        <v>-4.2500000000000003E-3</v>
       </c>
       <c r="X4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U4)),_xll.qlSwapRateHelperSpread($U4))</f>
@@ -3214,14 +3216,14 @@
       </c>
       <c r="Y4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U4,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U4,Trigger),"")</f>
-        <v>42401</v>
+        <v>42418</v>
       </c>
       <c r="AA4" s="81">
-        <v>1.0007635269731068</v>
+        <v>1.0007324805795352</v>
       </c>
       <c r="AB4" s="190"/>
       <c r="AD4" s="111" t="s">
@@ -3274,7 +3276,7 @@
         <v>OISShort</v>
       </c>
       <c r="U5" s="4" t="str">
-        <v>obj_0015b</v>
+        <v>obj_00159</v>
       </c>
       <c r="V5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U5,Trigger),"")</f>
@@ -3282,7 +3284,7 @@
       </c>
       <c r="W5" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U5,Trigger),"")</f>
-        <v>-4.0200000000000001E-3</v>
+        <v>-4.3000000000000009E-3</v>
       </c>
       <c r="X5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U5)),_xll.qlSwapRateHelperSpread($U5))</f>
@@ -3290,14 +3292,14 @@
       </c>
       <c r="Y5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U5,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U5,Trigger),"")</f>
-        <v>42430</v>
+        <v>42447</v>
       </c>
       <c r="AA5" s="81">
-        <v>1.0010172003117173</v>
+        <v>1.0010881271782357</v>
       </c>
       <c r="AB5" s="190"/>
       <c r="AC5" s="84"/>
@@ -3368,7 +3370,7 @@
         <v>OISShort</v>
       </c>
       <c r="U6" s="4" t="str">
-        <v>obj_0015a</v>
+        <v>obj_0015b</v>
       </c>
       <c r="V6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U6,Trigger),"")</f>
@@ -3376,7 +3378,7 @@
       </c>
       <c r="W6" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U6,Trigger),"")</f>
-        <v>-4.2699999999999995E-3</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="X6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U6)),_xll.qlSwapRateHelperSpread($U6))</f>
@@ -3384,14 +3386,14 @@
       </c>
       <c r="Y6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U6,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U6,Trigger),"")</f>
-        <v>42522</v>
+        <v>42541</v>
       </c>
       <c r="AA6" s="81">
-        <v>1.002175305014142</v>
+        <v>1.0023178600513687</v>
       </c>
       <c r="AB6" s="190"/>
       <c r="AD6" s="111" t="s">
@@ -3462,7 +3464,7 @@
         <v>OISShort</v>
       </c>
       <c r="U7" s="4" t="str">
-        <v>obj_0015d</v>
+        <v>obj_0015a</v>
       </c>
       <c r="V7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U7,Trigger),"")</f>
@@ -3470,7 +3472,7 @@
       </c>
       <c r="W7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U7,Trigger),"")</f>
-        <v>-4.2300000000000003E-3</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="X7" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U7)),_xll.qlSwapRateHelperSpread($U7))</f>
@@ -3478,14 +3480,14 @@
       </c>
       <c r="Y7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U7,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U7,Trigger),"")</f>
-        <v>42614</v>
+        <v>42632</v>
       </c>
       <c r="AA7" s="81">
-        <v>1.0032417248233356</v>
+        <v>1.003461943705785</v>
       </c>
       <c r="AB7" s="190"/>
     </row>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="K8" s="98" t="str">
         <f>IF(ISBLANK(H10),"--",H10)</f>
-        <v>obj_00160#0004</v>
+        <v>obj_0015e#0000</v>
       </c>
       <c r="L8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K8,Trigger),"--")</f>
@@ -3526,7 +3528,7 @@
       </c>
       <c r="M8" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K8,Trigger),"--")</f>
-        <v>-3.7599999999999999E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="N8" s="101" t="b">
         <v>1</v>
@@ -3539,18 +3541,18 @@
       </c>
       <c r="Q8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K8,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K8,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42387</v>
       </c>
       <c r="T8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U8" s="4" t="str">
-        <v>obj_001f3</v>
+        <v>obj_0010b</v>
       </c>
       <c r="V8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U8,Trigger),"")</f>
@@ -3558,7 +3560,7 @@
       </c>
       <c r="W8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U8,Trigger),"")</f>
-        <v>-4.5750000000000001E-3</v>
+        <v>-4.5499999999999994E-3</v>
       </c>
       <c r="X8" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U8)),_xll.qlSwapRateHelperSpread($U8))</f>
@@ -3566,14 +3568,14 @@
       </c>
       <c r="Y8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U8,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U8,Trigger),"")</f>
-        <v>42705</v>
+        <v>42723</v>
       </c>
       <c r="AA8" s="81">
-        <v>1.0046729852225149</v>
+        <v>1.0046600879105485</v>
       </c>
       <c r="AB8" s="190"/>
     </row>
@@ -3606,7 +3608,7 @@
       </c>
       <c r="K9" s="98" t="str">
         <f t="shared" ref="K9:K59" si="6">IF(ISBLANK(H11),"--",H11)</f>
-        <v>obj_00162#0004</v>
+        <v>obj_0015d#0000</v>
       </c>
       <c r="L9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K9,Trigger),"--")</f>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="M9" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K9,Trigger),"--")</f>
-        <v>-4.4299999999999999E-3</v>
+        <v>-4.2500000000000003E-3</v>
       </c>
       <c r="N9" s="101" t="b">
         <v>1</v>
@@ -3627,18 +3629,18 @@
       </c>
       <c r="Q9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K9,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K9,Trigger),"--")</f>
-        <v>42401</v>
+        <v>42418</v>
       </c>
       <c r="T9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U9" s="4" t="str">
-        <v>obj_00161</v>
+        <v>obj_0015f</v>
       </c>
       <c r="V9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U9,Trigger),"")</f>
@@ -3646,7 +3648,7 @@
       </c>
       <c r="W9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U9,Trigger),"")</f>
-        <v>-3.7000000000000002E-3</v>
+        <v>-3.725E-3</v>
       </c>
       <c r="X9" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U9)),_xll.qlSwapRateHelperSpread($U9))</f>
@@ -3654,14 +3656,14 @@
       </c>
       <c r="Y9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U9,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U9,Trigger),"")</f>
-        <v>43070</v>
+        <v>43087</v>
       </c>
       <c r="AA9" s="81">
-        <v>1.0075589904812035</v>
+        <v>1.007610178697155</v>
       </c>
       <c r="AB9" s="190"/>
       <c r="AE9" s="49" t="s">
@@ -3691,7 +3693,7 @@
       <c r="G10" s="129"/>
       <c r="H10" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C10,B10,F10,$E10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00160#0004</v>
+        <v>obj_0015e#0000</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="10" t="str">
@@ -3700,7 +3702,7 @@
       </c>
       <c r="K10" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015b#0004</v>
+        <v>obj_00159#0000</v>
       </c>
       <c r="L10" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K10,Trigger),"--")</f>
@@ -3708,7 +3710,7 @@
       </c>
       <c r="M10" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K10,Trigger),"--")</f>
-        <v>-4.0200000000000001E-3</v>
+        <v>-4.3000000000000009E-3</v>
       </c>
       <c r="N10" s="101" t="b">
         <v>1</v>
@@ -3721,18 +3723,18 @@
       </c>
       <c r="Q10" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K10,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R10" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K10,Trigger),"--")</f>
-        <v>42430</v>
+        <v>42447</v>
       </c>
       <c r="T10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U10" s="4" t="str">
-        <v>obj_0015f</v>
+        <v>obj_00160</v>
       </c>
       <c r="V10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U10,Trigger),"")</f>
@@ -3740,7 +3742,7 @@
       </c>
       <c r="W10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U10,Trigger),"")</f>
-        <v>-2E-3</v>
+        <v>-2.0249999999999999E-3</v>
       </c>
       <c r="X10" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U10)),_xll.qlSwapRateHelperSpread($U10))</f>
@@ -3748,14 +3750,14 @@
       </c>
       <c r="Y10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U10,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U10,Trigger),"")</f>
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="AA10" s="81">
-        <v>1.0061373430500915</v>
+        <v>1.0062029374157444</v>
       </c>
       <c r="AB10" s="190"/>
       <c r="AC10" s="77" t="s">
@@ -3806,7 +3808,7 @@
       <c r="G11" s="129"/>
       <c r="H11" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C11,B11,F11,$E11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00162#0004</v>
+        <v>obj_0015d#0000</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="10" t="str">
@@ -3847,7 +3849,7 @@
         <v>OIS</v>
       </c>
       <c r="U11" s="4" t="str">
-        <v>obj_0015e</v>
+        <v>obj_0015c</v>
       </c>
       <c r="V11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U11,Trigger),"")</f>
@@ -3855,7 +3857,7 @@
       </c>
       <c r="W11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U11,Trigger),"")</f>
-        <v>0</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="X11" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U11)),_xll.qlSwapRateHelperSpread($U11))</f>
@@ -3863,14 +3865,14 @@
       </c>
       <c r="Y11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U11,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U11,Trigger),"")</f>
-        <v>43801</v>
+        <v>43817</v>
       </c>
       <c r="AA11" s="81">
-        <v>1.0000000000000002</v>
+        <v>1.0003058033432679</v>
       </c>
       <c r="AB11" s="190"/>
       <c r="AC11" s="161">
@@ -3927,7 +3929,7 @@
       <c r="G12" s="129"/>
       <c r="H12" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C12,B12,F12,$E12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015b#0004</v>
+        <v>obj_00159#0000</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="10" t="str">
@@ -3968,7 +3970,7 @@
         <v>OIS</v>
       </c>
       <c r="U12" s="4" t="str">
-        <v>obj_00137</v>
+        <v>obj_00138</v>
       </c>
       <c r="V12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U12,Trigger),"")</f>
@@ -3976,7 +3978,7 @@
       </c>
       <c r="W12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U12,Trigger),"")</f>
-        <v>2.4749999999999998E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="X12" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U12)),_xll.qlSwapRateHelperSpread($U12))</f>
@@ -3984,14 +3986,14 @@
       </c>
       <c r="Y12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U12,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U12,Trigger),"")</f>
-        <v>44166</v>
+        <v>44183</v>
       </c>
       <c r="AA12" s="81">
-        <v>0.98742471907109286</v>
+        <v>0.98780405113066794</v>
       </c>
       <c r="AB12" s="190"/>
       <c r="AC12" s="164">
@@ -4054,7 +4056,7 @@
       </c>
       <c r="K13" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015a#0004</v>
+        <v>obj_0015b#0000</v>
       </c>
       <c r="L13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K13,Trigger),"--")</f>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="M13" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K13,Trigger),"--")</f>
-        <v>-4.2699999999999995E-3</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="N13" s="101" t="b">
         <v>1</v>
@@ -4075,18 +4077,18 @@
       </c>
       <c r="Q13" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K13,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R13" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K13,Trigger),"--")</f>
-        <v>42522</v>
+        <v>42541</v>
       </c>
       <c r="T13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U13" s="4" t="str">
-        <v>obj_00134</v>
+        <v>obj_00135</v>
       </c>
       <c r="V13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U13,Trigger),"")</f>
@@ -4094,7 +4096,7 @@
       </c>
       <c r="W13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U13,Trigger),"")</f>
-        <v>4.8500000000000001E-3</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="X13" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U13)),_xll.qlSwapRateHelperSpread($U13))</f>
@@ -4102,14 +4104,14 @@
       </c>
       <c r="Y13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U13,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U13,Trigger),"")</f>
-        <v>44531</v>
+        <v>44550</v>
       </c>
       <c r="AA13" s="81">
-        <v>0.97058481428015331</v>
+        <v>0.97115947963258709</v>
       </c>
       <c r="AB13" s="190"/>
       <c r="AC13" s="164">
@@ -4204,7 +4206,7 @@
         <v>OIS</v>
       </c>
       <c r="U14" s="4" t="str">
-        <v>obj_00114</v>
+        <v>obj_00113</v>
       </c>
       <c r="V14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U14,Trigger),"")</f>
@@ -4212,7 +4214,7 @@
       </c>
       <c r="W14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U14,Trigger),"")</f>
-        <v>6.9249999999999997E-3</v>
+        <v>6.8499999999999993E-3</v>
       </c>
       <c r="X14" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U14)),_xll.qlSwapRateHelperSpread($U14))</f>
@@ -4220,14 +4222,14 @@
       </c>
       <c r="Y14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U14,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U14,Trigger),"")</f>
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="AA14" s="81">
-        <v>0.95132057327031039</v>
+        <v>0.95181654662661153</v>
       </c>
       <c r="AB14" s="190"/>
       <c r="AC14" s="164">
@@ -4284,7 +4286,7 @@
       <c r="G15" s="129"/>
       <c r="H15" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C15,B15,F15,$E15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015a#0004</v>
+        <v>obj_0015b#0000</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="10" t="str">
@@ -4325,7 +4327,7 @@
         <v>OIS</v>
       </c>
       <c r="U15" s="4" t="str">
-        <v>obj_00138</v>
+        <v>obj_00139</v>
       </c>
       <c r="V15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U15,Trigger),"")</f>
@@ -4333,7 +4335,7 @@
       </c>
       <c r="W15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U15,Trigger),"")</f>
-        <v>8.7749999999999998E-3</v>
+        <v>8.6750000000000004E-3</v>
       </c>
       <c r="X15" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U15)),_xll.qlSwapRateHelperSpread($U15))</f>
@@ -4341,14 +4343,14 @@
       </c>
       <c r="Y15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U15,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U15,Trigger),"")</f>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="AA15" s="81">
-        <v>0.93004149812177306</v>
+        <v>0.93081481050850789</v>
       </c>
       <c r="AB15" s="190"/>
       <c r="AC15" s="164">
@@ -4411,7 +4413,7 @@
       </c>
       <c r="K16" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015d#0004</v>
+        <v>obj_0015a#0000</v>
       </c>
       <c r="L16" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K16,Trigger),"--")</f>
@@ -4419,7 +4421,7 @@
       </c>
       <c r="M16" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K16,Trigger),"--")</f>
-        <v>-4.2300000000000003E-3</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="N16" s="101" t="b">
         <v>1</v>
@@ -4432,18 +4434,18 @@
       </c>
       <c r="Q16" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K16,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R16" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K16,Trigger),"--")</f>
-        <v>42614</v>
+        <v>42632</v>
       </c>
       <c r="T16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U16" s="4" t="str">
-        <v>obj_00136</v>
+        <v>obj_0012f</v>
       </c>
       <c r="V16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U16,Trigger),"")</f>
@@ -4451,7 +4453,7 @@
       </c>
       <c r="W16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U16,Trigger),"")</f>
-        <v>1.035E-2</v>
+        <v>1.0275000000000001E-2</v>
       </c>
       <c r="X16" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U16)),_xll.qlSwapRateHelperSpread($U16))</f>
@@ -4459,14 +4461,14 @@
       </c>
       <c r="Y16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U16,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U16,Trigger),"")</f>
-        <v>45628</v>
+        <v>45644</v>
       </c>
       <c r="AA16" s="81">
-        <v>0.90790530805686653</v>
+        <v>0.90856334984443066</v>
       </c>
       <c r="AB16" s="190"/>
       <c r="AC16" s="164">
@@ -4561,7 +4563,7 @@
         <v>OIS</v>
       </c>
       <c r="U17" s="4" t="str">
-        <v>obj_00131</v>
+        <v>obj_00132</v>
       </c>
       <c r="V17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U17,Trigger),"")</f>
@@ -4569,7 +4571,7 @@
       </c>
       <c r="W17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U17,Trigger),"")</f>
-        <v>1.175E-2</v>
+        <v>1.1699999999999999E-2</v>
       </c>
       <c r="X17" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U17)),_xll.qlSwapRateHelperSpread($U17))</f>
@@ -4577,14 +4579,14 @@
       </c>
       <c r="Y17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U17,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U17,Trigger),"")</f>
-        <v>45992</v>
+        <v>46009</v>
       </c>
       <c r="AA17" s="81">
-        <v>0.88493454106228342</v>
+        <v>0.88537953977677897</v>
       </c>
       <c r="AB17" s="190"/>
       <c r="AC17" s="164">
@@ -4641,7 +4643,7 @@
       <c r="G18" s="129"/>
       <c r="H18" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C18,B18,F18,$E18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015d#0004</v>
+        <v>obj_0015a#0000</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="10" t="str">
@@ -4682,7 +4684,7 @@
         <v>OIS</v>
       </c>
       <c r="U18" s="4" t="str">
-        <v>obj_00132</v>
+        <v>obj_0012d</v>
       </c>
       <c r="V18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U18,Trigger),"")</f>
@@ -4690,7 +4692,7 @@
       </c>
       <c r="W18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U18,Trigger),"")</f>
-        <v>1.41E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="X18" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U18)),_xll.qlSwapRateHelperSpread($U18))</f>
@@ -4698,14 +4700,14 @@
       </c>
       <c r="Y18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U18,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U18,Trigger),"")</f>
-        <v>46722</v>
+        <v>46741</v>
       </c>
       <c r="AA18" s="81">
-        <v>0.83763308098179878</v>
+        <v>0.83807660458263999</v>
       </c>
       <c r="AB18" s="190"/>
       <c r="AC18" s="164">
@@ -4800,7 +4802,7 @@
         <v>OIS</v>
       </c>
       <c r="U19" s="4" t="str">
-        <v>obj_0012f</v>
+        <v>obj_00134</v>
       </c>
       <c r="V19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U19,Trigger),"")</f>
@@ -4808,7 +4810,7 @@
       </c>
       <c r="W19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U19,Trigger),"")</f>
-        <v>1.6725E-2</v>
+        <v>1.6674999999999999E-2</v>
       </c>
       <c r="X19" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U19)),_xll.qlSwapRateHelperSpread($U19))</f>
@@ -4816,14 +4818,14 @@
       </c>
       <c r="Y19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U19,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U19,Trigger),"")</f>
-        <v>47819</v>
+        <v>47835</v>
       </c>
       <c r="AA19" s="81">
-        <v>0.76711577144996856</v>
+        <v>0.76773610609940746</v>
       </c>
       <c r="AB19" s="190"/>
       <c r="AC19" s="164">
@@ -4886,7 +4888,7 @@
       </c>
       <c r="K20" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001f3#0003</v>
+        <v>obj_0010b#0000</v>
       </c>
       <c r="L20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K20,Trigger),"--")</f>
@@ -4894,7 +4896,7 @@
       </c>
       <c r="M20" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K20,Trigger),"--")</f>
-        <v>-4.5750000000000001E-3</v>
+        <v>-4.5499999999999994E-3</v>
       </c>
       <c r="N20" s="101" t="b">
         <v>1</v>
@@ -4907,18 +4909,18 @@
       </c>
       <c r="Q20" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K20,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R20" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K20,Trigger),"--")</f>
-        <v>42705</v>
+        <v>42723</v>
       </c>
       <c r="T20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U20" s="4" t="str">
-        <v>obj_0012c</v>
+        <v>obj_00130</v>
       </c>
       <c r="V20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U20,Trigger),"")</f>
@@ -4926,7 +4928,7 @@
       </c>
       <c r="W20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U20,Trigger),"")</f>
-        <v>1.9599999999999999E-2</v>
+        <v>1.9574999999999999E-2</v>
       </c>
       <c r="X20" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U20)),_xll.qlSwapRateHelperSpread($U20))</f>
@@ -4934,14 +4936,14 @@
       </c>
       <c r="Y20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U20,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U20,Trigger),"")</f>
-        <v>49646</v>
+        <v>49661</v>
       </c>
       <c r="AA20" s="81">
-        <v>0.65747340744406857</v>
+        <v>0.65779675284850925</v>
       </c>
       <c r="AB20" s="190"/>
       <c r="AC20" s="164">
@@ -5036,7 +5038,7 @@
         <v>OIS</v>
       </c>
       <c r="U21" s="4" t="str">
-        <v>obj_0012d</v>
+        <v>obj_00131</v>
       </c>
       <c r="V21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U21,Trigger),"")</f>
@@ -5044,7 +5046,7 @@
       </c>
       <c r="W21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U21,Trigger),"")</f>
-        <v>2.0775000000000002E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="X21" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U21)),_xll.qlSwapRateHelperSpread($U21))</f>
@@ -5052,14 +5054,14 @@
       </c>
       <c r="Y21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U21,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U21,Trigger),"")</f>
-        <v>51473</v>
+        <v>51488</v>
       </c>
       <c r="AA21" s="81">
-        <v>0.57316316951171686</v>
+        <v>0.57062616898135388</v>
       </c>
       <c r="AB21" s="190"/>
       <c r="AC21" s="164">
@@ -5116,7 +5118,7 @@
       <c r="G22" s="129"/>
       <c r="H22" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C22,B22,F22,$E22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f3#0003</v>
+        <v>obj_0010b#0000</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="5"/>
@@ -5156,7 +5158,7 @@
         <v>OIS</v>
       </c>
       <c r="U22" s="4" t="str">
-        <v>obj_00133</v>
+        <v>obj_00137</v>
       </c>
       <c r="V22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U22,Trigger),"")</f>
@@ -5164,7 +5166,7 @@
       </c>
       <c r="W22" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U22,Trigger),"")</f>
-        <v>2.1175000000000003E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="X22" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U22)),_xll.qlSwapRateHelperSpread($U22))</f>
@@ -5172,14 +5174,14 @@
       </c>
       <c r="Y22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U22,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="Z22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U22,Trigger),"")</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="AA22" s="81">
-        <v>0.50776963763058536</v>
+        <v>0.50513418590257497</v>
       </c>
       <c r="AB22" s="190"/>
       <c r="AC22" s="164">
@@ -6054,7 +6056,7 @@
       </c>
       <c r="K32" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00161#0004</v>
+        <v>obj_0015f#0000</v>
       </c>
       <c r="L32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K32,Trigger),"--")</f>
@@ -6062,7 +6064,7 @@
       </c>
       <c r="M32" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K32,Trigger),"--")</f>
-        <v>-3.7000000000000002E-3</v>
+        <v>-3.725E-3</v>
       </c>
       <c r="N32" s="101" t="b">
         <v>1</v>
@@ -6075,11 +6077,11 @@
       </c>
       <c r="Q32" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K32,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R32" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K32,Trigger),"--")</f>
-        <v>43070</v>
+        <v>43087</v>
       </c>
       <c r="T32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6223,7 +6225,7 @@
       <c r="G34" s="129"/>
       <c r="H34" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C34,B34,F34,$E34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00161#0004</v>
+        <v>obj_0015f#0000</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6405,7 +6407,7 @@
       </c>
       <c r="K36" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015f#0004</v>
+        <v>obj_00160#0000</v>
       </c>
       <c r="L36" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K36,Trigger),"--")</f>
@@ -6413,7 +6415,7 @@
       </c>
       <c r="M36" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K36,Trigger),"--")</f>
-        <v>-2E-3</v>
+        <v>-2.0249999999999999E-3</v>
       </c>
       <c r="N36" s="101" t="b">
         <v>1</v>
@@ -6426,11 +6428,11 @@
       </c>
       <c r="Q36" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K36,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R36" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K36,Trigger),"--")</f>
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="T36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6574,7 +6576,7 @@
       <c r="G38" s="129"/>
       <c r="H38" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C38,B38,F38,$E38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0004</v>
+        <v>obj_00160#0000</v>
       </c>
       <c r="J38" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6754,7 +6756,7 @@
       </c>
       <c r="K40" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015e#0004</v>
+        <v>obj_0015c#0000</v>
       </c>
       <c r="L40" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K40,Trigger),"--")</f>
@@ -6762,7 +6764,7 @@
       </c>
       <c r="M40" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K40,Trigger),"--")</f>
-        <v>0</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="N40" s="101" t="b">
         <v>1</v>
@@ -6775,11 +6777,11 @@
       </c>
       <c r="Q40" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K40,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R40" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K40,Trigger),"--")</f>
-        <v>43801</v>
+        <v>43817</v>
       </c>
       <c r="T40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6921,7 +6923,7 @@
       <c r="G42" s="129"/>
       <c r="H42" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C42,B42,F42,$E42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015e#0004</v>
+        <v>obj_0015c#0000</v>
       </c>
       <c r="J42" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7101,7 +7103,7 @@
       </c>
       <c r="K44" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00137#0004</v>
+        <v>obj_00138#0000</v>
       </c>
       <c r="L44" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K44,Trigger),"--")</f>
@@ -7109,7 +7111,7 @@
       </c>
       <c r="M44" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K44,Trigger),"--")</f>
-        <v>2.4749999999999998E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="N44" s="101" t="b">
         <v>1</v>
@@ -7122,11 +7124,11 @@
       </c>
       <c r="Q44" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K44,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R44" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K44,Trigger),"--")</f>
-        <v>44166</v>
+        <v>44183</v>
       </c>
       <c r="T44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7187,7 +7189,7 @@
       </c>
       <c r="K45" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00134#0004</v>
+        <v>obj_00135#0000</v>
       </c>
       <c r="L45" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K45,Trigger),"--")</f>
@@ -7195,7 +7197,7 @@
       </c>
       <c r="M45" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K45,Trigger),"--")</f>
-        <v>4.8500000000000001E-3</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="N45" s="101" t="b">
         <v>1</v>
@@ -7208,11 +7210,11 @@
       </c>
       <c r="Q45" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K45,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R45" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K45,Trigger),"--")</f>
-        <v>44531</v>
+        <v>44550</v>
       </c>
       <c r="T45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7268,7 +7270,7 @@
       <c r="G46" s="129"/>
       <c r="H46" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C46,B46,F46,$E46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00137#0004</v>
+        <v>obj_00138#0000</v>
       </c>
       <c r="J46" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7276,7 +7278,7 @@
       </c>
       <c r="K46" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00114#0004</v>
+        <v>obj_00113#0000</v>
       </c>
       <c r="L46" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K46,Trigger),"--")</f>
@@ -7284,7 +7286,7 @@
       </c>
       <c r="M46" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K46,Trigger),"--")</f>
-        <v>6.9249999999999997E-3</v>
+        <v>6.8499999999999993E-3</v>
       </c>
       <c r="N46" s="101" t="b">
         <v>1</v>
@@ -7297,11 +7299,11 @@
       </c>
       <c r="Q46" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K46,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R46" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K46,Trigger),"--")</f>
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="T46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7357,7 +7359,7 @@
       <c r="G47" s="129"/>
       <c r="H47" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C47,B47,F47,$E47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00134#0004</v>
+        <v>obj_00135#0000</v>
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7365,7 +7367,7 @@
       </c>
       <c r="K47" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00138#0004</v>
+        <v>obj_00139#0000</v>
       </c>
       <c r="L47" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K47,Trigger),"--")</f>
@@ -7373,7 +7375,7 @@
       </c>
       <c r="M47" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K47,Trigger),"--")</f>
-        <v>8.7749999999999998E-3</v>
+        <v>8.6750000000000004E-3</v>
       </c>
       <c r="N47" s="101" t="b">
         <v>1</v>
@@ -7386,11 +7388,11 @@
       </c>
       <c r="Q47" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K47,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R47" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K47,Trigger),"--")</f>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="T47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7446,7 +7448,7 @@
       <c r="G48" s="129"/>
       <c r="H48" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C48,B48,F48,$E48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00114#0004</v>
+        <v>obj_00113#0000</v>
       </c>
       <c r="J48" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7454,7 +7456,7 @@
       </c>
       <c r="K48" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00136#0004</v>
+        <v>obj_0012f#0000</v>
       </c>
       <c r="L48" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K48,Trigger),"--")</f>
@@ -7462,7 +7464,7 @@
       </c>
       <c r="M48" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K48,Trigger),"--")</f>
-        <v>1.035E-2</v>
+        <v>1.0275000000000001E-2</v>
       </c>
       <c r="N48" s="101" t="b">
         <v>1</v>
@@ -7475,11 +7477,11 @@
       </c>
       <c r="Q48" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K48,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R48" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K48,Trigger),"--")</f>
-        <v>45628</v>
+        <v>45644</v>
       </c>
       <c r="T48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7535,7 +7537,7 @@
       <c r="G49" s="129"/>
       <c r="H49" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C49,B49,F49,$E49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00138#0004</v>
+        <v>obj_00139#0000</v>
       </c>
       <c r="J49" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7543,7 +7545,7 @@
       </c>
       <c r="K49" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00131#0004</v>
+        <v>obj_00132#0000</v>
       </c>
       <c r="L49" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K49,Trigger),"--")</f>
@@ -7551,7 +7553,7 @@
       </c>
       <c r="M49" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K49,Trigger),"--")</f>
-        <v>1.175E-2</v>
+        <v>1.1699999999999999E-2</v>
       </c>
       <c r="N49" s="101" t="b">
         <v>1</v>
@@ -7564,11 +7566,11 @@
       </c>
       <c r="Q49" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K49,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R49" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K49,Trigger),"--")</f>
-        <v>45992</v>
+        <v>46009</v>
       </c>
       <c r="T49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7624,7 +7626,7 @@
       <c r="G50" s="129"/>
       <c r="H50" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C50,B50,F50,$E50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00136#0004</v>
+        <v>obj_0012f#0000</v>
       </c>
       <c r="J50" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7632,7 +7634,7 @@
       </c>
       <c r="K50" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00132#0004</v>
+        <v>obj_0012d#0000</v>
       </c>
       <c r="L50" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K50,Trigger),"--")</f>
@@ -7640,7 +7642,7 @@
       </c>
       <c r="M50" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K50,Trigger),"--")</f>
-        <v>1.41E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="N50" s="101" t="b">
         <v>1</v>
@@ -7653,11 +7655,11 @@
       </c>
       <c r="Q50" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K50,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R50" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K50,Trigger),"--")</f>
-        <v>46722</v>
+        <v>46741</v>
       </c>
       <c r="T50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7713,7 +7715,7 @@
       <c r="G51" s="129"/>
       <c r="H51" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C51,B51,F51,$E51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00131#0004</v>
+        <v>obj_00132#0000</v>
       </c>
       <c r="J51" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7721,7 +7723,7 @@
       </c>
       <c r="K51" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012f#0004</v>
+        <v>obj_00134#0000</v>
       </c>
       <c r="L51" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K51,Trigger),"--")</f>
@@ -7729,7 +7731,7 @@
       </c>
       <c r="M51" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K51,Trigger),"--")</f>
-        <v>1.6725E-2</v>
+        <v>1.6674999999999999E-2</v>
       </c>
       <c r="N51" s="101" t="b">
         <v>1</v>
@@ -7742,11 +7744,11 @@
       </c>
       <c r="Q51" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K51,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R51" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K51,Trigger),"--")</f>
-        <v>47819</v>
+        <v>47835</v>
       </c>
       <c r="T51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7802,7 +7804,7 @@
       <c r="G52" s="129"/>
       <c r="H52" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C52,B52,F52,$E52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00132#0004</v>
+        <v>obj_0012d#0000</v>
       </c>
       <c r="J52" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7810,7 +7812,7 @@
       </c>
       <c r="K52" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012c#0004</v>
+        <v>obj_00130#0000</v>
       </c>
       <c r="L52" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K52,Trigger),"--")</f>
@@ -7818,7 +7820,7 @@
       </c>
       <c r="M52" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K52,Trigger),"--")</f>
-        <v>1.9599999999999999E-2</v>
+        <v>1.9574999999999999E-2</v>
       </c>
       <c r="N52" s="101" t="b">
         <v>1</v>
@@ -7831,11 +7833,11 @@
       </c>
       <c r="Q52" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K52,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R52" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K52,Trigger),"--")</f>
-        <v>49646</v>
+        <v>49661</v>
       </c>
       <c r="T52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7891,7 +7893,7 @@
       <c r="G53" s="129"/>
       <c r="H53" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C53,B53,F53,$E53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012f#0004</v>
+        <v>obj_00134#0000</v>
       </c>
       <c r="J53" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7899,7 +7901,7 @@
       </c>
       <c r="K53" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012d#0004</v>
+        <v>obj_00131#0000</v>
       </c>
       <c r="L53" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K53,Trigger),"--")</f>
@@ -7907,7 +7909,7 @@
       </c>
       <c r="M53" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K53,Trigger),"--")</f>
-        <v>2.0775000000000002E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="N53" s="101" t="b">
         <v>1</v>
@@ -7920,11 +7922,11 @@
       </c>
       <c r="Q53" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K53,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R53" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K53,Trigger),"--")</f>
-        <v>51473</v>
+        <v>51488</v>
       </c>
       <c r="T53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7980,7 +7982,7 @@
       <c r="G54" s="129"/>
       <c r="H54" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C54,B54,F54,$E54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012c#0004</v>
+        <v>obj_00130#0000</v>
       </c>
       <c r="J54" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8069,7 +8071,7 @@
       <c r="G55" s="129"/>
       <c r="H55" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C55,B55,F55,$E55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012d#0004</v>
+        <v>obj_00131#0000</v>
       </c>
       <c r="J55" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8077,7 +8079,7 @@
       </c>
       <c r="K55" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00133#0004</v>
+        <v>obj_00137#0000</v>
       </c>
       <c r="L55" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K55,Trigger),"--")</f>
@@ -8085,7 +8087,7 @@
       </c>
       <c r="M55" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K55,Trigger),"--")</f>
-        <v>2.1175000000000003E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="N55" s="101" t="b">
         <v>1</v>
@@ -8098,11 +8100,11 @@
       </c>
       <c r="Q55" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K55,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="R55" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K55,Trigger),"--")</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="T55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8244,7 +8246,7 @@
       <c r="G57" s="129"/>
       <c r="H57" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C57,B57,F57,$E57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00133#0004</v>
+        <v>obj_00137#0000</v>
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8718,9 +8720,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80">
+      <c r="AC2" s="80" t="e">
         <f t="array" ref="AC2:AC51">_xll.qlPiecewiseYieldCurveData(YieldCurve_3M,Trigger)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -8751,7 +8753,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012e#0004</v>
+        <v>obj_00133#0000</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H9" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -8795,34 +8797,34 @@
       </c>
       <c r="V3" s="4" t="str">
         <f t="shared" ref="V3:V34" si="1">IFERROR(INDEX($L$3:$L$51,MATCH(X3,$N$3:$N$51,0),1),"")</f>
-        <v>Dp</v>
-      </c>
-      <c r="W3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W3" s="4" t="e">
         <f t="array" ref="W3:W51">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00157</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
-        <v>SEK1MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="Y3" s="73">
+        <v/>
+      </c>
+      <c r="Y3" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>-3.8509999999999998E-3</v>
+        <v/>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
         <v/>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB3" s="5">
+        <v/>
+      </c>
+      <c r="AB3" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42373</v>
-      </c>
-      <c r="AC3" s="81">
-        <v>1.0003638378854158</v>
+        <v/>
+      </c>
+      <c r="AC3" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD3" s="190"/>
       <c r="AF3" s="111" t="s">
@@ -8894,33 +8896,33 @@
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dp</v>
-      </c>
-      <c r="W4" s="4" t="str">
-        <v>obj_00155</v>
+        <v/>
+      </c>
+      <c r="W4" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
-        <v>SEK2MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="Y4" s="73">
+        <v/>
+      </c>
+      <c r="Y4" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>-4.5259999999999996E-3</v>
+        <v/>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
         <v/>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB4" s="5">
+        <v/>
+      </c>
+      <c r="AB4" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42401</v>
-      </c>
-      <c r="AC4" s="81">
-        <v>1.0007800858373528</v>
+        <v/>
+      </c>
+      <c r="AC4" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD4" s="190"/>
       <c r="AF4" s="111" t="s">
@@ -8993,33 +8995,33 @@
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dp</v>
-      </c>
-      <c r="W5" s="4" t="str">
-        <v>obj_00153</v>
+        <v/>
+      </c>
+      <c r="W5" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
-        <v>SEK3MD_SYNTH3M_Quote</v>
-      </c>
-      <c r="Y5" s="73">
+        <v/>
+      </c>
+      <c r="Y5" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>-4.0899999999999999E-3</v>
+        <v/>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
         <v/>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB5" s="5">
+        <v/>
+      </c>
+      <c r="AB5" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42430</v>
-      </c>
-      <c r="AC5" s="81">
-        <v>1.0010349310861144</v>
+        <v/>
+      </c>
+      <c r="AC5" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD5" s="190"/>
       <c r="AE5" s="84"/>
@@ -9027,7 +9029,7 @@
         <v>91</v>
       </c>
       <c r="AJ5" s="112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9093,33 +9095,33 @@
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <v>obj_00163</v>
+        <v/>
+      </c>
+      <c r="W6" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
-        <v>FUTSEK3F1_Quote</v>
-      </c>
-      <c r="Y6" s="73">
+        <v/>
+      </c>
+      <c r="Y6" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>-4.0999999999999925E-3</v>
-      </c>
-      <c r="Z6" s="108">
+        <v/>
+      </c>
+      <c r="Z6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
+        <v/>
+      </c>
+      <c r="AA6" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42354</v>
-      </c>
-      <c r="AB6" s="5">
+        <v/>
+      </c>
+      <c r="AB6" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42445</v>
-      </c>
-      <c r="AC6" s="81">
-        <v>1.0011775246141921</v>
+        <v/>
+      </c>
+      <c r="AC6" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD6" s="190"/>
       <c r="AF6" s="111" t="s">
@@ -9154,7 +9156,7 @@
       <c r="I7" s="129"/>
       <c r="J7" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00157#0004</v>
+        <v>obj_00157#0000</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="10" t="str">
@@ -9163,15 +9165,15 @@
       </c>
       <c r="M7" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00157#0004</v>
+        <v>obj_00157#0000</v>
       </c>
       <c r="N7" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>-3.8509999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P7" s="101" t="b">
         <v>1</v>
@@ -9184,41 +9186,41 @@
       </c>
       <c r="S7" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T7" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42387</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W7" s="4" t="str">
-        <v>obj_00164</v>
+        <v/>
+      </c>
+      <c r="W7" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
-        <v>FUTSEK3F2_Quote</v>
-      </c>
-      <c r="Y7" s="73">
+        <v/>
+      </c>
+      <c r="Y7" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-4.249999999999865E-3</v>
-      </c>
-      <c r="Z7" s="108">
+        <v/>
+      </c>
+      <c r="Z7" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+        <v/>
+      </c>
+      <c r="AA7" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42445</v>
-      </c>
-      <c r="AB7" s="5">
+        <v/>
+      </c>
+      <c r="AB7" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42537</v>
-      </c>
-      <c r="AC7" s="81">
-        <v>1.0022660969583885</v>
+        <v/>
+      </c>
+      <c r="AC7" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD7" s="190"/>
     </row>
@@ -9247,7 +9249,7 @@
       <c r="I8" s="129"/>
       <c r="J8" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00155#0004</v>
+        <v>obj_00154#0000</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="10" t="str">
@@ -9256,15 +9258,15 @@
       </c>
       <c r="M8" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00155#0004</v>
+        <v>obj_00154#0000</v>
       </c>
       <c r="N8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
         <v>SEK2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>-4.5259999999999996E-3</v>
+        <v>--</v>
       </c>
       <c r="P8" s="101" t="b">
         <v>1</v>
@@ -9277,41 +9279,41 @@
       </c>
       <c r="S8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42401</v>
+        <v>42418</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <v>obj_00165</v>
+        <v/>
+      </c>
+      <c r="W8" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
-        <v>FUTSEK3F3_Quote</v>
-      </c>
-      <c r="Y8" s="73">
+        <v/>
+      </c>
+      <c r="Y8" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-4.0999999999999925E-3</v>
-      </c>
-      <c r="Z8" s="108">
+        <v/>
+      </c>
+      <c r="Z8" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+        <v/>
+      </c>
+      <c r="AA8" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42536</v>
-      </c>
-      <c r="AB8" s="5">
+        <v/>
+      </c>
+      <c r="AB8" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42628</v>
-      </c>
-      <c r="AC8" s="81">
-        <v>1.0033051840115912</v>
+        <v/>
+      </c>
+      <c r="AC8" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD8" s="190"/>
     </row>
@@ -9340,7 +9342,7 @@
       <c r="I9" s="130"/>
       <c r="J9" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00153#0004</v>
+        <v>obj_00158#0000</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="11" t="str">
@@ -9349,15 +9351,15 @@
       </c>
       <c r="M9" s="99" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00153#0004</v>
+        <v>obj_00158#0000</v>
       </c>
       <c r="N9" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
         <v>SEK3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O9" s="105">
+      <c r="O9" s="105" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-4.0899999999999999E-3</v>
+        <v>--</v>
       </c>
       <c r="P9" s="104" t="b">
         <v>1</v>
@@ -9370,41 +9372,41 @@
       </c>
       <c r="S9" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T9" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42430</v>
+        <v>42447</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <v>obj_00166</v>
+        <v/>
+      </c>
+      <c r="W9" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
-        <v>FUTSEK3F4_Quote</v>
-      </c>
-      <c r="Y9" s="73">
+        <v/>
+      </c>
+      <c r="Y9" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-3.7000000000000366E-3</v>
-      </c>
-      <c r="Z9" s="108">
+        <v/>
+      </c>
+      <c r="Z9" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
+        <v/>
+      </c>
+      <c r="AA9" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42634</v>
-      </c>
-      <c r="AB9" s="5">
+        <v/>
+      </c>
+      <c r="AB9" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42725</v>
-      </c>
-      <c r="AC9" s="81">
-        <v>1.0043097486991752</v>
+        <v/>
+      </c>
+      <c r="AC9" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD9" s="190"/>
       <c r="AG9" s="49" t="s">
@@ -9426,17 +9428,17 @@
         <f t="shared" ref="L10:L24" si="5">A12</f>
         <v>IMMFRA</v>
       </c>
-      <c r="M10" s="135" t="str">
+      <c r="M10" s="135" t="e">
         <f t="shared" ref="M10:M24" si="6">IF(ISBLANK(J12),"--",J12)</f>
-        <v>obj_00163#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
-        <v>FUTSEK3F1_Quote</v>
-      </c>
-      <c r="O10" s="152">
+        <v>--</v>
+      </c>
+      <c r="O10" s="152" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>100.41</v>
+        <v>--</v>
       </c>
       <c r="P10" s="136" t="b">
         <v>1</v>
@@ -9447,43 +9449,43 @@
       <c r="R10" s="135">
         <v>3</v>
       </c>
-      <c r="S10" s="138">
+      <c r="S10" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42354</v>
-      </c>
-      <c r="T10" s="138">
+        <v>--</v>
+      </c>
+      <c r="T10" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42445</v>
+        <v>--</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <v>obj_00167</v>
+        <v/>
+      </c>
+      <c r="W10" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
-        <v>FUTSEK3F5_Quote</v>
-      </c>
-      <c r="Y10" s="73">
+        <v/>
+      </c>
+      <c r="Y10" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>-3.0499999999999972E-3</v>
-      </c>
-      <c r="Z10" s="108">
+        <v/>
+      </c>
+      <c r="Z10" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
+        <v/>
+      </c>
+      <c r="AA10" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42725</v>
-      </c>
-      <c r="AB10" s="5">
+        <v/>
+      </c>
+      <c r="AB10" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42815</v>
-      </c>
-      <c r="AC10" s="81">
-        <v>1.0050761192394608</v>
+        <v/>
+      </c>
+      <c r="AC10" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD10" s="190"/>
       <c r="AE10" s="77" t="s">
@@ -9541,17 +9543,17 @@
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M11" s="98" t="str">
+      <c r="M11" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00164#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
-        <v>FUTSEK3F2_Quote</v>
-      </c>
-      <c r="O11" s="153">
+        <v>--</v>
+      </c>
+      <c r="O11" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>100.425</v>
+        <v>--</v>
       </c>
       <c r="P11" s="101" t="b">
         <v>1</v>
@@ -9562,43 +9564,43 @@
       <c r="R11" s="98">
         <v>3</v>
       </c>
-      <c r="S11" s="103">
+      <c r="S11" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42445</v>
-      </c>
-      <c r="T11" s="103">
+        <v>--</v>
+      </c>
+      <c r="T11" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42537</v>
+        <v>--</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IMMFRA</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <v>obj_00168</v>
+        <v/>
+      </c>
+      <c r="W11" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
-        <v>FUTSEK3F6_Quote</v>
-      </c>
-      <c r="Y11" s="73">
+        <v/>
+      </c>
+      <c r="Y11" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>-2.1999999999999797E-3</v>
-      </c>
-      <c r="Z11" s="108">
+        <v/>
+      </c>
+      <c r="Z11" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
+        <v/>
+      </c>
+      <c r="AA11" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42809</v>
-      </c>
-      <c r="AB11" s="5">
+        <v/>
+      </c>
+      <c r="AB11" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42901</v>
-      </c>
-      <c r="AC11" s="81">
-        <v>1.00559765036717</v>
+        <v/>
+      </c>
+      <c r="AC11" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD11" s="190"/>
       <c r="AE11" s="161">
@@ -9659,9 +9661,9 @@
       <c r="I12" s="131">
         <v>0</v>
       </c>
-      <c r="J12" s="61" t="str">
+      <c r="J12" s="61" t="e">
         <f>_xll.qlFuturesRateHelper(,H12,$H$10,C12,G12,I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00163#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>37</v>
@@ -9670,17 +9672,17 @@
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M12" s="98" t="str">
+      <c r="M12" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00165#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
-        <v>FUTSEK3F3_Quote</v>
-      </c>
-      <c r="O12" s="153">
+        <v>--</v>
+      </c>
+      <c r="O12" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>100.41</v>
+        <v>--</v>
       </c>
       <c r="P12" s="101" t="b">
         <v>1</v>
@@ -9691,43 +9693,43 @@
       <c r="R12" s="98">
         <v>3</v>
       </c>
-      <c r="S12" s="103">
+      <c r="S12" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42536</v>
-      </c>
-      <c r="T12" s="103">
+        <v>--</v>
+      </c>
+      <c r="T12" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42628</v>
+        <v>--</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W12" s="4" t="str">
-        <v>obj_00112</v>
+        <v/>
+      </c>
+      <c r="W12" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
-        <v>SEKAB3S2Y_Quote</v>
-      </c>
-      <c r="Y12" s="73">
+        <v/>
+      </c>
+      <c r="Y12" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>-3.0499999999999993E-3</v>
-      </c>
-      <c r="Z12" s="108">
+        <v/>
+      </c>
+      <c r="Z12" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5">
+        <v/>
+      </c>
+      <c r="AA12" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB12" s="5">
+        <v/>
+      </c>
+      <c r="AB12" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43070</v>
-      </c>
-      <c r="AC12" s="81">
-        <v>1.006134244424443</v>
+        <v/>
+      </c>
+      <c r="AC12" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD12" s="190"/>
       <c r="AE12" s="164">
@@ -9788,26 +9790,26 @@
       <c r="I13" s="132">
         <v>0</v>
       </c>
-      <c r="J13" s="67" t="str">
+      <c r="J13" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H13,$H$10,C13,G13,I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00164#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M13" s="98" t="str">
+      <c r="M13" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00166#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
-        <v>FUTSEK3F4_Quote</v>
-      </c>
-      <c r="O13" s="153">
+        <v>--</v>
+      </c>
+      <c r="O13" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>100.37</v>
+        <v>--</v>
       </c>
       <c r="P13" s="101" t="b">
         <v>1</v>
@@ -9818,43 +9820,43 @@
       <c r="R13" s="98">
         <v>21</v>
       </c>
-      <c r="S13" s="103">
+      <c r="S13" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42634</v>
-      </c>
-      <c r="T13" s="103">
+        <v>--</v>
+      </c>
+      <c r="T13" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42725</v>
+        <v>--</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <v>obj_00113</v>
+        <v/>
+      </c>
+      <c r="W13" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
-        <v>SEKAB3S3Y_Quote</v>
-      </c>
-      <c r="Y13" s="73">
+        <v/>
+      </c>
+      <c r="Y13" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>-1.0250000000000001E-3</v>
-      </c>
-      <c r="Z13" s="108">
+        <v/>
+      </c>
+      <c r="Z13" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+        <v/>
+      </c>
+      <c r="AA13" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB13" s="5">
+        <v/>
+      </c>
+      <c r="AB13" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>43437</v>
-      </c>
-      <c r="AC13" s="81">
-        <v>1.0031042487220958</v>
+        <v/>
+      </c>
+      <c r="AC13" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD13" s="190"/>
       <c r="AE13" s="164">
@@ -9915,26 +9917,26 @@
       <c r="I14" s="132">
         <v>0</v>
       </c>
-      <c r="J14" s="67" t="str">
+      <c r="J14" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H14,$H$10,C14,G14,I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00165#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M14" s="98" t="str">
+      <c r="M14" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00167#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
-        <v>FUTSEK3F5_Quote</v>
-      </c>
-      <c r="O14" s="153">
+        <v>--</v>
+      </c>
+      <c r="O14" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>100.30500000000001</v>
+        <v>--</v>
       </c>
       <c r="P14" s="101" t="b">
         <v>1</v>
@@ -9945,43 +9947,43 @@
       <c r="R14" s="98">
         <v>21</v>
       </c>
-      <c r="S14" s="103">
+      <c r="S14" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42725</v>
-      </c>
-      <c r="T14" s="103">
+        <v>--</v>
+      </c>
+      <c r="T14" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42815</v>
+        <v>--</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <v>obj_00116</v>
+        <v/>
+      </c>
+      <c r="W14" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
-        <v>SEKAB3S4Y_Quote</v>
-      </c>
-      <c r="Y14" s="73">
+        <v/>
+      </c>
+      <c r="Y14" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.325E-3</v>
-      </c>
-      <c r="Z14" s="108">
+        <v/>
+      </c>
+      <c r="Z14" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
+        <v/>
+      </c>
+      <c r="AA14" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB14" s="5">
+        <v/>
+      </c>
+      <c r="AB14" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>43801</v>
-      </c>
-      <c r="AC14" s="81">
-        <v>0.99472231886253348</v>
+        <v/>
+      </c>
+      <c r="AC14" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD14" s="190"/>
       <c r="AE14" s="164">
@@ -10042,26 +10044,26 @@
       <c r="I15" s="132">
         <v>0</v>
       </c>
-      <c r="J15" s="67" t="str">
+      <c r="J15" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H15,$H$10,C15,G15,I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00166#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M15" s="98" t="str">
+      <c r="M15" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00168#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N15" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
-        <v>FUTSEK3F6_Quote</v>
-      </c>
-      <c r="O15" s="153">
+        <v>--</v>
+      </c>
+      <c r="O15" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>100.22</v>
+        <v>--</v>
       </c>
       <c r="P15" s="101" t="b">
         <v>1</v>
@@ -10072,43 +10074,43 @@
       <c r="R15" s="98">
         <v>21</v>
       </c>
-      <c r="S15" s="103">
+      <c r="S15" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42809</v>
-      </c>
-      <c r="T15" s="103">
+        <v>--</v>
+      </c>
+      <c r="T15" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42901</v>
+        <v>--</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W15" s="4" t="str">
-        <v>obj_0010f</v>
+        <v/>
+      </c>
+      <c r="W15" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v>SEKAB3S5Y_Quote</v>
-      </c>
-      <c r="Y15" s="73">
+        <v/>
+      </c>
+      <c r="Y15" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>3.8500000000000001E-3</v>
-      </c>
-      <c r="Z15" s="108">
+        <v/>
+      </c>
+      <c r="Z15" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5">
+        <v/>
+      </c>
+      <c r="AA15" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB15" s="5">
+        <v/>
+      </c>
+      <c r="AB15" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44166</v>
-      </c>
-      <c r="AC15" s="81">
-        <v>0.9808663650169378</v>
+        <v/>
+      </c>
+      <c r="AC15" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD15" s="190"/>
       <c r="AE15" s="164">
@@ -10169,26 +10171,26 @@
       <c r="I16" s="132">
         <v>0</v>
       </c>
-      <c r="J16" s="67" t="str">
+      <c r="J16" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H16,$H$10,C16,G16,I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00167#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M16" s="98" t="str">
+      <c r="M16" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_00169#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N16" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
-        <v>FUTSEK3F7_Quote</v>
-      </c>
-      <c r="O16" s="153">
+        <v>--</v>
+      </c>
+      <c r="O16" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>100.11499999999999</v>
+        <v>--</v>
       </c>
       <c r="P16" s="101" t="b">
         <v>1</v>
@@ -10199,43 +10201,43 @@
       <c r="R16" s="98">
         <v>21</v>
       </c>
-      <c r="S16" s="103">
+      <c r="S16" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42907</v>
-      </c>
-      <c r="T16" s="103">
+        <v>--</v>
+      </c>
+      <c r="T16" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42999</v>
+        <v>--</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <v>obj_0011a</v>
+        <v/>
+      </c>
+      <c r="W16" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>SEKAB3S6Y_Quote</v>
-      </c>
-      <c r="Y16" s="73">
+        <v/>
+      </c>
+      <c r="Y16" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>6.2249999999999996E-3</v>
-      </c>
-      <c r="Z16" s="108">
+        <v/>
+      </c>
+      <c r="Z16" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
+        <v/>
+      </c>
+      <c r="AA16" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB16" s="5">
+        <v/>
+      </c>
+      <c r="AB16" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>44531</v>
-      </c>
-      <c r="AC16" s="81">
-        <v>0.96306706400941366</v>
+        <v/>
+      </c>
+      <c r="AC16" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD16" s="190"/>
       <c r="AE16" s="164">
@@ -10296,26 +10298,26 @@
       <c r="I17" s="132">
         <v>0</v>
       </c>
-      <c r="J17" s="67" t="str">
+      <c r="J17" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H17,$H$10,C17,G17,I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00168#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M17" s="98" t="str">
+      <c r="M17" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_0016a#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N17" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
-        <v>FUTSEK3F8_Quote</v>
-      </c>
-      <c r="O17" s="153">
+        <v>--</v>
+      </c>
+      <c r="O17" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>100</v>
+        <v>--</v>
       </c>
       <c r="P17" s="101" t="b">
         <v>1</v>
@@ -10326,43 +10328,43 @@
       <c r="R17" s="98">
         <v>21</v>
       </c>
-      <c r="S17" s="103">
+      <c r="S17" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42998</v>
-      </c>
-      <c r="T17" s="103">
+        <v>--</v>
+      </c>
+      <c r="T17" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>43089</v>
+        <v>--</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <v>obj_00115</v>
+        <v/>
+      </c>
+      <c r="W17" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>SEKAB3S7Y_Quote</v>
-      </c>
-      <c r="Y17" s="73">
+        <v/>
+      </c>
+      <c r="Y17" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>8.3249999999999991E-3</v>
-      </c>
-      <c r="Z17" s="108">
+        <v/>
+      </c>
+      <c r="Z17" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5">
+        <v/>
+      </c>
+      <c r="AA17" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB17" s="5">
+        <v/>
+      </c>
+      <c r="AB17" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>44896</v>
-      </c>
-      <c r="AC17" s="81">
-        <v>0.94277172317317781</v>
+        <v/>
+      </c>
+      <c r="AC17" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD17" s="190"/>
       <c r="AE17" s="164">
@@ -10423,26 +10425,26 @@
       <c r="I18" s="132">
         <v>0</v>
       </c>
-      <c r="J18" s="67" t="str">
+      <c r="J18" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H18,$H$10,C18,G18,I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00169#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M18" s="98" t="str">
+      <c r="M18" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_0016b#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
-        <v>FUTSEK3F9_Quote</v>
-      </c>
-      <c r="O18" s="153">
+        <v>--</v>
+      </c>
+      <c r="O18" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>99.88</v>
+        <v>--</v>
       </c>
       <c r="P18" s="101" t="b">
         <v>1</v>
@@ -10453,43 +10455,43 @@
       <c r="R18" s="98">
         <v>21</v>
       </c>
-      <c r="S18" s="103">
+      <c r="S18" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>43089</v>
-      </c>
-      <c r="T18" s="103">
+        <v>--</v>
+      </c>
+      <c r="T18" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>43179</v>
+        <v>--</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W18" s="4" t="str">
-        <v>obj_00117</v>
+        <v/>
+      </c>
+      <c r="W18" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>SEKAB3S8Y_Quote</v>
-      </c>
-      <c r="Y18" s="73">
+        <v/>
+      </c>
+      <c r="Y18" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.0150000000000001E-2</v>
-      </c>
-      <c r="Z18" s="108">
+        <v/>
+      </c>
+      <c r="Z18" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
+        <v/>
+      </c>
+      <c r="AA18" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB18" s="5">
+        <v/>
+      </c>
+      <c r="AB18" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>45261</v>
-      </c>
-      <c r="AC18" s="81">
-        <v>0.92089903909525694</v>
+        <v/>
+      </c>
+      <c r="AC18" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD18" s="190"/>
       <c r="AE18" s="164">
@@ -10550,26 +10552,26 @@
       <c r="I19" s="132">
         <v>0</v>
       </c>
-      <c r="J19" s="67" t="str">
+      <c r="J19" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H19,$H$10,C19,G19,I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016a#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M19" s="98" t="str">
+      <c r="M19" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_0016c#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N19" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
-        <v>FUTSEK3F10_Quote</v>
-      </c>
-      <c r="O19" s="153">
+        <v>--</v>
+      </c>
+      <c r="O19" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>99.751000000000005</v>
+        <v>--</v>
       </c>
       <c r="P19" s="101" t="b">
         <v>1</v>
@@ -10580,43 +10582,43 @@
       <c r="R19" s="98">
         <v>21</v>
       </c>
-      <c r="S19" s="103">
+      <c r="S19" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>43180</v>
-      </c>
-      <c r="T19" s="103">
+        <v>--</v>
+      </c>
+      <c r="T19" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>43272</v>
+        <v>--</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W19" s="4" t="str">
-        <v>obj_00111</v>
+        <v/>
+      </c>
+      <c r="W19" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>SEKAB3S9Y_Quote</v>
-      </c>
-      <c r="Y19" s="73">
+        <v/>
+      </c>
+      <c r="Y19" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.1724999999999999E-2</v>
-      </c>
-      <c r="Z19" s="108">
+        <v/>
+      </c>
+      <c r="Z19" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
+        <v/>
+      </c>
+      <c r="AA19" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB19" s="5">
+        <v/>
+      </c>
+      <c r="AB19" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>45628</v>
-      </c>
-      <c r="AC19" s="81">
-        <v>0.89808968705562386</v>
+        <v/>
+      </c>
+      <c r="AC19" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD19" s="190"/>
       <c r="AE19" s="164">
@@ -10677,26 +10679,26 @@
       <c r="I20" s="132">
         <v>0</v>
       </c>
-      <c r="J20" s="67" t="str">
+      <c r="J20" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H20,$H$10,C20,G20,I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016b#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M20" s="98" t="str">
+      <c r="M20" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_0016d#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
-        <v>FUTSEK3F11_Quote</v>
-      </c>
-      <c r="O20" s="153">
+        <v>--</v>
+      </c>
+      <c r="O20" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>99.614000000000004</v>
+        <v>--</v>
       </c>
       <c r="P20" s="101" t="b">
         <v>1</v>
@@ -10707,43 +10709,43 @@
       <c r="R20" s="98">
         <v>21</v>
       </c>
-      <c r="S20" s="103">
+      <c r="S20" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>43271</v>
-      </c>
-      <c r="T20" s="103">
+        <v>--</v>
+      </c>
+      <c r="T20" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>43363</v>
+        <v>--</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <v>obj_00119</v>
+        <v/>
+      </c>
+      <c r="W20" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>SEKAB3S10Y_Quote</v>
-      </c>
-      <c r="Y20" s="73">
+        <v/>
+      </c>
+      <c r="Y20" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="Z20" s="108">
+        <v/>
+      </c>
+      <c r="Z20" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="5">
+        <v/>
+      </c>
+      <c r="AA20" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB20" s="5">
+        <v/>
+      </c>
+      <c r="AB20" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>45992</v>
-      </c>
-      <c r="AC20" s="81">
-        <v>0.87474042058630719</v>
+        <v/>
+      </c>
+      <c r="AC20" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD20" s="190"/>
       <c r="AE20" s="164">
@@ -10804,26 +10806,26 @@
       <c r="I21" s="132">
         <v>0</v>
       </c>
-      <c r="J21" s="67" t="str">
+      <c r="J21" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H21,$H$10,C21,G21,I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016c#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M21" s="98" t="str">
+      <c r="M21" s="98" t="e">
         <f t="shared" si="6"/>
-        <v>obj_0016e#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
-        <v>FUTSEK3F12_Quote</v>
-      </c>
-      <c r="O21" s="153">
+        <v>--</v>
+      </c>
+      <c r="O21" s="153" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>99.478999999999999</v>
+        <v>--</v>
       </c>
       <c r="P21" s="101" t="b">
         <v>1</v>
@@ -10834,43 +10836,43 @@
       <c r="R21" s="98">
         <v>21</v>
       </c>
-      <c r="S21" s="103">
+      <c r="S21" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>43362</v>
-      </c>
-      <c r="T21" s="103">
+        <v>--</v>
+      </c>
+      <c r="T21" s="103" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>43453</v>
+        <v>--</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <v>obj_0010d</v>
+        <v/>
+      </c>
+      <c r="W21" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>SEKAB3S12Y_Quote</v>
-      </c>
-      <c r="Y21" s="73">
+        <v/>
+      </c>
+      <c r="Y21" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.5424999999999999E-2</v>
-      </c>
-      <c r="Z21" s="108">
+        <v/>
+      </c>
+      <c r="Z21" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5">
+        <v/>
+      </c>
+      <c r="AA21" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB21" s="5">
+        <v/>
+      </c>
+      <c r="AB21" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>46722</v>
-      </c>
-      <c r="AC21" s="81">
-        <v>0.8266979763289839</v>
+        <v/>
+      </c>
+      <c r="AC21" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD21" s="190"/>
       <c r="AE21" s="164">
@@ -10931,9 +10933,9 @@
       <c r="I22" s="132">
         <v>0</v>
       </c>
-      <c r="J22" s="67" t="str">
+      <c r="J22" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H22,$H$10,C22,G22,I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016d#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="10" t="str">
@@ -10971,33 +10973,33 @@
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W22" s="4" t="str">
-        <v>obj_00118</v>
+        <v/>
+      </c>
+      <c r="W22" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>SEKAB3S15Y_Quote</v>
-      </c>
-      <c r="Y22" s="73">
+        <v/>
+      </c>
+      <c r="Y22" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="Z22" s="108">
+        <v/>
+      </c>
+      <c r="Z22" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5">
+        <v/>
+      </c>
+      <c r="AA22" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB22" s="5">
+        <v/>
+      </c>
+      <c r="AB22" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>47819</v>
-      </c>
-      <c r="AC22" s="81">
-        <v>0.75576176761786928</v>
+        <v/>
+      </c>
+      <c r="AC22" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD22" s="190"/>
       <c r="AE22" s="164">
@@ -11058,9 +11060,9 @@
       <c r="I23" s="132">
         <v>0</v>
       </c>
-      <c r="J23" s="67" t="str">
+      <c r="J23" s="67" t="e">
         <f>_xll.qlFuturesRateHelper(,H23,$H$10,C23,G23,I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016e#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="10" t="str">
@@ -11098,33 +11100,33 @@
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W23" s="4" t="str">
-        <v>obj_00110</v>
+        <v/>
+      </c>
+      <c r="W23" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>SEKAB3S20Y_Quote</v>
-      </c>
-      <c r="Y23" s="73">
+        <v/>
+      </c>
+      <c r="Y23" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.0724999999999997E-2</v>
-      </c>
-      <c r="Z23" s="108">
+        <v/>
+      </c>
+      <c r="Z23" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5">
+        <v/>
+      </c>
+      <c r="AA23" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB23" s="5">
+        <v/>
+      </c>
+      <c r="AB23" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>49646</v>
-      </c>
-      <c r="AC23" s="81">
-        <v>0.64747009054228211</v>
+        <v/>
+      </c>
+      <c r="AC23" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD23" s="190"/>
       <c r="AE23" s="167">
@@ -11222,33 +11224,33 @@
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W24" s="4" t="str">
-        <v>obj_0010c</v>
+        <v/>
+      </c>
+      <c r="W24" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X24" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>SEKAB3S25Y_Quote</v>
-      </c>
-      <c r="Y24" s="73">
+        <v/>
+      </c>
+      <c r="Y24" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.1825000000000001E-2</v>
-      </c>
-      <c r="Z24" s="108">
+        <v/>
+      </c>
+      <c r="Z24" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="5">
+        <v/>
+      </c>
+      <c r="AA24" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB24" s="5">
+        <v/>
+      </c>
+      <c r="AB24" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>51473</v>
-      </c>
-      <c r="AC24" s="81">
-        <v>0.5638518061545339</v>
+        <v/>
+      </c>
+      <c r="AC24" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD24" s="190"/>
     </row>
@@ -11316,33 +11318,33 @@
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sw</v>
-      </c>
-      <c r="W25" s="4" t="str">
-        <v>obj_0010e</v>
+        <v/>
+      </c>
+      <c r="W25" s="4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X25" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>SEKAB3S30Y_Quote</v>
-      </c>
-      <c r="Y25" s="73">
+        <v/>
+      </c>
+      <c r="Y25" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.2125000000000002E-2</v>
-      </c>
-      <c r="Z25" s="108">
+        <v/>
+      </c>
+      <c r="Z25" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="5">
+        <v/>
+      </c>
+      <c r="AA25" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42339</v>
-      </c>
-      <c r="AB25" s="5">
+        <v/>
+      </c>
+      <c r="AB25" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>53297</v>
-      </c>
-      <c r="AC25" s="81">
-        <v>0.49992612963480643</v>
+        <v/>
+      </c>
+      <c r="AC25" s="81" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD25" s="190"/>
     </row>
@@ -11413,7 +11415,7 @@
         <v/>
       </c>
       <c r="W26" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X26" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -11436,7 +11438,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD26" s="190"/>
     </row>
@@ -11486,7 +11488,7 @@
         <v/>
       </c>
       <c r="W27" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X27" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -11509,7 +11511,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD27" s="190"/>
     </row>
@@ -11583,7 +11585,7 @@
         <v/>
       </c>
       <c r="W28" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X28" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -11606,7 +11608,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD28" s="190"/>
     </row>
@@ -11680,7 +11682,7 @@
         <v/>
       </c>
       <c r="W29" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X29" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
@@ -11703,7 +11705,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD29" s="190"/>
     </row>
@@ -11745,7 +11747,7 @@
       </c>
       <c r="M30" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00112#0004</v>
+        <v>obj_0010f#0000</v>
       </c>
       <c r="N30" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
@@ -11753,7 +11755,7 @@
       </c>
       <c r="O30" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>-3.0499999999999993E-3</v>
+        <v>-3.1000000000000003E-3</v>
       </c>
       <c r="P30" s="143" t="b">
         <v>1</v>
@@ -11766,18 +11768,18 @@
       </c>
       <c r="S30" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T30" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>43070</v>
+        <v>43087</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W30" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X30" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
@@ -11800,7 +11802,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11873,7 +11875,7 @@
         <v/>
       </c>
       <c r="W31" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X31" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
@@ -11896,7 +11898,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11969,7 +11971,7 @@
         <v/>
       </c>
       <c r="W32" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X32" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
@@ -11992,7 +11994,7 @@
         <v/>
       </c>
       <c r="AC32" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12065,7 +12067,7 @@
         <v/>
       </c>
       <c r="W33" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X33" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
@@ -12088,7 +12090,7 @@
         <v/>
       </c>
       <c r="AC33" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12123,7 +12125,7 @@
       </c>
       <c r="J34" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,2,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00112#0004</v>
+        <v>obj_0010f#0000</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="74" t="str">
@@ -12132,7 +12134,7 @@
       </c>
       <c r="M34" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00113#0004</v>
+        <v>obj_00111#0000</v>
       </c>
       <c r="N34" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
@@ -12140,7 +12142,7 @@
       </c>
       <c r="O34" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M34,Trigger),"--")</f>
-        <v>-1.0250000000000001E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="P34" s="143" t="b">
         <v>1</v>
@@ -12153,18 +12155,18 @@
       </c>
       <c r="S34" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M34,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T34" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M34,Trigger),"--")</f>
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="V34" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W34" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X34" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
@@ -12187,7 +12189,7 @@
         <v/>
       </c>
       <c r="AC34" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12228,7 +12230,7 @@
       </c>
       <c r="M35" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00116#0004</v>
+        <v>obj_00117#0000</v>
       </c>
       <c r="N35" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
@@ -12236,7 +12238,7 @@
       </c>
       <c r="O35" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>1.325E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="P35" s="143" t="b">
         <v>1</v>
@@ -12249,18 +12251,18 @@
       </c>
       <c r="S35" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T35" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>43801</v>
+        <v>43817</v>
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" ref="V35:V51" si="16">IFERROR(INDEX($L$3:$L$51,MATCH(X35,$N$3:$N$51,0),1),"")</f>
         <v/>
       </c>
       <c r="W35" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X35" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
@@ -12283,7 +12285,7 @@
         <v/>
       </c>
       <c r="AC35" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12324,7 +12326,7 @@
       </c>
       <c r="M36" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010f#0004</v>
+        <v>obj_00118#0000</v>
       </c>
       <c r="N36" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
@@ -12332,7 +12334,7 @@
       </c>
       <c r="O36" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.7750000000000001E-3</v>
       </c>
       <c r="P36" s="143" t="b">
         <v>1</v>
@@ -12345,18 +12347,18 @@
       </c>
       <c r="S36" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M36,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T36" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M36,Trigger),"--")</f>
-        <v>44166</v>
+        <v>44183</v>
       </c>
       <c r="V36" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W36" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X36" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
@@ -12379,7 +12381,7 @@
         <v/>
       </c>
       <c r="AC36" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12420,7 +12422,7 @@
       </c>
       <c r="M37" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0011a#0004</v>
+        <v>obj_00110#0000</v>
       </c>
       <c r="N37" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M37,Trigger),"--")</f>
@@ -12428,7 +12430,7 @@
       </c>
       <c r="O37" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M37,Trigger),"--")</f>
-        <v>6.2249999999999996E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="P37" s="143" t="b">
         <v>1</v>
@@ -12441,18 +12443,18 @@
       </c>
       <c r="S37" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M37,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T37" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M37,Trigger),"--")</f>
-        <v>44531</v>
+        <v>44550</v>
       </c>
       <c r="V37" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W37" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X37" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
@@ -12475,7 +12477,7 @@
         <v/>
       </c>
       <c r="AC37" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12510,7 +12512,7 @@
       </c>
       <c r="J38" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H38,2,B38,Calendar,D38,E38,F38,G38,I38,C38,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00113#0004</v>
+        <v>obj_00111#0000</v>
       </c>
       <c r="K38" s="51"/>
       <c r="L38" s="74" t="str">
@@ -12519,7 +12521,7 @@
       </c>
       <c r="M38" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00115#0004</v>
+        <v>obj_00115#0000</v>
       </c>
       <c r="N38" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
@@ -12527,7 +12529,7 @@
       </c>
       <c r="O38" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M38,Trigger),"--")</f>
-        <v>8.3249999999999991E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="P38" s="143" t="b">
         <v>1</v>
@@ -12540,18 +12542,18 @@
       </c>
       <c r="S38" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M38,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T38" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M38,Trigger),"--")</f>
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="V38" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W38" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X38" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
@@ -12574,7 +12576,7 @@
         <v/>
       </c>
       <c r="AC38" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12609,7 +12611,7 @@
       </c>
       <c r="J39" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H39,2,B39,Calendar,D39,E39,F39,G39,I39,C39,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00116#0004</v>
+        <v>obj_00117#0000</v>
       </c>
       <c r="K39" s="51"/>
       <c r="L39" s="74" t="str">
@@ -12618,7 +12620,7 @@
       </c>
       <c r="M39" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00117#0004</v>
+        <v>obj_00119#0000</v>
       </c>
       <c r="N39" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -12626,7 +12628,7 @@
       </c>
       <c r="O39" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>1.0150000000000001E-2</v>
+        <v>1.0050000000000002E-2</v>
       </c>
       <c r="P39" s="143" t="b">
         <v>1</v>
@@ -12639,18 +12641,18 @@
       </c>
       <c r="S39" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T39" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="V39" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W39" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X39" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
@@ -12673,7 +12675,7 @@
         <v/>
       </c>
       <c r="AC39" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12708,7 +12710,7 @@
       </c>
       <c r="J40" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H40,2,B40,Calendar,D40,E40,F40,G40,I40,C40,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010f#0004</v>
+        <v>obj_00118#0000</v>
       </c>
       <c r="K40" s="51"/>
       <c r="L40" s="74" t="str">
@@ -12717,7 +12719,7 @@
       </c>
       <c r="M40" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00111#0004</v>
+        <v>obj_0010d#0000</v>
       </c>
       <c r="N40" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -12725,7 +12727,7 @@
       </c>
       <c r="O40" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>1.1724999999999999E-2</v>
+        <v>1.1650000000000001E-2</v>
       </c>
       <c r="P40" s="143" t="b">
         <v>1</v>
@@ -12738,18 +12740,18 @@
       </c>
       <c r="S40" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T40" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>45628</v>
+        <v>45644</v>
       </c>
       <c r="V40" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W40" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X40" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
@@ -12772,7 +12774,7 @@
         <v/>
       </c>
       <c r="AC40" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12807,7 +12809,7 @@
       </c>
       <c r="J41" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H41,2,B41,Calendar,D41,E41,F41,G41,I41,C41,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011a#0004</v>
+        <v>obj_00110#0000</v>
       </c>
       <c r="L41" s="74" t="str">
         <f t="shared" si="12"/>
@@ -12815,7 +12817,7 @@
       </c>
       <c r="M41" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00119#0004</v>
+        <v>obj_0010e#0000</v>
       </c>
       <c r="N41" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -12823,7 +12825,7 @@
       </c>
       <c r="O41" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>1.3100000000000001E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="P41" s="143" t="b">
         <v>1</v>
@@ -12836,18 +12838,18 @@
       </c>
       <c r="S41" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T41" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>45992</v>
+        <v>46009</v>
       </c>
       <c r="V41" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W41" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X41" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
@@ -12870,7 +12872,7 @@
         <v/>
       </c>
       <c r="AC41" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12905,7 +12907,7 @@
       </c>
       <c r="J42" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H42,2,B42,Calendar,D42,E42,F42,G42,I42,C42,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00115#0004</v>
+        <v>obj_00115#0000</v>
       </c>
       <c r="L42" s="74" t="str">
         <f t="shared" si="12"/>
@@ -12913,7 +12915,7 @@
       </c>
       <c r="M42" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010d#0004</v>
+        <v>obj_00114#0000</v>
       </c>
       <c r="N42" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -12921,7 +12923,7 @@
       </c>
       <c r="O42" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>1.5424999999999999E-2</v>
+        <v>1.5375000000000002E-2</v>
       </c>
       <c r="P42" s="143" t="b">
         <v>1</v>
@@ -12934,18 +12936,18 @@
       </c>
       <c r="S42" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T42" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>46722</v>
+        <v>46741</v>
       </c>
       <c r="V42" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W42" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X42" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
@@ -12968,7 +12970,7 @@
         <v/>
       </c>
       <c r="AC42" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13003,7 +13005,7 @@
       </c>
       <c r="J43" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H43,2,B43,Calendar,D43,E43,F43,G43,I43,C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00117#0004</v>
+        <v>obj_00119#0000</v>
       </c>
       <c r="L43" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13011,7 +13013,7 @@
       </c>
       <c r="M43" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00118#0004</v>
+        <v>obj_0011b#0000</v>
       </c>
       <c r="N43" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
@@ -13019,7 +13021,7 @@
       </c>
       <c r="O43" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="P43" s="143" t="b">
         <v>1</v>
@@ -13032,18 +13034,18 @@
       </c>
       <c r="S43" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M43,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T43" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M43,Trigger),"--")</f>
-        <v>47819</v>
+        <v>47835</v>
       </c>
       <c r="V43" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W43" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X43" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
@@ -13066,7 +13068,7 @@
         <v/>
       </c>
       <c r="AC43" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13101,7 +13103,7 @@
       </c>
       <c r="J44" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H44,2,B44,Calendar,D44,E44,F44,G44,I44,C44,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00111#0004</v>
+        <v>obj_0010d#0000</v>
       </c>
       <c r="L44" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13109,7 +13111,7 @@
       </c>
       <c r="M44" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00110#0004</v>
+        <v>obj_0011a#0000</v>
       </c>
       <c r="N44" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
@@ -13117,7 +13119,7 @@
       </c>
       <c r="O44" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M44,Trigger),"--")</f>
-        <v>2.0724999999999997E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="P44" s="143" t="b">
         <v>1</v>
@@ -13130,18 +13132,18 @@
       </c>
       <c r="S44" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M44,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T44" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M44,Trigger),"--")</f>
-        <v>49646</v>
+        <v>49661</v>
       </c>
       <c r="V44" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W44" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X44" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
@@ -13164,7 +13166,7 @@
         <v/>
       </c>
       <c r="AC44" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13199,7 +13201,7 @@
       </c>
       <c r="J45" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H45,2,B45,Calendar,D45,E45,F45,G45,I45,C45,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00119#0004</v>
+        <v>obj_0010e#0000</v>
       </c>
       <c r="L45" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13207,7 +13209,7 @@
       </c>
       <c r="M45" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010c#0004</v>
+        <v>obj_00112#0000</v>
       </c>
       <c r="N45" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
@@ -13215,7 +13217,7 @@
       </c>
       <c r="O45" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M45,Trigger),"--")</f>
-        <v>2.1825000000000001E-2</v>
+        <v>2.1949999999999997E-2</v>
       </c>
       <c r="P45" s="143" t="b">
         <v>1</v>
@@ -13228,18 +13230,18 @@
       </c>
       <c r="S45" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M45,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T45" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M45,Trigger),"--")</f>
-        <v>51473</v>
+        <v>51488</v>
       </c>
       <c r="V45" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W45" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X45" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
@@ -13262,7 +13264,7 @@
         <v/>
       </c>
       <c r="AC45" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13297,7 +13299,7 @@
       </c>
       <c r="J46" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H46,2,B46,Calendar,D46,E46,F46,G46,I46,C46,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010d#0004</v>
+        <v>obj_00114#0000</v>
       </c>
       <c r="L46" s="74" t="str">
         <f t="shared" ref="L46:L51" si="17">A50</f>
@@ -13337,7 +13339,7 @@
         <v/>
       </c>
       <c r="W46" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X46" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
@@ -13360,7 +13362,7 @@
         <v/>
       </c>
       <c r="AC46" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13395,7 +13397,7 @@
       </c>
       <c r="J47" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H47,2,B47,Calendar,D47,E47,F47,G47,I47,C47,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00118#0004</v>
+        <v>obj_0011b#0000</v>
       </c>
       <c r="L47" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13403,7 +13405,7 @@
       </c>
       <c r="M47" s="143" t="str">
         <f t="shared" si="18"/>
-        <v>obj_0010e#0004</v>
+        <v>obj_00116#0000</v>
       </c>
       <c r="N47" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
@@ -13411,7 +13413,7 @@
       </c>
       <c r="O47" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>2.2125000000000002E-2</v>
+        <v>2.2249999999999995E-2</v>
       </c>
       <c r="P47" s="143" t="b">
         <v>1</v>
@@ -13424,18 +13426,18 @@
       </c>
       <c r="S47" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M47,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T47" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M47,Trigger),"--")</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="V47" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W47" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X47" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
@@ -13458,7 +13460,7 @@
         <v/>
       </c>
       <c r="AC47" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13493,7 +13495,7 @@
       </c>
       <c r="J48" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H48,2,B48,Calendar,D48,E48,F48,G48,I48,C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00110#0004</v>
+        <v>obj_0011a#0000</v>
       </c>
       <c r="L48" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13533,7 +13535,7 @@
         <v/>
       </c>
       <c r="W48" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X48" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
@@ -13556,7 +13558,7 @@
         <v/>
       </c>
       <c r="AC48" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13591,7 +13593,7 @@
       </c>
       <c r="J49" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H49,2,B49,Calendar,D49,E49,F49,G49,I49,C49,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010c#0004</v>
+        <v>obj_00112#0000</v>
       </c>
       <c r="L49" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13631,7 +13633,7 @@
         <v/>
       </c>
       <c r="W49" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X49" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
@@ -13654,7 +13656,7 @@
         <v/>
       </c>
       <c r="AC49" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13726,7 +13728,7 @@
         <v/>
       </c>
       <c r="W50" s="4" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X50" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
@@ -13749,7 +13751,7 @@
         <v/>
       </c>
       <c r="AC50" s="81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13784,7 +13786,7 @@
       </c>
       <c r="J51" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H51,2,B51,Calendar,D51,E51,F51,G51,I51,C51,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010e#0004</v>
+        <v>obj_00116#0000</v>
       </c>
       <c r="L51" s="75" t="str">
         <f t="shared" si="17"/>
@@ -13824,7 +13826,7 @@
         <v/>
       </c>
       <c r="W51" s="6" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="X51" s="6" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
@@ -13847,7 +13849,7 @@
         <v/>
       </c>
       <c r="AC51" s="82" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14013,7 +14015,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6 E29:E55">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
@@ -14192,9 +14194,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80">
+      <c r="AC2" s="80" t="e">
         <f t="array" ref="AC2:AC39">_xll.qlPiecewiseYieldCurveData(YieldCurve_6M,Trigger)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -14225,7 +14227,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00130#0004</v>
+        <v>obj_00136#0000</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H12" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -14273,15 +14275,15 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W39">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0014f</v>
+        <v>obj_00150</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
         <v>SEK1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y3" s="73">
+      <c r="Y3" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>-2.4910000000000002E-3</v>
+        <v/>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -14289,14 +14291,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42373</v>
-      </c>
-      <c r="AC3" s="81">
-        <v>1.0002353164719258</v>
+        <v>42387</v>
+      </c>
+      <c r="AC3" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD3" s="190"/>
       <c r="AF3" s="200" t="s">
@@ -14371,15 +14373,15 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="4" t="str">
-        <v>obj_00140</v>
+        <v>obj_0013a</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
         <v>SEK2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y4" s="73">
+      <c r="Y4" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>-3.1250000000000002E-3</v>
+        <v/>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -14387,14 +14389,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42401</v>
-      </c>
-      <c r="AC4" s="81">
-        <v>1.0005384842536782</v>
+        <v>42418</v>
+      </c>
+      <c r="AC4" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD4" s="190"/>
       <c r="AF4" s="111" t="s">
@@ -14470,15 +14472,15 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_00150</v>
+        <v>obj_00153</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
         <v>SEK3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>-2.6779999999999998E-3</v>
+        <v/>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -14486,14 +14488,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42430</v>
-      </c>
-      <c r="AC5" s="81">
-        <v>1.0006773974455636</v>
+        <v>42447</v>
+      </c>
+      <c r="AC5" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD5" s="190"/>
       <c r="AE5" s="84"/>
@@ -14576,9 +14578,9 @@
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
         <v>SEK4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y6" s="73">
+      <c r="Y6" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>-2.5959999999999998E-3</v>
+        <v/>
       </c>
       <c r="Z6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -14586,14 +14588,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42461</v>
-      </c>
-      <c r="AC6" s="81">
-        <v>1.0008805302068968</v>
+        <v>42478</v>
+      </c>
+      <c r="AC6" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD6" s="190"/>
       <c r="AF6" s="111" t="s">
@@ -14628,7 +14630,7 @@
       <c r="I7" s="129"/>
       <c r="J7" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014f#0004</v>
+        <v>obj_00150#0000</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="10" t="str">
@@ -14637,15 +14639,15 @@
       </c>
       <c r="M7" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0014f#0004</v>
+        <v>obj_00150#0000</v>
       </c>
       <c r="N7" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>-2.4910000000000002E-3</v>
+        <v>--</v>
       </c>
       <c r="P7" s="143" t="b">
         <v>1</v>
@@ -14658,26 +14660,26 @@
       </c>
       <c r="S7" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T7" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42387</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="4" t="str">
-        <v>obj_00152</v>
+        <v>obj_0014d</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
         <v>SEK5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-2.7330000000000002E-3</v>
+        <v/>
       </c>
       <c r="Z7" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -14685,14 +14687,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42492</v>
-      </c>
-      <c r="AC7" s="81">
-        <v>1.0011628757092081</v>
+        <v>42508</v>
+      </c>
+      <c r="AC7" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD7" s="190"/>
     </row>
@@ -14721,7 +14723,7 @@
       <c r="I8" s="129"/>
       <c r="J8" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00140#0004</v>
+        <v>obj_0013a#0000</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="10" t="str">
@@ -14730,15 +14732,15 @@
       </c>
       <c r="M8" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00140#0004</v>
+        <v>obj_0013a#0000</v>
       </c>
       <c r="N8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
         <v>SEK2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>-3.1250000000000002E-3</v>
+        <v>--</v>
       </c>
       <c r="P8" s="143" t="b">
         <v>1</v>
@@ -14751,26 +14753,26 @@
       </c>
       <c r="S8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42401</v>
+        <v>42418</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="4" t="str">
-        <v>obj_00156</v>
+        <v>obj_00155</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
         <v>SEK6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y8" s="73">
+      <c r="Y8" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-2.81E-3</v>
+        <v/>
       </c>
       <c r="Z8" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -14778,14 +14780,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42522</v>
-      </c>
-      <c r="AC8" s="81">
-        <v>1.0014304599595139</v>
+        <v>42541</v>
+      </c>
+      <c r="AC8" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD8" s="190"/>
     </row>
@@ -14814,7 +14816,7 @@
       <c r="I9" s="129"/>
       <c r="J9" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00150#0004</v>
+        <v>obj_00153#0000</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="10" t="str">
@@ -14823,15 +14825,15 @@
       </c>
       <c r="M9" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00150#0004</v>
+        <v>obj_00153#0000</v>
       </c>
       <c r="N9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
         <v>SEK3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-2.6779999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P9" s="143" t="b">
         <v>1</v>
@@ -14844,26 +14846,26 @@
       </c>
       <c r="S9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42430</v>
+        <v>42447</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_00121</v>
+        <v>obj_0011c</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
         <v>SEKSB6S1Y_3S6S_Quote</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-2.928404004690566E-3</v>
+        <v/>
       </c>
       <c r="Z9" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -14871,14 +14873,14 @@
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42705</v>
-      </c>
-      <c r="AC9" s="81">
-        <v>1.0029384164533637</v>
+        <v>42723</v>
+      </c>
+      <c r="AC9" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD9" s="190"/>
       <c r="AG9" s="49" t="s">
@@ -14907,7 +14909,7 @@
       </c>
       <c r="G10" s="180" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C10,2,Currency,Calendar,E10,D10,F10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00149#0004</v>
+        <v>obj_0013c#0000</v>
       </c>
       <c r="H10" s="181" t="str">
         <f t="shared" si="0"/>
@@ -14916,7 +14918,7 @@
       <c r="I10" s="179"/>
       <c r="J10" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00151#0004</v>
+        <v>obj_00151#0000</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="10" t="str">
@@ -14925,15 +14927,15 @@
       </c>
       <c r="M10" s="98" t="str">
         <f t="shared" ref="M10:M12" si="7">IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_00151#0004</v>
+        <v>obj_00151#0000</v>
       </c>
       <c r="N10" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
         <v>SEK4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O10" s="102">
+      <c r="O10" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>-2.5959999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P10" s="143" t="b">
         <v>1</v>
@@ -14946,26 +14948,26 @@
       </c>
       <c r="S10" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T10" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42461</v>
+        <v>42478</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_0014b</v>
+        <v>obj_00146</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
         <v>SEKSB6S2Y_3S6S_Quote</v>
       </c>
-      <c r="Y10" s="73">
+      <c r="Y10" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>-1.9599745614633127E-3</v>
+        <v/>
       </c>
       <c r="Z10" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -14973,14 +14975,14 @@
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>43070</v>
-      </c>
-      <c r="AC10" s="81">
-        <v>1.0039374144181423</v>
+        <v>43087</v>
+      </c>
+      <c r="AC10" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD10" s="190"/>
       <c r="AE10" s="77" t="s">
@@ -15030,7 +15032,7 @@
       </c>
       <c r="G11" s="187" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C11,2,Currency,Calendar,E11,D11,F11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00146#0004</v>
+        <v>obj_0014b#0000</v>
       </c>
       <c r="H11" s="188" t="str">
         <f t="shared" si="0"/>
@@ -15039,7 +15041,7 @@
       <c r="I11" s="186"/>
       <c r="J11" s="189" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00152#0004</v>
+        <v>obj_0014d#0000</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="10" t="str">
@@ -15048,15 +15050,15 @@
       </c>
       <c r="M11" s="98" t="str">
         <f t="shared" si="7"/>
-        <v>obj_00152#0004</v>
+        <v>obj_0014d#0000</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
         <v>SEK5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>-2.7330000000000002E-3</v>
+        <v>--</v>
       </c>
       <c r="P11" s="143" t="b">
         <v>1</v>
@@ -15069,26 +15071,26 @@
       </c>
       <c r="S11" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T11" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42492</v>
+        <v>42508</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_00142</v>
+        <v>obj_00143</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
         <v>SEKSB6S3Y_3S6S_Quote</v>
       </c>
-      <c r="Y11" s="73">
+      <c r="Y11" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>3.7889330342834863E-5</v>
+        <v/>
       </c>
       <c r="Z11" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -15096,14 +15098,14 @@
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>43437</v>
-      </c>
-      <c r="AC11" s="81">
-        <v>0.99990208783142398</v>
+        <v>43452</v>
+      </c>
+      <c r="AC11" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD11" s="190"/>
       <c r="AE11" s="161">
@@ -15162,7 +15164,7 @@
       <c r="I12" s="130"/>
       <c r="J12" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00156#0004</v>
+        <v>obj_00155#0000</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>37</v>
@@ -15173,15 +15175,15 @@
       </c>
       <c r="M12" s="99" t="str">
         <f t="shared" si="7"/>
-        <v>obj_00156#0004</v>
+        <v>obj_00155#0000</v>
       </c>
       <c r="N12" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
         <v>SEK6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O12" s="105">
+      <c r="O12" s="105" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>-2.81E-3</v>
+        <v>--</v>
       </c>
       <c r="P12" s="146" t="b">
         <v>1</v>
@@ -15194,26 +15196,26 @@
       </c>
       <c r="S12" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T12" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42522</v>
+        <v>42541</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_0014a</v>
+        <v>obj_0013d</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
         <v>SEKSB6S4Y_3S6S_Quote</v>
       </c>
-      <c r="Y12" s="73">
+      <c r="Y12" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>2.3723069652189115E-3</v>
+        <v/>
       </c>
       <c r="Z12" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -15221,14 +15223,14 @@
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43801</v>
-      </c>
-      <c r="AC12" s="81">
-        <v>0.99056390174620246</v>
+        <v>43817</v>
+      </c>
+      <c r="AC12" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD12" s="190"/>
       <c r="AE12" s="164">
@@ -15315,15 +15317,15 @@
         <v>BasSw</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_0013e</v>
+        <v>obj_0014a</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
         <v>SEKSB6S5Y_3S6S_Quote</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>4.8875901546601899E-3</v>
+        <v/>
       </c>
       <c r="Z13" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -15331,14 +15333,14 @@
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>44166</v>
-      </c>
-      <c r="AC13" s="81">
-        <v>0.97580832547153606</v>
+        <v>44183</v>
+      </c>
+      <c r="AC13" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD13" s="190"/>
       <c r="AE13" s="164">
@@ -15410,15 +15412,15 @@
       </c>
       <c r="M14" s="98" t="str">
         <f t="shared" ref="M14:M39" si="12">IF(ISBLANK(J16),"--",J16)</f>
-        <v>obj_00121#0004</v>
+        <v>obj_0011c#0000</v>
       </c>
       <c r="N14" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
         <v>SEKSB6S1Y_3S6S_Quote</v>
       </c>
-      <c r="O14" s="102">
+      <c r="O14" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>-2.928404004690566E-3</v>
+        <v>--</v>
       </c>
       <c r="P14" s="143" t="b">
         <v>1</v>
@@ -15431,26 +15433,26 @@
       </c>
       <c r="S14" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T14" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42705</v>
+        <v>42723</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_0013c</v>
+        <v>obj_00141</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
         <v>SEKSB6S6Y_3S6S_Quote</v>
       </c>
-      <c r="Y14" s="73">
+      <c r="Y14" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>7.2541803902787709E-3</v>
+        <v/>
       </c>
       <c r="Z14" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -15458,14 +15460,14 @@
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>44531</v>
-      </c>
-      <c r="AC14" s="81">
-        <v>0.95717224203266416</v>
+        <v>44550</v>
+      </c>
+      <c r="AC14" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD14" s="190"/>
       <c r="AE14" s="164">
@@ -15569,15 +15571,15 @@
         <v>BasSw</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_00139</v>
+        <v>obj_0013f</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
         <v>SEKSB6S7Y_3S6S_Quote</v>
       </c>
-      <c r="Y15" s="73">
+      <c r="Y15" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>9.3467062124282605E-3</v>
+        <v/>
       </c>
       <c r="Z15" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -15585,14 +15587,14 @@
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44896</v>
-      </c>
-      <c r="AC15" s="81">
-        <v>0.93610579825864826</v>
+        <v>44914</v>
+      </c>
+      <c r="AC15" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD15" s="190"/>
       <c r="AE15" s="164">
@@ -15658,7 +15660,7 @@
       </c>
       <c r="J16" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H16,2,B16,Calendar,D16,E16,F16,G16,I16,C16,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00121#0004</v>
+        <v>obj_0011c#0000</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="10" t="str">
@@ -15699,15 +15701,15 @@
         <v>BasSw</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_00144</v>
+        <v>obj_00147</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
         <v>SEKSB6S8Y_3S6S_Quote</v>
       </c>
-      <c r="Y16" s="73">
+      <c r="Y16" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.1165180123164262E-2</v>
+        <v/>
       </c>
       <c r="Z16" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -15715,14 +15717,14 @@
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>45261</v>
-      </c>
-      <c r="AC16" s="81">
-        <v>0.91352213002616822</v>
+        <v>45278</v>
+      </c>
+      <c r="AC16" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD16" s="190"/>
       <c r="AE16" s="164">
@@ -15826,15 +15828,15 @@
         <v>BasSw</v>
       </c>
       <c r="W17" s="4" t="str">
-        <v>obj_00141</v>
+        <v>obj_00140</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
         <v>SEKSB6S9Y_3S6S_Quote</v>
       </c>
-      <c r="Y17" s="73">
+      <c r="Y17" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.2734868002500423E-2</v>
+        <v/>
       </c>
       <c r="Z17" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -15842,14 +15844,14 @@
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>45628</v>
-      </c>
-      <c r="AC17" s="81">
-        <v>0.89005422519155852</v>
+        <v>45644</v>
+      </c>
+      <c r="AC17" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD17" s="190"/>
       <c r="AE17" s="164">
@@ -15921,15 +15923,15 @@
       </c>
       <c r="M18" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0014b#0004</v>
+        <v>obj_00146#0000</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
         <v>SEKSB6S2Y_3S6S_Quote</v>
       </c>
-      <c r="O18" s="102">
+      <c r="O18" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>-1.9599745614633127E-3</v>
+        <v>--</v>
       </c>
       <c r="P18" s="143" t="b">
         <v>1</v>
@@ -15942,26 +15944,26 @@
       </c>
       <c r="S18" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T18" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>43070</v>
+        <v>43087</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_00145</v>
+        <v>obj_00149</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
         <v>SEKSB6S10Y_3S6S_Quote</v>
       </c>
-      <c r="Y18" s="73">
+      <c r="Y18" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.4100111664333061E-2</v>
+        <v/>
       </c>
       <c r="Z18" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -15969,14 +15971,14 @@
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>45992</v>
-      </c>
-      <c r="AC18" s="81">
-        <v>0.86615082801564702</v>
+        <v>46009</v>
+      </c>
+      <c r="AC18" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD18" s="190"/>
       <c r="AE18" s="164">
@@ -16080,15 +16082,15 @@
         <v>BasSw</v>
       </c>
       <c r="W19" s="4" t="str">
-        <v>obj_0013f</v>
+        <v>obj_0014c</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
         <v>SEKSB6S12Y_3S6S_Quote</v>
       </c>
-      <c r="Y19" s="73">
+      <c r="Y19" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.6392178976445758E-2</v>
+        <v/>
       </c>
       <c r="Z19" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -16096,14 +16098,14 @@
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>46722</v>
-      </c>
-      <c r="AC19" s="81">
-        <v>0.81733601995748151</v>
+        <v>46741</v>
+      </c>
+      <c r="AC19" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD19" s="190"/>
       <c r="AE19" s="164">
@@ -16169,7 +16171,7 @@
       </c>
       <c r="J20" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H20,2,B20,Calendar,D20,E20,F20,G20,I20,C20,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014b#0004</v>
+        <v>obj_00146#0000</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
@@ -16210,15 +16212,15 @@
         <v>BasSw</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_00148</v>
+        <v>obj_0013b</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
         <v>SEKSB6S15Y_3S6S_Quote</v>
       </c>
-      <c r="Y20" s="73">
+      <c r="Y20" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.8893594898300135E-2</v>
+        <v/>
       </c>
       <c r="Z20" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -16226,14 +16228,14 @@
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>47819</v>
-      </c>
-      <c r="AC20" s="81">
-        <v>0.7460232365089684</v>
+        <v>47835</v>
+      </c>
+      <c r="AC20" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD20" s="190"/>
       <c r="AE20" s="164">
@@ -16337,15 +16339,15 @@
         <v>BasSw</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_0013b</v>
+        <v>obj_00144</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
         <v>SEKSB6S20Y_3S6S_Quote</v>
       </c>
-      <c r="Y21" s="73">
+      <c r="Y21" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>2.1514196485926392E-2</v>
+        <v/>
       </c>
       <c r="Z21" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -16353,14 +16355,14 @@
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>49646</v>
-      </c>
-      <c r="AC21" s="81">
-        <v>0.6379471231454793</v>
+        <v>49661</v>
+      </c>
+      <c r="AC21" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD21" s="190"/>
       <c r="AE21" s="164">
@@ -16432,15 +16434,15 @@
       </c>
       <c r="M22" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00142#0004</v>
+        <v>obj_00143#0000</v>
       </c>
       <c r="N22" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
         <v>SEKSB6S3Y_3S6S_Quote</v>
       </c>
-      <c r="O22" s="102">
+      <c r="O22" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>3.7889330342834863E-5</v>
+        <v>--</v>
       </c>
       <c r="P22" s="143" t="b">
         <v>1</v>
@@ -16453,26 +16455,26 @@
       </c>
       <c r="S22" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T22" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W22" s="4" t="str">
-        <v>obj_0013a</v>
+        <v>obj_00142</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
         <v>SEKSB6S25Y_3S6S_Quote</v>
       </c>
-      <c r="Y22" s="73">
+      <c r="Y22" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.2541950502590107E-2</v>
+        <v/>
       </c>
       <c r="Z22" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -16480,14 +16482,14 @@
       </c>
       <c r="AA22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>51473</v>
-      </c>
-      <c r="AC22" s="81">
-        <v>0.55473223733506638</v>
+        <v>51488</v>
+      </c>
+      <c r="AC22" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD22" s="190"/>
       <c r="AE22" s="164">
@@ -16559,15 +16561,15 @@
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0014a#0004</v>
+        <v>obj_0013d#0000</v>
       </c>
       <c r="N23" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
         <v>SEKSB6S4Y_3S6S_Quote</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>2.3723069652189115E-3</v>
+        <v>--</v>
       </c>
       <c r="P23" s="143" t="b">
         <v>1</v>
@@ -16580,26 +16582,26 @@
       </c>
       <c r="S23" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T23" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>43801</v>
+        <v>43817</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W23" s="4" t="str">
-        <v>obj_00147</v>
+        <v>obj_0013e</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
         <v>SEKSB6S30Y_3S6S_Quote</v>
       </c>
-      <c r="Y23" s="73">
+      <c r="Y23" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.2785770572622221E-2</v>
+        <v/>
       </c>
       <c r="Z23" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -16607,14 +16609,14 @@
       </c>
       <c r="AA23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>53297</v>
-      </c>
-      <c r="AC23" s="81">
-        <v>0.49127780013659816</v>
+        <v>53314</v>
+      </c>
+      <c r="AC23" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD23" s="190"/>
       <c r="AE23" s="167">
@@ -16680,7 +16682,7 @@
       </c>
       <c r="J24" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H24,2,B24,Calendar,D24,E24,F24,G24,I24,C24,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00142#0004</v>
+        <v>obj_00143#0000</v>
       </c>
       <c r="K24" s="51"/>
       <c r="L24" s="10" t="str">
@@ -16689,15 +16691,15 @@
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013e#0004</v>
+        <v>obj_0014a#0000</v>
       </c>
       <c r="N24" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
         <v>SEKSB6S5Y_3S6S_Quote</v>
       </c>
-      <c r="O24" s="102">
+      <c r="O24" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>4.8875901546601899E-3</v>
+        <v>--</v>
       </c>
       <c r="P24" s="143" t="b">
         <v>1</v>
@@ -16710,11 +16712,11 @@
       </c>
       <c r="S24" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T24" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>44166</v>
+        <v>44183</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16744,7 +16746,7 @@
         <v/>
       </c>
       <c r="AC24" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD24" s="190"/>
     </row>
@@ -16780,7 +16782,7 @@
       </c>
       <c r="J25" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H25,2,B25,Calendar,D25,E25,F25,G25,I25,C25,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014a#0004</v>
+        <v>obj_0013d#0000</v>
       </c>
       <c r="K25" s="51"/>
       <c r="L25" s="10" t="str">
@@ -16789,15 +16791,15 @@
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013c#0004</v>
+        <v>obj_00141#0000</v>
       </c>
       <c r="N25" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
         <v>SEKSB6S6Y_3S6S_Quote</v>
       </c>
-      <c r="O25" s="102">
+      <c r="O25" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>7.2541803902787709E-3</v>
+        <v>--</v>
       </c>
       <c r="P25" s="143" t="b">
         <v>1</v>
@@ -16810,11 +16812,11 @@
       </c>
       <c r="S25" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T25" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>44531</v>
+        <v>44550</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16844,7 +16846,7 @@
         <v/>
       </c>
       <c r="AC25" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD25" s="190"/>
     </row>
@@ -16880,7 +16882,7 @@
       </c>
       <c r="J26" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H26,2,B26,Calendar,D26,E26,F26,G26,I26,C26,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013e#0004</v>
+        <v>obj_0014a#0000</v>
       </c>
       <c r="K26" s="51"/>
       <c r="L26" s="10" t="str">
@@ -16889,15 +16891,15 @@
       </c>
       <c r="M26" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00139#0004</v>
+        <v>obj_0013f#0000</v>
       </c>
       <c r="N26" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
         <v>SEKSB6S7Y_3S6S_Quote</v>
       </c>
-      <c r="O26" s="102">
+      <c r="O26" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>9.3467062124282605E-3</v>
+        <v>--</v>
       </c>
       <c r="P26" s="143" t="b">
         <v>1</v>
@@ -16910,11 +16912,11 @@
       </c>
       <c r="S26" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T26" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16944,7 +16946,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD26" s="190"/>
     </row>
@@ -16980,7 +16982,7 @@
       </c>
       <c r="J27" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H27,2,B27,Calendar,D27,E27,F27,G27,I27,C27,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013c#0004</v>
+        <v>obj_00141#0000</v>
       </c>
       <c r="K27" s="51"/>
       <c r="L27" s="10" t="str">
@@ -16989,15 +16991,15 @@
       </c>
       <c r="M27" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00144#0004</v>
+        <v>obj_00147#0000</v>
       </c>
       <c r="N27" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
         <v>SEKSB6S8Y_3S6S_Quote</v>
       </c>
-      <c r="O27" s="102">
+      <c r="O27" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M27,Trigger),"--")</f>
-        <v>1.1165180123164262E-2</v>
+        <v>--</v>
       </c>
       <c r="P27" s="143" t="b">
         <v>1</v>
@@ -17010,11 +17012,11 @@
       </c>
       <c r="S27" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T27" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17044,7 +17046,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD27" s="190"/>
     </row>
@@ -17080,7 +17082,7 @@
       </c>
       <c r="J28" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,2,B28,Calendar,D28,E28,F28,G28,I28,C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00139#0004</v>
+        <v>obj_0013f#0000</v>
       </c>
       <c r="K28" s="51"/>
       <c r="L28" s="10" t="str">
@@ -17089,15 +17091,15 @@
       </c>
       <c r="M28" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00141#0004</v>
+        <v>obj_00140#0000</v>
       </c>
       <c r="N28" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
         <v>SEKSB6S9Y_3S6S_Quote</v>
       </c>
-      <c r="O28" s="102">
+      <c r="O28" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>1.2734868002500423E-2</v>
+        <v>--</v>
       </c>
       <c r="P28" s="143" t="b">
         <v>1</v>
@@ -17110,11 +17112,11 @@
       </c>
       <c r="S28" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T28" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>45628</v>
+        <v>45644</v>
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17144,7 +17146,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD28" s="190"/>
     </row>
@@ -17180,7 +17182,7 @@
       </c>
       <c r="J29" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H29,2,B29,Calendar,D29,E29,F29,G29,I29,C29,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00144#0004</v>
+        <v>obj_00147#0000</v>
       </c>
       <c r="K29" s="51"/>
       <c r="L29" s="10" t="str">
@@ -17189,15 +17191,15 @@
       </c>
       <c r="M29" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00145#0004</v>
+        <v>obj_00149#0000</v>
       </c>
       <c r="N29" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
         <v>SEKSB6S10Y_3S6S_Quote</v>
       </c>
-      <c r="O29" s="102">
+      <c r="O29" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>1.4100111664333061E-2</v>
+        <v>--</v>
       </c>
       <c r="P29" s="143" t="b">
         <v>1</v>
@@ -17210,11 +17212,11 @@
       </c>
       <c r="S29" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T29" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>45992</v>
+        <v>46009</v>
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17244,7 +17246,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD29" s="190"/>
     </row>
@@ -17280,7 +17282,7 @@
       </c>
       <c r="J30" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,2,B30,Calendar,D30,E30,F30,G30,I30,C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00141#0004</v>
+        <v>obj_00140#0000</v>
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="10" t="str">
@@ -17289,15 +17291,15 @@
       </c>
       <c r="M30" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013f#0004</v>
+        <v>obj_0014c#0000</v>
       </c>
       <c r="N30" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
         <v>SEKSB6S12Y_3S6S_Quote</v>
       </c>
-      <c r="O30" s="102">
+      <c r="O30" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>1.6392178976445758E-2</v>
+        <v>--</v>
       </c>
       <c r="P30" s="143" t="b">
         <v>1</v>
@@ -17310,11 +17312,11 @@
       </c>
       <c r="S30" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T30" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>46722</v>
+        <v>46741</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17344,7 +17346,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD30" s="190"/>
     </row>
@@ -17380,7 +17382,7 @@
       </c>
       <c r="J31" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H31,2,B31,Calendar,D31,E31,F31,G31,I31,C31,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00145#0004</v>
+        <v>obj_00149#0000</v>
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="10" t="str">
@@ -17389,15 +17391,15 @@
       </c>
       <c r="M31" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00148#0004</v>
+        <v>obj_0013b#0000</v>
       </c>
       <c r="N31" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
         <v>SEKSB6S15Y_3S6S_Quote</v>
       </c>
-      <c r="O31" s="102">
+      <c r="O31" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>1.8893594898300135E-2</v>
+        <v>--</v>
       </c>
       <c r="P31" s="143" t="b">
         <v>1</v>
@@ -17410,11 +17412,11 @@
       </c>
       <c r="S31" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T31" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>47819</v>
+        <v>47835</v>
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17444,7 +17446,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD31" s="190"/>
     </row>
@@ -17480,7 +17482,7 @@
       </c>
       <c r="J32" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H32,2,B32,Calendar,D32,E32,F32,G32,I32,C32,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013f#0004</v>
+        <v>obj_0014c#0000</v>
       </c>
       <c r="K32" s="51"/>
       <c r="L32" s="10" t="str">
@@ -17489,15 +17491,15 @@
       </c>
       <c r="M32" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013b#0004</v>
+        <v>obj_00144#0000</v>
       </c>
       <c r="N32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
         <v>SEKSB6S20Y_3S6S_Quote</v>
       </c>
-      <c r="O32" s="102">
+      <c r="O32" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>2.1514196485926392E-2</v>
+        <v>--</v>
       </c>
       <c r="P32" s="143" t="b">
         <v>1</v>
@@ -17510,11 +17512,11 @@
       </c>
       <c r="S32" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T32" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>49646</v>
+        <v>49661</v>
       </c>
       <c r="V32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17544,7 +17546,7 @@
         <v/>
       </c>
       <c r="AC32" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD32" s="190"/>
     </row>
@@ -17580,7 +17582,7 @@
       </c>
       <c r="J33" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H33,2,B33,Calendar,D33,E33,F33,G33,I33,C33,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00148#0004</v>
+        <v>obj_0013b#0000</v>
       </c>
       <c r="K33" s="51"/>
       <c r="L33" s="10" t="str">
@@ -17589,15 +17591,15 @@
       </c>
       <c r="M33" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013a#0004</v>
+        <v>obj_00142#0000</v>
       </c>
       <c r="N33" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
         <v>SEKSB6S25Y_3S6S_Quote</v>
       </c>
-      <c r="O33" s="102">
+      <c r="O33" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>2.2541950502590107E-2</v>
+        <v>--</v>
       </c>
       <c r="P33" s="143" t="b">
         <v>1</v>
@@ -17610,11 +17612,11 @@
       </c>
       <c r="S33" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T33" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>51473</v>
+        <v>51488</v>
       </c>
       <c r="V33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17644,7 +17646,7 @@
         <v/>
       </c>
       <c r="AC33" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD33" s="190"/>
     </row>
@@ -17680,7 +17682,7 @@
       </c>
       <c r="J34" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,2,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013b#0004</v>
+        <v>obj_00144#0000</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="10" t="str">
@@ -17744,7 +17746,7 @@
         <v/>
       </c>
       <c r="AC34" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD34" s="190"/>
     </row>
@@ -17780,7 +17782,7 @@
       </c>
       <c r="J35" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H35,2,B35,Calendar,D35,E35,F35,G35,I35,C35,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013a#0004</v>
+        <v>obj_00142#0000</v>
       </c>
       <c r="K35" s="51"/>
       <c r="L35" s="10" t="str">
@@ -17789,15 +17791,15 @@
       </c>
       <c r="M35" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00147#0004</v>
+        <v>obj_0013e#0000</v>
       </c>
       <c r="N35" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
         <v>SEKSB6S30Y_3S6S_Quote</v>
       </c>
-      <c r="O35" s="102">
+      <c r="O35" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>2.2785770572622221E-2</v>
+        <v>--</v>
       </c>
       <c r="P35" s="143" t="b">
         <v>1</v>
@@ -17810,11 +17812,11 @@
       </c>
       <c r="S35" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T35" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17844,7 +17846,7 @@
         <v/>
       </c>
       <c r="AC35" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD35" s="190"/>
     </row>
@@ -17941,7 +17943,7 @@
         <v/>
       </c>
       <c r="AC36" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD36" s="190"/>
     </row>
@@ -17977,7 +17979,7 @@
       </c>
       <c r="J37" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H37,2,B37,Calendar,D37,E37,F37,G37,I37,C37,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00147#0004</v>
+        <v>obj_0013e#0000</v>
       </c>
       <c r="K37" s="51"/>
       <c r="L37" s="10" t="str">
@@ -18041,7 +18043,7 @@
         <v/>
       </c>
       <c r="AC37" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD37" s="190"/>
     </row>
@@ -18138,7 +18140,7 @@
         <v/>
       </c>
       <c r="AC38" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD38" s="190"/>
     </row>
@@ -18235,7 +18237,7 @@
         <v/>
       </c>
       <c r="AC39" s="82" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD39" s="190"/>
     </row>
@@ -18538,9 +18540,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80">
+      <c r="AC2" s="80" t="e">
         <f t="array" ref="AC2:AC32">_xll.qlPiecewiseYieldCurveData(YieldCurve_1M,Trigger)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -18571,7 +18573,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00135#0004</v>
+        <v>obj_0012e#0000</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H7" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -18619,15 +18621,15 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W32">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0014c</v>
+        <v>obj_0014f</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
         <v>SEKSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y3" s="73">
+      <c r="Y3" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>-3.813E-3</v>
+        <v/>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -18635,14 +18637,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42346</v>
-      </c>
-      <c r="AC3" s="81">
-        <v>1.0000741471640606</v>
+        <v>42366</v>
+      </c>
+      <c r="AC3" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD3" s="84"/>
       <c r="AF3" s="200" t="s">
@@ -18673,7 +18675,7 @@
       </c>
       <c r="G4" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C4,2,Currency,Calendar,E4,D4,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010b#0004</v>
+        <v>obj_0010c#0000</v>
       </c>
       <c r="H4" s="158" t="str">
         <f t="shared" si="0"/>
@@ -18682,7 +18684,7 @@
       <c r="I4" s="133"/>
       <c r="J4" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014c#0004</v>
+        <v>obj_0014f#0000</v>
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="10" t="str">
@@ -18691,15 +18693,15 @@
       </c>
       <c r="M4" s="98" t="str">
         <f t="shared" ref="M4:M7" si="3">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_0014c#0004</v>
+        <v>obj_0014f#0000</v>
       </c>
       <c r="N4" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
         <v>SEKSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="O4" s="102">
+      <c r="O4" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>-3.813E-3</v>
+        <v>--</v>
       </c>
       <c r="P4" s="143" t="b">
         <v>1</v>
@@ -18712,26 +18714,26 @@
       </c>
       <c r="S4" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T4" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42346</v>
+        <v>42366</v>
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W4" s="4" t="str">
-        <v>obj_0014e</v>
+        <v>obj_00152</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
         <v>SEK2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y4" s="73">
+      <c r="Y4" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>-3.8899999999999998E-3</v>
+        <v/>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -18739,14 +18741,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42353</v>
-      </c>
-      <c r="AC4" s="81">
-        <v>1.00015130066638</v>
+        <v>42373</v>
+      </c>
+      <c r="AC4" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD4" s="84"/>
       <c r="AF4" s="111" t="s">
@@ -18778,7 +18780,7 @@
       </c>
       <c r="G5" s="64" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C5,2,Currency,Calendar,E5,D5,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013d#0004</v>
+        <v>obj_00148#0000</v>
       </c>
       <c r="H5" s="126" t="str">
         <f t="shared" si="0"/>
@@ -18787,7 +18789,7 @@
       <c r="I5" s="129"/>
       <c r="J5" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014e#0004</v>
+        <v>obj_00152#0000</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="10" t="str">
@@ -18796,15 +18798,15 @@
       </c>
       <c r="M5" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0014e#0004</v>
+        <v>obj_00152#0000</v>
       </c>
       <c r="N5" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
         <v>SEK2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="O5" s="102">
+      <c r="O5" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>-3.8899999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P5" s="143" t="b">
         <v>1</v>
@@ -18817,26 +18819,26 @@
       </c>
       <c r="S5" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T5" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42353</v>
+        <v>42373</v>
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_0014d</v>
+        <v>obj_0014e</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
         <v>SEK3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>-4.0169999999999997E-3</v>
+        <v/>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -18844,14 +18846,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42360</v>
-      </c>
-      <c r="AC5" s="81">
-        <v>1.0002343799210749</v>
+        <v>42377</v>
+      </c>
+      <c r="AC5" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD5" s="84"/>
       <c r="AE5" s="84"/>
@@ -18884,7 +18886,7 @@
       </c>
       <c r="G6" s="187" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C6,2,Currency,Calendar,E6,D6,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00143#0004</v>
+        <v>obj_00145#0000</v>
       </c>
       <c r="H6" s="188" t="str">
         <f t="shared" si="0"/>
@@ -18893,7 +18895,7 @@
       <c r="I6" s="186"/>
       <c r="J6" s="189" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014d#0004</v>
+        <v>obj_0014e#0000</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="10" t="str">
@@ -18902,15 +18904,15 @@
       </c>
       <c r="M6" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0014d#0004</v>
+        <v>obj_0014e#0000</v>
       </c>
       <c r="N6" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
         <v>SEK3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="O6" s="102">
+      <c r="O6" s="102" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>-4.0169999999999997E-3</v>
+        <v>--</v>
       </c>
       <c r="P6" s="143" t="b">
         <v>1</v>
@@ -18923,26 +18925,26 @@
       </c>
       <c r="S6" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T6" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42360</v>
+        <v>42377</v>
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="4" t="str">
-        <v>obj_00154</v>
+        <v>obj_00156</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
         <v>SEK1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y6" s="73">
+      <c r="Y6" s="73" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>-4.3899999999999998E-3</v>
+        <v/>
       </c>
       <c r="Z6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -18950,14 +18952,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42373</v>
-      </c>
-      <c r="AC6" s="81">
-        <v>1.0004147830847867</v>
+        <v>42387</v>
+      </c>
+      <c r="AC6" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD6" s="84"/>
       <c r="AF6" s="111" t="s">
@@ -18992,7 +18994,7 @@
       <c r="I7" s="130"/>
       <c r="J7" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00154#0004</v>
+        <v>obj_00156#0000</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="11" t="str">
@@ -19001,15 +19003,15 @@
       </c>
       <c r="M7" s="99" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00154#0004</v>
+        <v>obj_00156#0000</v>
       </c>
       <c r="N7" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="O7" s="105">
+      <c r="O7" s="105" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>-4.3899999999999998E-3</v>
+        <v>--</v>
       </c>
       <c r="P7" s="146" t="b">
         <v>1</v>
@@ -19022,11 +19024,11 @@
       </c>
       <c r="S7" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T7" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42387</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19041,7 +19043,7 @@
       </c>
       <c r="Y7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-4.15E-3</v>
+        <v>-4.1749999999999999E-3</v>
       </c>
       <c r="Z7" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -19049,14 +19051,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42705</v>
-      </c>
-      <c r="AC7" s="81">
-        <v>1.004985860841157</v>
+        <v>42723</v>
+      </c>
+      <c r="AC7" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD7" s="84"/>
     </row>
@@ -19109,7 +19111,7 @@
         <v>BasSw</v>
       </c>
       <c r="W8" s="4" t="str">
-        <v>obj_00125</v>
+        <v>obj_00126</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -19117,7 +19119,7 @@
       </c>
       <c r="Y8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-3.0499999999999993E-3</v>
+        <v>-3.1000000000000003E-3</v>
       </c>
       <c r="Z8" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -19125,14 +19127,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>43070</v>
-      </c>
-      <c r="AC8" s="81">
-        <v>1.0080274559581135</v>
+        <v>43087</v>
+      </c>
+      <c r="AC8" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD8" s="84"/>
     </row>
@@ -19174,7 +19176,7 @@
       </c>
       <c r="M9" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00124#0004</v>
+        <v>obj_00124#0000</v>
       </c>
       <c r="N9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -19182,7 +19184,7 @@
       </c>
       <c r="O9" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-4.15E-3</v>
+        <v>-4.1749999999999999E-3</v>
       </c>
       <c r="P9" s="143" t="b">
         <v>1</v>
@@ -19195,18 +19197,18 @@
       </c>
       <c r="S9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42705</v>
+        <v>42723</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_00129</v>
+        <v>obj_0011d</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -19214,7 +19216,7 @@
       </c>
       <c r="Y9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-1.0250000000000001E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="Z9" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -19222,14 +19224,14 @@
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>43437</v>
-      </c>
-      <c r="AC9" s="81">
-        <v>1.0061176092588651</v>
+        <v>43452</v>
+      </c>
+      <c r="AC9" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD9" s="84"/>
       <c r="AG9" s="49" t="s">
@@ -19307,7 +19309,7 @@
         <v>BasSw</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_0012a</v>
+        <v>obj_00120</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -19315,7 +19317,7 @@
       </c>
       <c r="Y10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>1.325E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="Z10" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -19323,14 +19325,14 @@
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>43801</v>
-      </c>
-      <c r="AC10" s="81">
-        <v>0.99880111199927679</v>
+        <v>43817</v>
+      </c>
+      <c r="AC10" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD10" s="84"/>
       <c r="AE10" s="77" t="s">
@@ -19391,7 +19393,7 @@
       </c>
       <c r="J11" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H11,2,B11,Calendar,D11,E11,F11,G11,I11,C11,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00124#0004</v>
+        <v>obj_00124#0000</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="10" t="str">
@@ -19400,7 +19402,7 @@
       </c>
       <c r="M11" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00125#0004</v>
+        <v>obj_00126#0000</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -19408,7 +19410,7 @@
       </c>
       <c r="O11" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>-3.0499999999999993E-3</v>
+        <v>-3.1000000000000003E-3</v>
       </c>
       <c r="P11" s="143" t="b">
         <v>1</v>
@@ -19421,18 +19423,18 @@
       </c>
       <c r="S11" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T11" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>43070</v>
+        <v>43087</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_00122</v>
+        <v>obj_0011f</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -19440,7 +19442,7 @@
       </c>
       <c r="Y11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.7750000000000001E-3</v>
       </c>
       <c r="Z11" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -19448,14 +19450,14 @@
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>44166</v>
-      </c>
-      <c r="AC11" s="81">
-        <v>0.98590971702905494</v>
+        <v>44183</v>
+      </c>
+      <c r="AC11" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD11" s="84"/>
       <c r="AE11" s="161">
@@ -19530,7 +19532,7 @@
       </c>
       <c r="M12" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011c#0004</v>
+        <v>obj_00123#0000</v>
       </c>
       <c r="N12" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -19551,18 +19553,18 @@
       </c>
       <c r="S12" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T12" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>43252</v>
+        <v>43269</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_0011e</v>
+        <v>obj_0012c</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -19570,7 +19572,7 @@
       </c>
       <c r="Y12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>6.2249999999999996E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="Z12" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -19578,14 +19580,14 @@
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>44531</v>
-      </c>
-      <c r="AC12" s="81">
-        <v>0.9690100618052</v>
+        <v>44550</v>
+      </c>
+      <c r="AC12" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD12" s="84"/>
       <c r="AE12" s="164">
@@ -19652,7 +19654,7 @@
       </c>
       <c r="J13" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H13,2,B13,Calendar,D13,E13,F13,G13,I13,C13,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00125#0004</v>
+        <v>obj_00126#0000</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="10" t="str">
@@ -19661,7 +19663,7 @@
       </c>
       <c r="M13" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00129#0004</v>
+        <v>obj_0011d#0000</v>
       </c>
       <c r="N13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -19669,7 +19671,7 @@
       </c>
       <c r="O13" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>-1.0250000000000001E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="P13" s="143" t="b">
         <v>1</v>
@@ -19682,18 +19684,18 @@
       </c>
       <c r="S13" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T13" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>43437</v>
+        <v>43452</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_0012b</v>
+        <v>obj_0011e</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -19701,7 +19703,7 @@
       </c>
       <c r="Y13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>8.3249999999999991E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="Z13" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -19709,14 +19711,14 @@
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>44896</v>
-      </c>
-      <c r="AC13" s="81">
-        <v>0.94955216813033205</v>
+        <v>44914</v>
+      </c>
+      <c r="AC13" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD13" s="84"/>
       <c r="AE13" s="164">
@@ -19783,7 +19785,7 @@
       </c>
       <c r="J14" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H14,2,B14,Calendar,D14,E14,F14,G14,I14,C14,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011c#0004</v>
+        <v>obj_00123#0000</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="10" t="str">
@@ -19824,7 +19826,7 @@
         <v>BasSw</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_00123</v>
+        <v>obj_00122</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -19832,7 +19834,7 @@
       </c>
       <c r="Y14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.0150000000000001E-2</v>
+        <v>1.0050000000000002E-2</v>
       </c>
       <c r="Z14" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -19840,14 +19842,14 @@
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>45261</v>
-      </c>
-      <c r="AC14" s="81">
-        <v>0.9284537589085835</v>
+        <v>45278</v>
+      </c>
+      <c r="AC14" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD14" s="84"/>
       <c r="AE14" s="164">
@@ -19914,7 +19916,7 @@
       </c>
       <c r="J15" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H15,2,B15,Calendar,D15,E15,F15,G15,I15,C15,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00129#0004</v>
+        <v>obj_0011d#0000</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="10" t="str">
@@ -19923,7 +19925,7 @@
       </c>
       <c r="M15" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012a#0004</v>
+        <v>obj_00120#0000</v>
       </c>
       <c r="N15" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -19931,7 +19933,7 @@
       </c>
       <c r="O15" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>1.325E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="P15" s="143" t="b">
         <v>1</v>
@@ -19944,18 +19946,18 @@
       </c>
       <c r="S15" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T15" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>43801</v>
+        <v>43817</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_0011d</v>
+        <v>obj_00125</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -19963,7 +19965,7 @@
       </c>
       <c r="Y15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.1724999999999999E-2</v>
+        <v>1.1650000000000001E-2</v>
       </c>
       <c r="Z15" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -19971,14 +19973,14 @@
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>45628</v>
-      </c>
-      <c r="AC15" s="81">
-        <v>0.90636600011372326</v>
+        <v>45644</v>
+      </c>
+      <c r="AC15" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD15" s="84"/>
       <c r="AE15" s="164">
@@ -20083,7 +20085,7 @@
         <v>BasSw</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_0011b</v>
+        <v>obj_00121</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -20091,7 +20093,7 @@
       </c>
       <c r="Y16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.3100000000000001E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="Z16" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -20099,14 +20101,14 @@
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>45992</v>
-      </c>
-      <c r="AC16" s="81">
-        <v>0.88366638045102885</v>
+        <v>46009</v>
+      </c>
+      <c r="AC16" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD16" s="84"/>
       <c r="AE16" s="164">
@@ -20173,7 +20175,7 @@
       </c>
       <c r="J17" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H17,2,B17,Calendar,D17,E17,F17,G17,I17,C17,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012a#0004</v>
+        <v>obj_00120#0000</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="10" t="str">
@@ -20182,7 +20184,7 @@
       </c>
       <c r="M17" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00122#0004</v>
+        <v>obj_0011f#0000</v>
       </c>
       <c r="N17" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -20190,7 +20192,7 @@
       </c>
       <c r="O17" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.7750000000000001E-3</v>
       </c>
       <c r="P17" s="143" t="b">
         <v>1</v>
@@ -20203,18 +20205,18 @@
       </c>
       <c r="S17" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T17" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>44166</v>
+        <v>44183</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W17" s="4" t="str">
-        <v>obj_00128</v>
+        <v>obj_0012b</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -20222,7 +20224,7 @@
       </c>
       <c r="Y17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.5424999999999999E-2</v>
+        <v>1.5375000000000002E-2</v>
       </c>
       <c r="Z17" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -20230,14 +20232,14 @@
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>46722</v>
-      </c>
-      <c r="AC17" s="81">
-        <v>0.83677019055665447</v>
+        <v>46741</v>
+      </c>
+      <c r="AC17" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD17" s="84"/>
       <c r="AE17" s="164">
@@ -20310,7 +20312,7 @@
       </c>
       <c r="M18" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011e#0004</v>
+        <v>obj_0012c#0000</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -20318,7 +20320,7 @@
       </c>
       <c r="O18" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>6.2249999999999996E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="P18" s="143" t="b">
         <v>1</v>
@@ -20331,18 +20333,18 @@
       </c>
       <c r="S18" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T18" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>44531</v>
+        <v>44550</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_00126</v>
+        <v>obj_00127</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -20350,7 +20352,7 @@
       </c>
       <c r="Y18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="Z18" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -20358,14 +20360,14 @@
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>47819</v>
-      </c>
-      <c r="AC18" s="81">
-        <v>0.76695170143867741</v>
+        <v>47835</v>
+      </c>
+      <c r="AC18" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD18" s="84"/>
       <c r="AE18" s="164">
@@ -20432,7 +20434,7 @@
       </c>
       <c r="J19" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H19,2,B19,Calendar,D19,E19,F19,G19,I19,C19,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00122#0004</v>
+        <v>obj_0011f#0000</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="10" t="str">
@@ -20441,7 +20443,7 @@
       </c>
       <c r="M19" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012b#0004</v>
+        <v>obj_0011e#0000</v>
       </c>
       <c r="N19" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -20449,7 +20451,7 @@
       </c>
       <c r="O19" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>8.3249999999999991E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="P19" s="143" t="b">
         <v>1</v>
@@ -20462,18 +20464,18 @@
       </c>
       <c r="S19" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T19" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W19" s="4" t="str">
-        <v>obj_0011f</v>
+        <v>obj_00128</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -20481,7 +20483,7 @@
       </c>
       <c r="Y19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>2.0724999999999997E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="Z19" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -20489,14 +20491,14 @@
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>49646</v>
-      </c>
-      <c r="AC19" s="81">
-        <v>0.6594092258415758</v>
+        <v>49661</v>
+      </c>
+      <c r="AC19" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD19" s="84"/>
       <c r="AE19" s="164">
@@ -20563,7 +20565,7 @@
       </c>
       <c r="J20" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H20,2,B20,Calendar,D20,E20,F20,G20,I20,C20,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011e#0004</v>
+        <v>obj_0012c#0000</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
@@ -20572,7 +20574,7 @@
       </c>
       <c r="M20" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00123#0004</v>
+        <v>obj_00122#0000</v>
       </c>
       <c r="N20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -20580,7 +20582,7 @@
       </c>
       <c r="O20" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>1.0150000000000001E-2</v>
+        <v>1.0050000000000002E-2</v>
       </c>
       <c r="P20" s="143" t="b">
         <v>1</v>
@@ -20593,18 +20595,18 @@
       </c>
       <c r="S20" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T20" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_00127</v>
+        <v>obj_00129</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -20612,22 +20614,22 @@
       </c>
       <c r="Y20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>2.1825000000000001E-2</v>
+        <v>2.1949999999999997E-2</v>
       </c>
       <c r="Z20" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>8.7799999999999998E-4</v>
+        <v>8.7599999999999993E-4</v>
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>51473</v>
-      </c>
-      <c r="AC20" s="81">
-        <v>0.57614352298237059</v>
+        <v>51488</v>
+      </c>
+      <c r="AC20" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD20" s="84"/>
       <c r="AE20" s="164">
@@ -20694,7 +20696,7 @@
       </c>
       <c r="J21" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H21,2,B21,Calendar,D21,E21,F21,G21,I21,C21,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012b#0004</v>
+        <v>obj_0011e#0000</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="10" t="str">
@@ -20703,7 +20705,7 @@
       </c>
       <c r="M21" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011d#0004</v>
+        <v>obj_00125#0000</v>
       </c>
       <c r="N21" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -20711,7 +20713,7 @@
       </c>
       <c r="O21" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1.1724999999999999E-2</v>
+        <v>1.1650000000000001E-2</v>
       </c>
       <c r="P21" s="143" t="b">
         <v>1</v>
@@ -20724,18 +20726,18 @@
       </c>
       <c r="S21" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T21" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>45628</v>
+        <v>45644</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_00120</v>
+        <v>obj_0012a</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -20743,22 +20745,22 @@
       </c>
       <c r="Y21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>2.2125000000000002E-2</v>
+        <v>2.2249999999999995E-2</v>
       </c>
       <c r="Z21" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>8.5399999999999994E-4</v>
+        <v>8.52E-4</v>
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>53297</v>
-      </c>
-      <c r="AC21" s="81">
-        <v>0.5125637960651892</v>
+        <v>53314</v>
+      </c>
+      <c r="AC21" s="81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AD21" s="84"/>
       <c r="AE21" s="164">
@@ -20825,7 +20827,7 @@
       </c>
       <c r="J22" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H22,2,B22,Calendar,D22,E22,F22,G22,I22,C22,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00123#0004</v>
+        <v>obj_00122#0000</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="10" t="str">
@@ -20834,7 +20836,7 @@
       </c>
       <c r="M22" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011b#0004</v>
+        <v>obj_00121#0000</v>
       </c>
       <c r="N22" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
@@ -20842,7 +20844,7 @@
       </c>
       <c r="O22" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>1.3100000000000001E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="P22" s="143" t="b">
         <v>1</v>
@@ -20855,11 +20857,11 @@
       </c>
       <c r="S22" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T22" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>45992</v>
+        <v>46009</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20889,7 +20891,7 @@
         <v/>
       </c>
       <c r="AC22" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD22" s="84"/>
       <c r="AE22" s="164">
@@ -20956,7 +20958,7 @@
       </c>
       <c r="J23" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H23,2,B23,Calendar,D23,E23,F23,G23,I23,C23,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011d#0004</v>
+        <v>obj_00125#0000</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="10" t="str">
@@ -20965,7 +20967,7 @@
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00128#0004</v>
+        <v>obj_0012b#0000</v>
       </c>
       <c r="N23" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -20973,7 +20975,7 @@
       </c>
       <c r="O23" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.5424999999999999E-2</v>
+        <v>1.5375000000000002E-2</v>
       </c>
       <c r="P23" s="143" t="b">
         <v>1</v>
@@ -20986,11 +20988,11 @@
       </c>
       <c r="S23" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T23" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>46722</v>
+        <v>46741</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21020,7 +21022,7 @@
         <v/>
       </c>
       <c r="AC23" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD23" s="84"/>
       <c r="AE23" s="167">
@@ -21087,7 +21089,7 @@
       </c>
       <c r="J24" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H24,2,B24,Calendar,D24,E24,F24,G24,I24,C24,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011b#0004</v>
+        <v>obj_00121#0000</v>
       </c>
       <c r="K24" s="51"/>
       <c r="L24" s="10" t="str">
@@ -21096,7 +21098,7 @@
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00126#0004</v>
+        <v>obj_00127#0000</v>
       </c>
       <c r="N24" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
@@ -21104,7 +21106,7 @@
       </c>
       <c r="O24" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="P24" s="143" t="b">
         <v>1</v>
@@ -21117,11 +21119,11 @@
       </c>
       <c r="S24" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T24" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>47819</v>
+        <v>47835</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21151,7 +21153,7 @@
         <v/>
       </c>
       <c r="AC24" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD24" s="84"/>
     </row>
@@ -21188,7 +21190,7 @@
       </c>
       <c r="J25" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H25,2,B25,Calendar,D25,E25,F25,G25,I25,C25,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00128#0004</v>
+        <v>obj_0012b#0000</v>
       </c>
       <c r="K25" s="51"/>
       <c r="L25" s="10" t="str">
@@ -21197,7 +21199,7 @@
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011f#0004</v>
+        <v>obj_00128#0000</v>
       </c>
       <c r="N25" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
@@ -21205,7 +21207,7 @@
       </c>
       <c r="O25" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>2.0724999999999997E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="P25" s="143" t="b">
         <v>1</v>
@@ -21218,11 +21220,11 @@
       </c>
       <c r="S25" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T25" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>49646</v>
+        <v>49661</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21252,7 +21254,7 @@
         <v/>
       </c>
       <c r="AC25" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD25" s="84"/>
     </row>
@@ -21289,7 +21291,7 @@
       </c>
       <c r="J26" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H26,2,B26,Calendar,D26,E26,F26,G26,I26,C26,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00126#0004</v>
+        <v>obj_00127#0000</v>
       </c>
       <c r="K26" s="51"/>
       <c r="L26" s="10" t="str">
@@ -21298,7 +21300,7 @@
       </c>
       <c r="M26" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00127#0004</v>
+        <v>obj_00129#0000</v>
       </c>
       <c r="N26" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
@@ -21306,7 +21308,7 @@
       </c>
       <c r="O26" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>2.1825000000000001E-2</v>
+        <v>2.1949999999999997E-2</v>
       </c>
       <c r="P26" s="143" t="b">
         <v>1</v>
@@ -21319,11 +21321,11 @@
       </c>
       <c r="S26" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T26" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>51473</v>
+        <v>51488</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21353,7 +21355,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD26" s="84"/>
     </row>
@@ -21390,7 +21392,7 @@
       </c>
       <c r="J27" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H27,2,B27,Calendar,D27,E27,F27,G27,I27,C27,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011f#0004</v>
+        <v>obj_00128#0000</v>
       </c>
       <c r="K27" s="51"/>
       <c r="L27" s="10" t="str">
@@ -21454,7 +21456,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD27" s="84"/>
     </row>
@@ -21491,7 +21493,7 @@
       </c>
       <c r="J28" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,2,B28,Calendar,D28,E28,F28,G28,I28,C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00127#0004</v>
+        <v>obj_00129#0000</v>
       </c>
       <c r="K28" s="51"/>
       <c r="L28" s="10" t="str">
@@ -21500,7 +21502,7 @@
       </c>
       <c r="M28" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00120#0004</v>
+        <v>obj_0012a#0000</v>
       </c>
       <c r="N28" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
@@ -21508,7 +21510,7 @@
       </c>
       <c r="O28" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>2.2125000000000002E-2</v>
+        <v>2.2249999999999995E-2</v>
       </c>
       <c r="P28" s="143" t="b">
         <v>1</v>
@@ -21521,11 +21523,11 @@
       </c>
       <c r="S28" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42356</v>
       </c>
       <c r="T28" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>53297</v>
+        <v>53314</v>
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21555,7 +21557,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD28" s="84"/>
     </row>
@@ -21653,7 +21655,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD29" s="84"/>
     </row>
@@ -21690,7 +21692,7 @@
       </c>
       <c r="J30" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,2,B30,Calendar,D30,E30,F30,G30,I30,C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00120#0004</v>
+        <v>obj_0012a#0000</v>
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="10" t="str">
@@ -21754,7 +21756,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD30" s="84"/>
     </row>
@@ -21852,7 +21854,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD31" s="84"/>
     </row>
@@ -21950,7 +21952,7 @@
         <v/>
       </c>
       <c r="AC32" s="82" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD32" s="84"/>
     </row>

--- a/QuantLibXL/Data2/XLS/SEK/SEK_CurvesBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_CurvesBootstrapping.xlsx
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I3" s="14">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="J3" s="89"/>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="I4" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="J4" s="89"/>
     </row>
@@ -2257,9 +2257,7 @@
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21">
-        <v>42354.613761574074</v>
-      </c>
+      <c r="D5" s="21"/>
       <c r="E5" s="89"/>
       <c r="G5" s="91"/>
       <c r="H5" s="15" t="s">
@@ -2366,16 +2364,16 @@
       </c>
       <c r="D13" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve($D$15,$D$16,Calendar,_xll.ohPack(RateHelpersON),,JumpQuotes_ON,JumpDates_ON,D17,D18,D19,Permanent,,ObjectOverwrite)</f>
-        <v>_SEKON#0000</v>
+        <v>_SEKON#0001</v>
       </c>
       <c r="E13" s="43"/>
       <c r="G13" s="23"/>
       <c r="H13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="42" t="e">
+      <c r="I13" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I15,I16,Calendar,_xll.ohPack(RateHelpers3M),,JumpQuotes_3M,JumpDates_3M,I17,I18,I19,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>_SEK3M#0002</v>
       </c>
       <c r="J13" s="43"/>
     </row>
@@ -2394,8 +2392,8 @@
         <v>11</v>
       </c>
       <c r="I14" s="44" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve_3M)</f>
-        <v>qlPiecewiseYieldCurve - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to typ</v>
+        <f>_xll.ohRangeRetrieveError(YieldCurve_3M)</f>
+        <v/>
       </c>
       <c r="J14" s="43"/>
     </row>
@@ -2501,7 +2499,7 @@
       <c r="B21" s="23"/>
       <c r="C21" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_ON)</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="D21" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C21,,Trigger)</f>
@@ -2509,13 +2507,13 @@
       </c>
       <c r="E21" s="43"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="32" t="e">
+      <c r="H21" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_3M)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="33" t="e">
+        <v>42359</v>
+      </c>
+      <c r="I21" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H21,,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="J21" s="43"/>
     </row>
@@ -2523,21 +2521,21 @@
       <c r="B22" s="23"/>
       <c r="C22" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_ON,Trigger)</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="D22" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C22,,Trigger)</f>
-        <v>0.50513418590257497</v>
+        <v>0.4715475644124581</v>
       </c>
       <c r="E22" s="43"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="34" t="e">
+      <c r="H22" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_3M,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="35" t="e">
+        <v>53317</v>
+      </c>
+      <c r="I22" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H22,,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>0.466416701833342</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -2557,9 +2555,9 @@
         <f>[1]Stibor!$J$9</f>
         <v>SEK3M#0000</v>
       </c>
-      <c r="I23" s="35" t="e">
+      <c r="I23" s="35" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(H23,I13,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="J23" s="43"/>
     </row>
@@ -2620,7 +2618,7 @@
       </c>
       <c r="D28" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D30,D31,Calendar,_xll.ohPack(RateHelpers6M),,JumpQuotes_6M,JumpDates_6M,D32,D33,D34,Permanent,,ObjectOverwrite)</f>
-        <v>_SEK6M#0000</v>
+        <v>_SEK6M#0001</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="50"/>
@@ -2630,7 +2628,7 @@
       </c>
       <c r="I28" s="42" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I30,I31,Calendar,_xll.ohPack(RateHelpers1M),,JumpQuotes_1M,JumpDates_1M,I32,I33,I34,Permanent,,ObjectOverwrite)</f>
-        <v>_SEK1M#0000</v>
+        <v>_SEK1M#0001</v>
       </c>
       <c r="J28" s="43"/>
     </row>
@@ -2763,45 +2761,45 @@
       <c r="B36" s="23"/>
       <c r="C36" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_6M)</f>
-        <v>42356</v>
-      </c>
-      <c r="D36" s="33" t="e">
+        <v>42359</v>
+      </c>
+      <c r="D36" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C36,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="50"/>
       <c r="G36" s="23"/>
       <c r="H36" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_1M)</f>
-        <v>42356</v>
-      </c>
-      <c r="I36" s="33" t="e">
+        <v>42359</v>
+      </c>
+      <c r="I36" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H36,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="J36" s="43"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="23"/>
-      <c r="C37" s="34" t="e">
+      <c r="C37" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_6M,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D37" s="35" t="e">
+        <v>53317</v>
+      </c>
+      <c r="D37" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C37,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0.45839126445886313</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="50"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="34" t="e">
+      <c r="H37" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_1M,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I37" s="35" t="e">
+        <v>53317</v>
+      </c>
+      <c r="I37" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H37,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0.4781269833413101</v>
       </c>
       <c r="J37" s="43"/>
     </row>
@@ -3107,7 +3105,7 @@
       </c>
       <c r="U3" s="4" t="str">
         <f t="array" ref="U3:U59">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),AH3,AH4,AH5,AH6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0015e</v>
+        <v>obj_00160</v>
       </c>
       <c r="V3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U3,Trigger),"")</f>
@@ -3115,7 +3113,7 @@
       </c>
       <c r="W3" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U3,Trigger),"")</f>
-        <v>-4.1000000000000003E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="X3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U3)),_xll.qlSwapRateHelperSpread($U3))</f>
@@ -3123,14 +3121,14 @@
       </c>
       <c r="Y3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U3,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U3,Trigger),"")</f>
-        <v>42387</v>
+        <v>42390</v>
       </c>
       <c r="AA3" s="81">
-        <v>1.0003531802478043</v>
+        <v>1.0003273293316535</v>
       </c>
       <c r="AB3" s="190"/>
       <c r="AD3" s="111" t="s">
@@ -3200,7 +3198,7 @@
         <v>OISShort</v>
       </c>
       <c r="U4" s="4" t="str">
-        <v>obj_0015d</v>
+        <v>obj_0015e</v>
       </c>
       <c r="V4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U4,Trigger),"")</f>
@@ -3208,7 +3206,7 @@
       </c>
       <c r="W4" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U4,Trigger),"")</f>
-        <v>-4.2500000000000003E-3</v>
+        <v>-3.8500000000000001E-3</v>
       </c>
       <c r="X4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U4)),_xll.qlSwapRateHelperSpread($U4))</f>
@@ -3216,14 +3214,14 @@
       </c>
       <c r="Y4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U4,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U4,Trigger),"")</f>
-        <v>42418</v>
+        <v>42422</v>
       </c>
       <c r="AA4" s="81">
-        <v>1.0007324805795352</v>
+        <v>1.0006742042451102</v>
       </c>
       <c r="AB4" s="190"/>
       <c r="AD4" s="111" t="s">
@@ -3276,7 +3274,7 @@
         <v>OISShort</v>
       </c>
       <c r="U5" s="4" t="str">
-        <v>obj_00159</v>
+        <v>obj_0015b</v>
       </c>
       <c r="V5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U5,Trigger),"")</f>
@@ -3284,7 +3282,7 @@
       </c>
       <c r="W5" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U5,Trigger),"")</f>
-        <v>-4.3000000000000009E-3</v>
+        <v>-3.9000000000000003E-3</v>
       </c>
       <c r="X5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U5)),_xll.qlSwapRateHelperSpread($U5))</f>
@@ -3292,14 +3290,14 @@
       </c>
       <c r="Y5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U5,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U5,Trigger),"")</f>
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="AA5" s="81">
-        <v>1.0010881271782357</v>
+        <v>1.0009868061597391</v>
       </c>
       <c r="AB5" s="190"/>
       <c r="AC5" s="84"/>
@@ -3370,7 +3368,7 @@
         <v>OISShort</v>
       </c>
       <c r="U6" s="4" t="str">
-        <v>obj_0015b</v>
+        <v>obj_0015a</v>
       </c>
       <c r="V6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U6,Trigger),"")</f>
@@ -3378,7 +3376,7 @@
       </c>
       <c r="W6" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U6,Trigger),"")</f>
-        <v>-4.5000000000000005E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="X6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U6)),_xll.qlSwapRateHelperSpread($U6))</f>
@@ -3386,14 +3384,14 @@
       </c>
       <c r="Y6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U6,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U6,Trigger),"")</f>
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="AA6" s="81">
-        <v>1.0023178600513687</v>
+        <v>1.00203747620161</v>
       </c>
       <c r="AB6" s="190"/>
       <c r="AD6" s="111" t="s">
@@ -3464,7 +3462,7 @@
         <v>OISShort</v>
       </c>
       <c r="U7" s="4" t="str">
-        <v>obj_0015a</v>
+        <v>obj_00159</v>
       </c>
       <c r="V7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U7,Trigger),"")</f>
@@ -3472,7 +3470,7 @@
       </c>
       <c r="W7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U7,Trigger),"")</f>
-        <v>-4.5000000000000005E-3</v>
+        <v>-3.9500000000000004E-3</v>
       </c>
       <c r="X7" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U7)),_xll.qlSwapRateHelperSpread($U7))</f>
@@ -3480,14 +3478,14 @@
       </c>
       <c r="Y7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U7,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U7,Trigger),"")</f>
-        <v>42632</v>
+        <v>42634</v>
       </c>
       <c r="AA7" s="81">
-        <v>1.003461943705785</v>
+        <v>1.0030264931337967</v>
       </c>
       <c r="AB7" s="190"/>
     </row>
@@ -3520,7 +3518,7 @@
       </c>
       <c r="K8" s="98" t="str">
         <f>IF(ISBLANK(H10),"--",H10)</f>
-        <v>obj_0015e#0000</v>
+        <v>obj_00160#0001</v>
       </c>
       <c r="L8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K8,Trigger),"--")</f>
@@ -3528,7 +3526,7 @@
       </c>
       <c r="M8" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K8,Trigger),"--")</f>
-        <v>-4.1000000000000003E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="N8" s="101" t="b">
         <v>1</v>
@@ -3541,11 +3539,11 @@
       </c>
       <c r="Q8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K8,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K8,Trigger),"--")</f>
-        <v>42387</v>
+        <v>42390</v>
       </c>
       <c r="T8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3560,7 +3558,7 @@
       </c>
       <c r="W8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U8,Trigger),"")</f>
-        <v>-4.5499999999999994E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="X8" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U8)),_xll.qlSwapRateHelperSpread($U8))</f>
@@ -3568,14 +3566,14 @@
       </c>
       <c r="Y8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U8,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U8,Trigger),"")</f>
-        <v>42723</v>
+        <v>42725</v>
       </c>
       <c r="AA8" s="81">
-        <v>1.0046600879105485</v>
+        <v>1.0038783165630258</v>
       </c>
       <c r="AB8" s="190"/>
     </row>
@@ -3608,7 +3606,7 @@
       </c>
       <c r="K9" s="98" t="str">
         <f t="shared" ref="K9:K59" si="6">IF(ISBLANK(H11),"--",H11)</f>
-        <v>obj_0015d#0000</v>
+        <v>obj_0015e#0001</v>
       </c>
       <c r="L9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K9,Trigger),"--")</f>
@@ -3616,7 +3614,7 @@
       </c>
       <c r="M9" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K9,Trigger),"--")</f>
-        <v>-4.2500000000000003E-3</v>
+        <v>-3.8500000000000001E-3</v>
       </c>
       <c r="N9" s="101" t="b">
         <v>1</v>
@@ -3629,18 +3627,18 @@
       </c>
       <c r="Q9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K9,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K9,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42422</v>
       </c>
       <c r="T9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U9" s="4" t="str">
-        <v>obj_0015f</v>
+        <v>obj_0015d</v>
       </c>
       <c r="V9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U9,Trigger),"")</f>
@@ -3648,7 +3646,7 @@
       </c>
       <c r="W9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U9,Trigger),"")</f>
-        <v>-3.725E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="X9" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U9)),_xll.qlSwapRateHelperSpread($U9))</f>
@@ -3656,14 +3654,14 @@
       </c>
       <c r="Y9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U9,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U9,Trigger),"")</f>
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="AA9" s="81">
-        <v>1.007610178697155</v>
+        <v>1.0050991712595263</v>
       </c>
       <c r="AB9" s="190"/>
       <c r="AE9" s="49" t="s">
@@ -3693,7 +3691,7 @@
       <c r="G10" s="129"/>
       <c r="H10" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C10,B10,F10,$E10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015e#0000</v>
+        <v>obj_00160#0001</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="10" t="str">
@@ -3702,7 +3700,7 @@
       </c>
       <c r="K10" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00159#0000</v>
+        <v>obj_0015b#0001</v>
       </c>
       <c r="L10" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K10,Trigger),"--")</f>
@@ -3710,7 +3708,7 @@
       </c>
       <c r="M10" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K10,Trigger),"--")</f>
-        <v>-4.3000000000000009E-3</v>
+        <v>-3.9000000000000003E-3</v>
       </c>
       <c r="N10" s="101" t="b">
         <v>1</v>
@@ -3723,18 +3721,18 @@
       </c>
       <c r="Q10" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K10,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R10" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K10,Trigger),"--")</f>
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="T10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U10" s="4" t="str">
-        <v>obj_00160</v>
+        <v>obj_0015f</v>
       </c>
       <c r="V10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U10,Trigger),"")</f>
@@ -3742,7 +3740,7 @@
       </c>
       <c r="W10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U10,Trigger),"")</f>
-        <v>-2.0249999999999999E-3</v>
+        <v>-4.75E-4</v>
       </c>
       <c r="X10" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U10)),_xll.qlSwapRateHelperSpread($U10))</f>
@@ -3750,14 +3748,14 @@
       </c>
       <c r="Y10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U10,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U10,Trigger),"")</f>
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="AA10" s="81">
-        <v>1.0062029374157444</v>
+        <v>1.0014511386258635</v>
       </c>
       <c r="AB10" s="190"/>
       <c r="AC10" s="77" t="s">
@@ -3808,7 +3806,7 @@
       <c r="G11" s="129"/>
       <c r="H11" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C11,B11,F11,$E11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015d#0000</v>
+        <v>obj_0015e#0001</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="10" t="str">
@@ -3857,7 +3855,7 @@
       </c>
       <c r="W11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U11,Trigger),"")</f>
-        <v>-7.4999999999999993E-5</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="X11" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U11)),_xll.qlSwapRateHelperSpread($U11))</f>
@@ -3865,14 +3863,14 @@
       </c>
       <c r="Y11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U11,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U11,Trigger),"")</f>
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="AA11" s="81">
-        <v>1.0003058033432679</v>
+        <v>0.99196908503381709</v>
       </c>
       <c r="AB11" s="190"/>
       <c r="AC11" s="161">
@@ -3929,7 +3927,7 @@
       <c r="G12" s="129"/>
       <c r="H12" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C12,B12,F12,$E12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00159#0000</v>
+        <v>obj_0015b#0001</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="10" t="str">
@@ -3970,7 +3968,7 @@
         <v>OIS</v>
       </c>
       <c r="U12" s="4" t="str">
-        <v>obj_00138</v>
+        <v>obj_00136</v>
       </c>
       <c r="V12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U12,Trigger),"")</f>
@@ -3978,7 +3976,7 @@
       </c>
       <c r="W12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U12,Trigger),"")</f>
-        <v>2.3999999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="X12" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U12)),_xll.qlSwapRateHelperSpread($U12))</f>
@@ -3986,14 +3984,14 @@
       </c>
       <c r="Y12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U12,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U12,Trigger),"")</f>
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="AA12" s="81">
-        <v>0.98780405113066794</v>
+        <v>0.97624910284256128</v>
       </c>
       <c r="AB12" s="190"/>
       <c r="AC12" s="164">
@@ -4056,7 +4054,7 @@
       </c>
       <c r="K13" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015b#0000</v>
+        <v>obj_0015a#0001</v>
       </c>
       <c r="L13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K13,Trigger),"--")</f>
@@ -4064,7 +4062,7 @@
       </c>
       <c r="M13" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K13,Trigger),"--")</f>
-        <v>-4.5000000000000005E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="N13" s="101" t="b">
         <v>1</v>
@@ -4077,18 +4075,18 @@
       </c>
       <c r="Q13" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K13,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R13" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K13,Trigger),"--")</f>
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="T13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U13" s="4" t="str">
-        <v>obj_00135</v>
+        <v>obj_00139</v>
       </c>
       <c r="V13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U13,Trigger),"")</f>
@@ -4096,7 +4094,7 @@
       </c>
       <c r="W13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U13,Trigger),"")</f>
-        <v>4.7499999999999999E-3</v>
+        <v>7.175E-3</v>
       </c>
       <c r="X13" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U13)),_xll.qlSwapRateHelperSpread($U13))</f>
@@ -4104,14 +4102,14 @@
       </c>
       <c r="Y13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U13,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U13,Trigger),"")</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="AA13" s="81">
-        <v>0.97115947963258709</v>
+        <v>0.95678172662180516</v>
       </c>
       <c r="AB13" s="190"/>
       <c r="AC13" s="164">
@@ -4206,7 +4204,7 @@
         <v>OIS</v>
       </c>
       <c r="U14" s="4" t="str">
-        <v>obj_00113</v>
+        <v>obj_0010f</v>
       </c>
       <c r="V14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U14,Trigger),"")</f>
@@ -4214,7 +4212,7 @@
       </c>
       <c r="W14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U14,Trigger),"")</f>
-        <v>6.8499999999999993E-3</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="X14" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U14)),_xll.qlSwapRateHelperSpread($U14))</f>
@@ -4222,14 +4220,14 @@
       </c>
       <c r="Y14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U14,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U14,Trigger),"")</f>
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="AA14" s="81">
-        <v>0.95181654662661153</v>
+        <v>0.93464612447235185</v>
       </c>
       <c r="AB14" s="190"/>
       <c r="AC14" s="164">
@@ -4286,7 +4284,7 @@
       <c r="G15" s="129"/>
       <c r="H15" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C15,B15,F15,$E15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015b#0000</v>
+        <v>obj_0015a#0001</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="10" t="str">
@@ -4327,7 +4325,7 @@
         <v>OIS</v>
       </c>
       <c r="U15" s="4" t="str">
-        <v>obj_00139</v>
+        <v>obj_0012f</v>
       </c>
       <c r="V15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U15,Trigger),"")</f>
@@ -4335,7 +4333,7 @@
       </c>
       <c r="W15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U15,Trigger),"")</f>
-        <v>8.6750000000000004E-3</v>
+        <v>1.1225000000000001E-2</v>
       </c>
       <c r="X15" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U15)),_xll.qlSwapRateHelperSpread($U15))</f>
@@ -4343,14 +4341,14 @@
       </c>
       <c r="Y15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U15,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U15,Trigger),"")</f>
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="AA15" s="81">
-        <v>0.93081481050850789</v>
+        <v>0.91137732958633622</v>
       </c>
       <c r="AB15" s="190"/>
       <c r="AC15" s="164">
@@ -4413,7 +4411,7 @@
       </c>
       <c r="K16" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015a#0000</v>
+        <v>obj_00159#0001</v>
       </c>
       <c r="L16" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K16,Trigger),"--")</f>
@@ -4421,7 +4419,7 @@
       </c>
       <c r="M16" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K16,Trigger),"--")</f>
-        <v>-4.5000000000000005E-3</v>
+        <v>-3.9500000000000004E-3</v>
       </c>
       <c r="N16" s="101" t="b">
         <v>1</v>
@@ -4434,18 +4432,18 @@
       </c>
       <c r="Q16" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K16,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R16" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K16,Trigger),"--")</f>
-        <v>42632</v>
+        <v>42634</v>
       </c>
       <c r="T16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U16" s="4" t="str">
-        <v>obj_0012f</v>
+        <v>obj_00137</v>
       </c>
       <c r="V16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U16,Trigger),"")</f>
@@ -4453,7 +4451,7 @@
       </c>
       <c r="W16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U16,Trigger),"")</f>
-        <v>1.0275000000000001E-2</v>
+        <v>1.2774999999999998E-2</v>
       </c>
       <c r="X16" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U16)),_xll.qlSwapRateHelperSpread($U16))</f>
@@ -4461,14 +4459,14 @@
       </c>
       <c r="Y16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U16,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U16,Trigger),"")</f>
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="AA16" s="81">
-        <v>0.90856334984443066</v>
+        <v>0.88754949052940324</v>
       </c>
       <c r="AB16" s="190"/>
       <c r="AC16" s="164">
@@ -4563,7 +4561,7 @@
         <v>OIS</v>
       </c>
       <c r="U17" s="4" t="str">
-        <v>obj_00132</v>
+        <v>obj_0012e</v>
       </c>
       <c r="V17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U17,Trigger),"")</f>
@@ -4571,7 +4569,7 @@
       </c>
       <c r="W17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U17,Trigger),"")</f>
-        <v>1.1699999999999999E-2</v>
+        <v>1.4150000000000001E-2</v>
       </c>
       <c r="X17" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U17)),_xll.qlSwapRateHelperSpread($U17))</f>
@@ -4579,14 +4577,14 @@
       </c>
       <c r="Y17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U17,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U17,Trigger),"")</f>
-        <v>46009</v>
+        <v>46013</v>
       </c>
       <c r="AA17" s="81">
-        <v>0.88537953977677897</v>
+        <v>0.86309767647439506</v>
       </c>
       <c r="AB17" s="190"/>
       <c r="AC17" s="164">
@@ -4643,7 +4641,7 @@
       <c r="G18" s="129"/>
       <c r="H18" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C18,B18,F18,$E18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015a#0000</v>
+        <v>obj_00159#0001</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="10" t="str">
@@ -4692,7 +4690,7 @@
       </c>
       <c r="W18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U18,Trigger),"")</f>
-        <v>1.405E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="X18" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U18)),_xll.qlSwapRateHelperSpread($U18))</f>
@@ -4700,14 +4698,14 @@
       </c>
       <c r="Y18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U18,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U18,Trigger),"")</f>
-        <v>46741</v>
+        <v>46742</v>
       </c>
       <c r="AA18" s="81">
-        <v>0.83807660458263999</v>
+        <v>0.81500115268327245</v>
       </c>
       <c r="AB18" s="190"/>
       <c r="AC18" s="164">
@@ -4802,7 +4800,7 @@
         <v>OIS</v>
       </c>
       <c r="U19" s="4" t="str">
-        <v>obj_00134</v>
+        <v>obj_00132</v>
       </c>
       <c r="V19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U19,Trigger),"")</f>
@@ -4810,7 +4808,7 @@
       </c>
       <c r="W19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U19,Trigger),"")</f>
-        <v>1.6674999999999999E-2</v>
+        <v>1.8725000000000002E-2</v>
       </c>
       <c r="X19" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U19)),_xll.qlSwapRateHelperSpread($U19))</f>
@@ -4818,14 +4816,14 @@
       </c>
       <c r="Y19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U19,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U19,Trigger),"")</f>
-        <v>47835</v>
+        <v>47840</v>
       </c>
       <c r="AA19" s="81">
-        <v>0.76773610609940746</v>
+        <v>0.7436517783799389</v>
       </c>
       <c r="AB19" s="190"/>
       <c r="AC19" s="164">
@@ -4888,7 +4886,7 @@
       </c>
       <c r="K20" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0010b#0000</v>
+        <v>obj_0010b#0001</v>
       </c>
       <c r="L20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K20,Trigger),"--")</f>
@@ -4896,7 +4894,7 @@
       </c>
       <c r="M20" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K20,Trigger),"--")</f>
-        <v>-4.5499999999999994E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="N20" s="101" t="b">
         <v>1</v>
@@ -4909,18 +4907,18 @@
       </c>
       <c r="Q20" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K20,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R20" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K20,Trigger),"--")</f>
-        <v>42723</v>
+        <v>42725</v>
       </c>
       <c r="T20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="U20" s="4" t="str">
-        <v>obj_00130</v>
+        <v>obj_00133</v>
       </c>
       <c r="V20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U20,Trigger),"")</f>
@@ -4928,7 +4926,7 @@
       </c>
       <c r="W20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U20,Trigger),"")</f>
-        <v>1.9574999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="X20" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U20)),_xll.qlSwapRateHelperSpread($U20))</f>
@@ -4936,14 +4934,14 @@
       </c>
       <c r="Y20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U20,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U20,Trigger),"")</f>
-        <v>49661</v>
+        <v>49664</v>
       </c>
       <c r="AA20" s="81">
-        <v>0.65779675284850925</v>
+        <v>0.63045571948892887</v>
       </c>
       <c r="AB20" s="190"/>
       <c r="AC20" s="164">
@@ -5046,7 +5044,7 @@
       </c>
       <c r="W21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U21,Trigger),"")</f>
-        <v>2.0899999999999998E-2</v>
+        <v>2.3075000000000002E-2</v>
       </c>
       <c r="X21" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U21)),_xll.qlSwapRateHelperSpread($U21))</f>
@@ -5054,14 +5052,14 @@
       </c>
       <c r="Y21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U21,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U21,Trigger),"")</f>
-        <v>51488</v>
+        <v>51491</v>
       </c>
       <c r="AA21" s="81">
-        <v>0.57062616898135388</v>
+        <v>0.53813526235417219</v>
       </c>
       <c r="AB21" s="190"/>
       <c r="AC21" s="164">
@@ -5118,7 +5116,7 @@
       <c r="G22" s="129"/>
       <c r="H22" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C22,B22,F22,$E22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010b#0000</v>
+        <v>obj_0010b#0001</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="5"/>
@@ -5158,7 +5156,7 @@
         <v>OIS</v>
       </c>
       <c r="U22" s="4" t="str">
-        <v>obj_00137</v>
+        <v>obj_00138</v>
       </c>
       <c r="V22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(U22,Trigger),"")</f>
@@ -5166,7 +5164,7 @@
       </c>
       <c r="W22" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(U22,Trigger),"")</f>
-        <v>2.1299999999999999E-2</v>
+        <v>2.3450000000000002E-2</v>
       </c>
       <c r="X22" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($U22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($U22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($U22)),_xll.qlSwapRateHelperSpread($U22))</f>
@@ -5174,14 +5172,14 @@
       </c>
       <c r="Y22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(U22,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="Z22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(U22,Trigger),"")</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="AA22" s="81">
-        <v>0.50513418590257497</v>
+        <v>0.4715475644124581</v>
       </c>
       <c r="AB22" s="190"/>
       <c r="AC22" s="164">
@@ -6056,7 +6054,7 @@
       </c>
       <c r="K32" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015f#0000</v>
+        <v>obj_0015d#0001</v>
       </c>
       <c r="L32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K32,Trigger),"--")</f>
@@ -6064,7 +6062,7 @@
       </c>
       <c r="M32" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K32,Trigger),"--")</f>
-        <v>-3.725E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="N32" s="101" t="b">
         <v>1</v>
@@ -6077,11 +6075,11 @@
       </c>
       <c r="Q32" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K32,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R32" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K32,Trigger),"--")</f>
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="T32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6225,7 +6223,7 @@
       <c r="G34" s="129"/>
       <c r="H34" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C34,B34,F34,$E34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0000</v>
+        <v>obj_0015d#0001</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6407,7 +6405,7 @@
       </c>
       <c r="K36" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00160#0000</v>
+        <v>obj_0015f#0001</v>
       </c>
       <c r="L36" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K36,Trigger),"--")</f>
@@ -6415,7 +6413,7 @@
       </c>
       <c r="M36" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K36,Trigger),"--")</f>
-        <v>-2.0249999999999999E-3</v>
+        <v>-4.75E-4</v>
       </c>
       <c r="N36" s="101" t="b">
         <v>1</v>
@@ -6428,11 +6426,11 @@
       </c>
       <c r="Q36" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K36,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R36" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K36,Trigger),"--")</f>
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="T36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6576,7 +6574,7 @@
       <c r="G38" s="129"/>
       <c r="H38" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C38,B38,F38,$E38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00160#0000</v>
+        <v>obj_0015f#0001</v>
       </c>
       <c r="J38" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6756,7 +6754,7 @@
       </c>
       <c r="K40" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0015c#0000</v>
+        <v>obj_0015c#0001</v>
       </c>
       <c r="L40" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K40,Trigger),"--")</f>
@@ -6764,7 +6762,7 @@
       </c>
       <c r="M40" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K40,Trigger),"--")</f>
-        <v>-7.4999999999999993E-5</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="N40" s="101" t="b">
         <v>1</v>
@@ -6777,11 +6775,11 @@
       </c>
       <c r="Q40" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K40,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R40" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K40,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="T40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6923,7 +6921,7 @@
       <c r="G42" s="129"/>
       <c r="H42" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C42,B42,F42,$E42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015c#0000</v>
+        <v>obj_0015c#0001</v>
       </c>
       <c r="J42" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7103,7 +7101,7 @@
       </c>
       <c r="K44" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00138#0000</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="L44" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K44,Trigger),"--")</f>
@@ -7111,7 +7109,7 @@
       </c>
       <c r="M44" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K44,Trigger),"--")</f>
-        <v>2.3999999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="N44" s="101" t="b">
         <v>1</v>
@@ -7124,11 +7122,11 @@
       </c>
       <c r="Q44" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K44,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R44" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K44,Trigger),"--")</f>
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="T44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7189,7 +7187,7 @@
       </c>
       <c r="K45" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00135#0000</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="L45" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K45,Trigger),"--")</f>
@@ -7197,7 +7195,7 @@
       </c>
       <c r="M45" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K45,Trigger),"--")</f>
-        <v>4.7499999999999999E-3</v>
+        <v>7.175E-3</v>
       </c>
       <c r="N45" s="101" t="b">
         <v>1</v>
@@ -7210,11 +7208,11 @@
       </c>
       <c r="Q45" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K45,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R45" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K45,Trigger),"--")</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="T45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7270,7 +7268,7 @@
       <c r="G46" s="129"/>
       <c r="H46" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C46,B46,F46,$E46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00138#0000</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="J46" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7278,7 +7276,7 @@
       </c>
       <c r="K46" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00113#0000</v>
+        <v>obj_0010f#0001</v>
       </c>
       <c r="L46" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K46,Trigger),"--")</f>
@@ -7286,7 +7284,7 @@
       </c>
       <c r="M46" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K46,Trigger),"--")</f>
-        <v>6.8499999999999993E-3</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="N46" s="101" t="b">
         <v>1</v>
@@ -7299,11 +7297,11 @@
       </c>
       <c r="Q46" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K46,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R46" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K46,Trigger),"--")</f>
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="T46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7359,7 +7357,7 @@
       <c r="G47" s="129"/>
       <c r="H47" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C47,B47,F47,$E47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00135#0000</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="J47" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7367,7 +7365,7 @@
       </c>
       <c r="K47" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00139#0000</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="L47" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K47,Trigger),"--")</f>
@@ -7375,7 +7373,7 @@
       </c>
       <c r="M47" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K47,Trigger),"--")</f>
-        <v>8.6750000000000004E-3</v>
+        <v>1.1225000000000001E-2</v>
       </c>
       <c r="N47" s="101" t="b">
         <v>1</v>
@@ -7388,11 +7386,11 @@
       </c>
       <c r="Q47" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K47,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R47" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K47,Trigger),"--")</f>
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="T47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7448,7 +7446,7 @@
       <c r="G48" s="129"/>
       <c r="H48" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C48,B48,F48,$E48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00113#0000</v>
+        <v>obj_0010f#0001</v>
       </c>
       <c r="J48" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7456,7 +7454,7 @@
       </c>
       <c r="K48" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012f#0000</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="L48" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K48,Trigger),"--")</f>
@@ -7464,7 +7462,7 @@
       </c>
       <c r="M48" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K48,Trigger),"--")</f>
-        <v>1.0275000000000001E-2</v>
+        <v>1.2774999999999998E-2</v>
       </c>
       <c r="N48" s="101" t="b">
         <v>1</v>
@@ -7477,11 +7475,11 @@
       </c>
       <c r="Q48" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K48,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R48" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K48,Trigger),"--")</f>
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="T48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7537,7 +7535,7 @@
       <c r="G49" s="129"/>
       <c r="H49" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C49,B49,F49,$E49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00139#0000</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="J49" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7545,7 +7543,7 @@
       </c>
       <c r="K49" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00132#0000</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="L49" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K49,Trigger),"--")</f>
@@ -7553,7 +7551,7 @@
       </c>
       <c r="M49" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K49,Trigger),"--")</f>
-        <v>1.1699999999999999E-2</v>
+        <v>1.4150000000000001E-2</v>
       </c>
       <c r="N49" s="101" t="b">
         <v>1</v>
@@ -7566,11 +7564,11 @@
       </c>
       <c r="Q49" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K49,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R49" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K49,Trigger),"--")</f>
-        <v>46009</v>
+        <v>46013</v>
       </c>
       <c r="T49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7626,7 +7624,7 @@
       <c r="G50" s="129"/>
       <c r="H50" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C50,B50,F50,$E50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012f#0000</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="J50" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7634,7 +7632,7 @@
       </c>
       <c r="K50" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012d#0000</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="L50" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K50,Trigger),"--")</f>
@@ -7642,7 +7640,7 @@
       </c>
       <c r="M50" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K50,Trigger),"--")</f>
-        <v>1.405E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="N50" s="101" t="b">
         <v>1</v>
@@ -7655,11 +7653,11 @@
       </c>
       <c r="Q50" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K50,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R50" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K50,Trigger),"--")</f>
-        <v>46741</v>
+        <v>46742</v>
       </c>
       <c r="T50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7715,7 +7713,7 @@
       <c r="G51" s="129"/>
       <c r="H51" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C51,B51,F51,$E51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00132#0000</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="J51" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7723,7 +7721,7 @@
       </c>
       <c r="K51" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00134#0000</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="L51" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K51,Trigger),"--")</f>
@@ -7731,7 +7729,7 @@
       </c>
       <c r="M51" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K51,Trigger),"--")</f>
-        <v>1.6674999999999999E-2</v>
+        <v>1.8725000000000002E-2</v>
       </c>
       <c r="N51" s="101" t="b">
         <v>1</v>
@@ -7744,11 +7742,11 @@
       </c>
       <c r="Q51" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K51,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R51" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K51,Trigger),"--")</f>
-        <v>47835</v>
+        <v>47840</v>
       </c>
       <c r="T51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7804,7 +7802,7 @@
       <c r="G52" s="129"/>
       <c r="H52" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C52,B52,F52,$E52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012d#0000</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="J52" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7812,7 +7810,7 @@
       </c>
       <c r="K52" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00130#0000</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="L52" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K52,Trigger),"--")</f>
@@ -7820,7 +7818,7 @@
       </c>
       <c r="M52" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K52,Trigger),"--")</f>
-        <v>1.9574999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="N52" s="101" t="b">
         <v>1</v>
@@ -7833,11 +7831,11 @@
       </c>
       <c r="Q52" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K52,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R52" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K52,Trigger),"--")</f>
-        <v>49661</v>
+        <v>49664</v>
       </c>
       <c r="T52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7893,7 +7891,7 @@
       <c r="G53" s="129"/>
       <c r="H53" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C53,B53,F53,$E53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00134#0000</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="J53" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7901,7 +7899,7 @@
       </c>
       <c r="K53" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00131#0000</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="L53" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K53,Trigger),"--")</f>
@@ -7909,7 +7907,7 @@
       </c>
       <c r="M53" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K53,Trigger),"--")</f>
-        <v>2.0899999999999998E-2</v>
+        <v>2.3075000000000002E-2</v>
       </c>
       <c r="N53" s="101" t="b">
         <v>1</v>
@@ -7922,11 +7920,11 @@
       </c>
       <c r="Q53" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K53,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R53" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K53,Trigger),"--")</f>
-        <v>51488</v>
+        <v>51491</v>
       </c>
       <c r="T53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7982,7 +7980,7 @@
       <c r="G54" s="129"/>
       <c r="H54" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C54,B54,F54,$E54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00130#0000</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="J54" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8071,7 +8069,7 @@
       <c r="G55" s="129"/>
       <c r="H55" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C55,B55,F55,$E55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00131#0000</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="J55" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8079,7 +8077,7 @@
       </c>
       <c r="K55" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00137#0000</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="L55" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(K55,Trigger),"--")</f>
@@ -8087,7 +8085,7 @@
       </c>
       <c r="M55" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($K55,Trigger),"--")</f>
-        <v>2.1299999999999999E-2</v>
+        <v>2.3450000000000002E-2</v>
       </c>
       <c r="N55" s="101" t="b">
         <v>1</v>
@@ -8100,11 +8098,11 @@
       </c>
       <c r="Q55" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(K55,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R55" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(K55,Trigger),"--")</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="T55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8246,7 +8244,7 @@
       <c r="G57" s="129"/>
       <c r="H57" s="67" t="str">
         <f>_xll.qlOISRateHelper(,C57,B57,F57,$E57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00137#0000</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="J57" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8720,9 +8718,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80" t="e">
+      <c r="AC2" s="80">
         <f t="array" ref="AC2:AC51">_xll.qlPiecewiseYieldCurveData(YieldCurve_3M,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -8753,7 +8751,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00133#0000</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H9" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -8797,34 +8795,34 @@
       </c>
       <c r="V3" s="4" t="str">
         <f t="shared" ref="V3:V34" si="1">IFERROR(INDEX($L$3:$L$51,MATCH(X3,$N$3:$N$51,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="W3" s="4" t="e">
+        <v>Dp</v>
+      </c>
+      <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W51">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>#NUM!</v>
+        <v>obj_00156</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y3" s="73" t="str">
+        <v>SEK1MD_SYNTH3M_Quote</v>
+      </c>
+      <c r="Y3" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v/>
+        <v>-3.836E-3</v>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
         <v/>
       </c>
-      <c r="AA3" s="5" t="str">
+      <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB3" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC3" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42390</v>
+      </c>
+      <c r="AC3" s="81">
+        <v>1.000330431371047</v>
       </c>
       <c r="AD3" s="190"/>
       <c r="AF3" s="111" t="s">
@@ -8896,33 +8894,33 @@
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W4" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Dp</v>
+      </c>
+      <c r="W4" s="4" t="str">
+        <v>obj_00154</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y4" s="73" t="str">
+        <v>SEK2MD_SYNTH3M_Quote</v>
+      </c>
+      <c r="Y4" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v/>
+        <v>-3.7929999999999999E-3</v>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
         <v/>
       </c>
-      <c r="AA4" s="5" t="str">
+      <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB4" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC4" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42422</v>
+      </c>
+      <c r="AC4" s="81">
+        <v>1.0006642158900123</v>
       </c>
       <c r="AD4" s="190"/>
       <c r="AF4" s="111" t="s">
@@ -8995,33 +8993,33 @@
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W5" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Dp</v>
+      </c>
+      <c r="W5" s="4" t="str">
+        <v>obj_00158</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y5" s="73" t="str">
+        <v>SEK3MD_SYNTH3M_Quote</v>
+      </c>
+      <c r="Y5" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v/>
+        <v>-3.7699999999999999E-3</v>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
         <v/>
       </c>
-      <c r="AA5" s="5" t="str">
+      <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB5" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC5" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42450</v>
+      </c>
+      <c r="AC5" s="81">
+        <v>1.0009538812443743</v>
       </c>
       <c r="AD5" s="190"/>
       <c r="AE5" s="84"/>
@@ -9095,33 +9093,33 @@
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W6" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <v>obj_00162</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y6" s="73" t="str">
+        <v>FUTSEK3F1_Quote</v>
+      </c>
+      <c r="Y6" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="108" t="str">
+        <v>-3.6499999999999311E-3</v>
+      </c>
+      <c r="Z6" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
-        <v/>
-      </c>
-      <c r="AA6" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB6" s="5" t="str">
+        <v>42445</v>
+      </c>
+      <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC6" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42537</v>
+      </c>
+      <c r="AC6" s="81">
+        <v>1.0018368212189401</v>
       </c>
       <c r="AD6" s="190"/>
       <c r="AF6" s="111" t="s">
@@ -9156,7 +9154,7 @@
       <c r="I7" s="129"/>
       <c r="J7" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00157#0000</v>
+        <v>obj_00156#0001</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="10" t="str">
@@ -9165,15 +9163,15 @@
       </c>
       <c r="M7" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00157#0000</v>
+        <v>obj_00156#0001</v>
       </c>
       <c r="N7" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O7" s="102" t="str">
+      <c r="O7" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>--</v>
+        <v>-3.836E-3</v>
       </c>
       <c r="P7" s="101" t="b">
         <v>1</v>
@@ -9186,41 +9184,41 @@
       </c>
       <c r="S7" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T7" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42387</v>
+        <v>42390</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W7" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W7" s="4" t="str">
+        <v>obj_00161</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y7" s="73" t="str">
+        <v>FUTSEK3F2_Quote</v>
+      </c>
+      <c r="Y7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="108" t="str">
+        <v>-3.5499999999999421E-3</v>
+      </c>
+      <c r="Z7" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
-        <v/>
-      </c>
-      <c r="AA7" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB7" s="5" t="str">
+        <v>42536</v>
+      </c>
+      <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC7" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42628</v>
+      </c>
+      <c r="AC7" s="81">
+        <v>1.0027364665040628</v>
       </c>
       <c r="AD7" s="190"/>
     </row>
@@ -9249,7 +9247,7 @@
       <c r="I8" s="129"/>
       <c r="J8" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00154#0000</v>
+        <v>obj_00154#0001</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="10" t="str">
@@ -9258,15 +9256,15 @@
       </c>
       <c r="M8" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00154#0000</v>
+        <v>obj_00154#0001</v>
       </c>
       <c r="N8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
         <v>SEK2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O8" s="102" t="str">
+      <c r="O8" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>--</v>
+        <v>-3.7929999999999999E-3</v>
       </c>
       <c r="P8" s="101" t="b">
         <v>1</v>
@@ -9279,41 +9277,41 @@
       </c>
       <c r="S8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42422</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W8" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W8" s="4" t="str">
+        <v>obj_00163</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y8" s="73" t="str">
+        <v>FUTSEK3F3_Quote</v>
+      </c>
+      <c r="Y8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z8" s="108" t="str">
+        <v>-3.1499999999999861E-3</v>
+      </c>
+      <c r="Z8" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
-        <v/>
-      </c>
-      <c r="AA8" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB8" s="5" t="str">
+        <v>42634</v>
+      </c>
+      <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC8" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42725</v>
+      </c>
+      <c r="AC8" s="81">
+        <v>1.003592812809083</v>
       </c>
       <c r="AD8" s="190"/>
     </row>
@@ -9342,7 +9340,7 @@
       <c r="I9" s="130"/>
       <c r="J9" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00158#0000</v>
+        <v>obj_00158#0001</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="11" t="str">
@@ -9351,15 +9349,15 @@
       </c>
       <c r="M9" s="99" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00158#0000</v>
+        <v>obj_00158#0001</v>
       </c>
       <c r="N9" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
         <v>SEK3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="O9" s="105" t="str">
+      <c r="O9" s="105">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>--</v>
+        <v>-3.7699999999999999E-3</v>
       </c>
       <c r="P9" s="104" t="b">
         <v>1</v>
@@ -9372,41 +9370,41 @@
       </c>
       <c r="S9" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T9" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W9" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <v>obj_00164</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y9" s="73" t="str">
+        <v>FUTSEK3F4_Quote</v>
+      </c>
+      <c r="Y9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="108" t="str">
+        <v>-2.2999999999999687E-3</v>
+      </c>
+      <c r="Z9" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
-        <v/>
-      </c>
-      <c r="AA9" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="5" t="str">
+        <v>42725</v>
+      </c>
+      <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC9" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42815</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>1.0041702106802242</v>
       </c>
       <c r="AD9" s="190"/>
       <c r="AG9" s="49" t="s">
@@ -9428,17 +9426,17 @@
         <f t="shared" ref="L10:L24" si="5">A12</f>
         <v>IMMFRA</v>
       </c>
-      <c r="M10" s="135" t="e">
+      <c r="M10" s="135" t="str">
         <f t="shared" ref="M10:M24" si="6">IF(ISBLANK(J12),"--",J12)</f>
-        <v>#NUM!</v>
+        <v>obj_00162#0002</v>
       </c>
       <c r="N10" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O10" s="152" t="str">
+        <v>FUTSEK3F1_Quote</v>
+      </c>
+      <c r="O10" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>--</v>
+        <v>100.36499999999999</v>
       </c>
       <c r="P10" s="136" t="b">
         <v>1</v>
@@ -9449,43 +9447,43 @@
       <c r="R10" s="135">
         <v>3</v>
       </c>
-      <c r="S10" s="138" t="str">
+      <c r="S10" s="138">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T10" s="138" t="str">
+        <v>42445</v>
+      </c>
+      <c r="T10" s="138">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>--</v>
+        <v>42537</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W10" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <v>obj_00165</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y10" s="73" t="str">
+        <v>FUTSEK3F5_Quote</v>
+      </c>
+      <c r="Y10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="108" t="str">
+        <v>-1.2000000000000899E-3</v>
+      </c>
+      <c r="Z10" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
-        <v/>
-      </c>
-      <c r="AA10" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB10" s="5" t="str">
+        <v>42809</v>
+      </c>
+      <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC10" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42901</v>
+      </c>
+      <c r="AC10" s="81">
+        <v>1.0044490341318932</v>
       </c>
       <c r="AD10" s="190"/>
       <c r="AE10" s="77" t="s">
@@ -9543,17 +9541,17 @@
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M11" s="98" t="e">
+      <c r="M11" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00161#0002</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O11" s="153" t="str">
+        <v>FUTSEK3F2_Quote</v>
+      </c>
+      <c r="O11" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>--</v>
+        <v>100.355</v>
       </c>
       <c r="P11" s="101" t="b">
         <v>1</v>
@@ -9564,43 +9562,43 @@
       <c r="R11" s="98">
         <v>3</v>
       </c>
-      <c r="S11" s="103" t="str">
+      <c r="S11" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T11" s="103" t="str">
+        <v>42536</v>
+      </c>
+      <c r="T11" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>--</v>
+        <v>42628</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W11" s="4" t="e">
-        <v>#NUM!</v>
+        <v>IMMFRA</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <v>obj_00166</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y11" s="73" t="str">
+        <v>FUTSEK3F6_Quote</v>
+      </c>
+      <c r="Y11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="108" t="str">
+        <v>4.9999999999994493E-5</v>
+      </c>
+      <c r="Z11" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
-        <v/>
-      </c>
-      <c r="AA11" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB11" s="5" t="str">
+        <v>42907</v>
+      </c>
+      <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC11" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>42999</v>
+      </c>
+      <c r="AC11" s="81">
+        <v>1.0044481625202826</v>
       </c>
       <c r="AD11" s="190"/>
       <c r="AE11" s="161">
@@ -9642,8 +9640,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="59" t="str">
-        <f>_xll.qlIMMNextCode(Evaluationdate-1,B12,Trigger)</f>
-        <v>Z5</v>
+        <f>_xll.qlIMMNextCode(Evaluationdate+2,B12,Trigger)</f>
+        <v>H6</v>
       </c>
       <c r="D12" s="58">
         <v>1</v>
@@ -9661,9 +9659,9 @@
       <c r="I12" s="131">
         <v>0</v>
       </c>
-      <c r="J12" s="61" t="e">
+      <c r="J12" s="61" t="str">
         <f>_xll.qlFuturesRateHelper(,H12,$H$10,C12,G12,I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00162#0002</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>37</v>
@@ -9672,17 +9670,17 @@
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M12" s="98" t="e">
+      <c r="M12" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00163#0002</v>
       </c>
       <c r="N12" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O12" s="153" t="str">
+        <v>FUTSEK3F3_Quote</v>
+      </c>
+      <c r="O12" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>--</v>
+        <v>100.315</v>
       </c>
       <c r="P12" s="101" t="b">
         <v>1</v>
@@ -9693,43 +9691,43 @@
       <c r="R12" s="98">
         <v>3</v>
       </c>
-      <c r="S12" s="103" t="str">
+      <c r="S12" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T12" s="103" t="str">
+        <v>42634</v>
+      </c>
+      <c r="T12" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>--</v>
+        <v>42725</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W12" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <v>obj_00116</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y12" s="73" t="str">
+        <v>SEKAB3S2Y_Quote</v>
+      </c>
+      <c r="Y12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z12" s="108" t="str">
+        <v>-1.9250000000000001E-3</v>
+      </c>
+      <c r="Z12" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
-        <v/>
-      </c>
-      <c r="AA12" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB12" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC12" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>43090</v>
+      </c>
+      <c r="AC12" s="81">
+        <v>1.0038670257712619</v>
       </c>
       <c r="AD12" s="190"/>
       <c r="AE12" s="164">
@@ -9772,7 +9770,7 @@
       </c>
       <c r="C13" s="65" t="str">
         <f>_xll.qlIMMNextCode(C12,B13,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D13" s="64">
         <v>2</v>
@@ -9790,26 +9788,26 @@
       <c r="I13" s="132">
         <v>0</v>
       </c>
-      <c r="J13" s="67" t="e">
+      <c r="J13" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H13,$H$10,C13,G13,I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00161#0002</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M13" s="98" t="e">
+      <c r="M13" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00164#0002</v>
       </c>
       <c r="N13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O13" s="153" t="str">
+        <v>FUTSEK3F4_Quote</v>
+      </c>
+      <c r="O13" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>--</v>
+        <v>100.23</v>
       </c>
       <c r="P13" s="101" t="b">
         <v>1</v>
@@ -9820,43 +9818,43 @@
       <c r="R13" s="98">
         <v>21</v>
       </c>
-      <c r="S13" s="103" t="str">
+      <c r="S13" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T13" s="103" t="str">
+        <v>42725</v>
+      </c>
+      <c r="T13" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>--</v>
+        <v>42815</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W13" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <v>obj_0011a</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y13" s="73" t="str">
+        <v>SEKAB3S3Y_Quote</v>
+      </c>
+      <c r="Y13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="108" t="str">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="Z13" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
-        <v/>
-      </c>
-      <c r="AA13" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB13" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC13" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>43455</v>
+      </c>
+      <c r="AC13" s="81">
+        <v>0.99865723730838662</v>
       </c>
       <c r="AD13" s="190"/>
       <c r="AE13" s="164">
@@ -9899,7 +9897,7 @@
       </c>
       <c r="C14" s="65" t="str">
         <f>_xll.qlIMMNextCode(C13,B14,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D14" s="64">
         <v>3</v>
@@ -9917,26 +9915,26 @@
       <c r="I14" s="132">
         <v>0</v>
       </c>
-      <c r="J14" s="67" t="e">
+      <c r="J14" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H14,$H$10,C14,G14,I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00163#0002</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M14" s="98" t="e">
+      <c r="M14" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00165#0002</v>
       </c>
       <c r="N14" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O14" s="153" t="str">
+        <v>FUTSEK3F5_Quote</v>
+      </c>
+      <c r="O14" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>--</v>
+        <v>100.12</v>
       </c>
       <c r="P14" s="101" t="b">
         <v>1</v>
@@ -9947,43 +9945,43 @@
       <c r="R14" s="98">
         <v>21</v>
       </c>
-      <c r="S14" s="103" t="str">
+      <c r="S14" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T14" s="103" t="str">
+        <v>42809</v>
+      </c>
+      <c r="T14" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>--</v>
+        <v>42901</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W14" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <v>obj_00117</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y14" s="73" t="str">
+        <v>SEKAB3S4Y_Quote</v>
+      </c>
+      <c r="Y14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="108" t="str">
+        <v>3.2499999999999994E-3</v>
+      </c>
+      <c r="Z14" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
-        <v/>
-      </c>
-      <c r="AA14" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB14" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC14" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>43822</v>
+      </c>
+      <c r="AC14" s="81">
+        <v>0.98703587965528261</v>
       </c>
       <c r="AD14" s="190"/>
       <c r="AE14" s="164">
@@ -10026,7 +10024,7 @@
       </c>
       <c r="C15" s="65" t="str">
         <f>_xll.qlIMMNextCode(C14,B15,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D15" s="64">
         <v>4</v>
@@ -10044,26 +10042,26 @@
       <c r="I15" s="132">
         <v>0</v>
       </c>
-      <c r="J15" s="67" t="e">
+      <c r="J15" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H15,$H$10,C15,G15,I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00164#0002</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M15" s="98" t="e">
+      <c r="M15" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00166#0002</v>
       </c>
       <c r="N15" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O15" s="153" t="str">
+        <v>FUTSEK3F6_Quote</v>
+      </c>
+      <c r="O15" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.995000000000005</v>
       </c>
       <c r="P15" s="101" t="b">
         <v>1</v>
@@ -10074,43 +10072,43 @@
       <c r="R15" s="98">
         <v>21</v>
       </c>
-      <c r="S15" s="103" t="str">
+      <c r="S15" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T15" s="103" t="str">
+        <v>42907</v>
+      </c>
+      <c r="T15" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>--</v>
+        <v>42999</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W15" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <v>obj_00119</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y15" s="73" t="str">
+        <v>SEKAB3S5Y_Quote</v>
+      </c>
+      <c r="Y15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="108" t="str">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z15" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
-        <v/>
-      </c>
-      <c r="AA15" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC15" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>44186</v>
+      </c>
+      <c r="AC15" s="81">
+        <v>0.97028645906562627</v>
       </c>
       <c r="AD15" s="190"/>
       <c r="AE15" s="164">
@@ -10153,7 +10151,7 @@
       </c>
       <c r="C16" s="65" t="str">
         <f>_xll.qlIMMNextCode(C15,B16,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D16" s="64">
         <v>5</v>
@@ -10171,26 +10169,26 @@
       <c r="I16" s="132">
         <v>0</v>
       </c>
-      <c r="J16" s="67" t="e">
+      <c r="J16" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H16,$H$10,C16,G16,I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00165#0002</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M16" s="98" t="e">
+      <c r="M16" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00167#0002</v>
       </c>
       <c r="N16" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O16" s="153" t="str">
+        <v>FUTSEK3F7_Quote</v>
+      </c>
+      <c r="O16" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.86</v>
       </c>
       <c r="P16" s="101" t="b">
         <v>1</v>
@@ -10201,43 +10199,43 @@
       <c r="R16" s="98">
         <v>21</v>
       </c>
-      <c r="S16" s="103" t="str">
+      <c r="S16" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T16" s="103" t="str">
+        <v>42998</v>
+      </c>
+      <c r="T16" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>--</v>
+        <v>43089</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W16" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <v>obj_00118</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y16" s="73" t="str">
+        <v>SEKAB3S6Y_Quote</v>
+      </c>
+      <c r="Y16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="108" t="str">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="Z16" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
-        <v/>
-      </c>
-      <c r="AA16" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB16" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC16" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>44551</v>
+      </c>
+      <c r="AC16" s="81">
+        <v>0.95013873938107618</v>
       </c>
       <c r="AD16" s="190"/>
       <c r="AE16" s="164">
@@ -10280,7 +10278,7 @@
       </c>
       <c r="C17" s="65" t="str">
         <f>_xll.qlIMMNextCode(C16,B17,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D17" s="64">
         <v>6</v>
@@ -10298,26 +10296,26 @@
       <c r="I17" s="132">
         <v>0</v>
       </c>
-      <c r="J17" s="67" t="e">
+      <c r="J17" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H17,$H$10,C17,G17,I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00166#0002</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M17" s="98" t="e">
+      <c r="M17" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00168#0002</v>
       </c>
       <c r="N17" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O17" s="153" t="str">
+        <v>FUTSEK3F8_Quote</v>
+      </c>
+      <c r="O17" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.715000000000003</v>
       </c>
       <c r="P17" s="101" t="b">
         <v>1</v>
@@ -10328,43 +10326,43 @@
       <c r="R17" s="98">
         <v>21</v>
       </c>
-      <c r="S17" s="103" t="str">
+      <c r="S17" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T17" s="103" t="str">
+        <v>43089</v>
+      </c>
+      <c r="T17" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>--</v>
+        <v>43179</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W17" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <v>obj_00113</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y17" s="73" t="str">
+        <v>SEKAB3S7Y_Quote</v>
+      </c>
+      <c r="Y17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z17" s="108" t="str">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Z17" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
-        <v/>
-      </c>
-      <c r="AA17" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB17" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC17" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>44916</v>
+      </c>
+      <c r="AC17" s="81">
+        <v>0.92763543087177947</v>
       </c>
       <c r="AD17" s="190"/>
       <c r="AE17" s="164">
@@ -10407,7 +10405,7 @@
       </c>
       <c r="C18" s="65" t="str">
         <f>_xll.qlIMMNextCode(C17,B18,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D18" s="64">
         <v>7</v>
@@ -10425,26 +10423,26 @@
       <c r="I18" s="132">
         <v>0</v>
       </c>
-      <c r="J18" s="67" t="e">
+      <c r="J18" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H18,$H$10,C18,G18,I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00167#0002</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M18" s="98" t="e">
+      <c r="M18" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_00169#0002</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O18" s="153" t="str">
+        <v>FUTSEK3F9_Quote</v>
+      </c>
+      <c r="O18" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.56</v>
       </c>
       <c r="P18" s="101" t="b">
         <v>1</v>
@@ -10455,43 +10453,43 @@
       <c r="R18" s="98">
         <v>21</v>
       </c>
-      <c r="S18" s="103" t="str">
+      <c r="S18" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T18" s="103" t="str">
+        <v>43180</v>
+      </c>
+      <c r="T18" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>--</v>
+        <v>43272</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W18" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <v>obj_0011b</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y18" s="73" t="str">
+        <v>SEKAB3S8Y_Quote</v>
+      </c>
+      <c r="Y18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="108" t="str">
+        <v>1.2450000000000001E-2</v>
+      </c>
+      <c r="Z18" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v/>
-      </c>
-      <c r="AA18" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB18" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC18" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>45281</v>
+      </c>
+      <c r="AC18" s="81">
+        <v>0.90377203812762752</v>
       </c>
       <c r="AD18" s="190"/>
       <c r="AE18" s="164">
@@ -10534,7 +10532,7 @@
       </c>
       <c r="C19" s="65" t="str">
         <f>_xll.qlIMMNextCode(C18,B19,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D19" s="64">
         <v>8</v>
@@ -10552,26 +10550,26 @@
       <c r="I19" s="132">
         <v>0</v>
       </c>
-      <c r="J19" s="67" t="e">
+      <c r="J19" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H19,$H$10,C19,G19,I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00168#0002</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M19" s="98" t="e">
+      <c r="M19" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_0016a#0002</v>
       </c>
       <c r="N19" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O19" s="153" t="str">
+        <v>FUTSEK3F10_Quote</v>
+      </c>
+      <c r="O19" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.405000000000001</v>
       </c>
       <c r="P19" s="101" t="b">
         <v>1</v>
@@ -10582,43 +10580,43 @@
       <c r="R19" s="98">
         <v>21</v>
       </c>
-      <c r="S19" s="103" t="str">
+      <c r="S19" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T19" s="103" t="str">
+        <v>43271</v>
+      </c>
+      <c r="T19" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>--</v>
+        <v>43363</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W19" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <v>obj_00112</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y19" s="73" t="str">
+        <v>SEKAB3S9Y_Quote</v>
+      </c>
+      <c r="Y19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="108" t="str">
+        <v>1.3975E-2</v>
+      </c>
+      <c r="Z19" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v/>
-      </c>
-      <c r="AA19" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB19" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC19" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>45649</v>
+      </c>
+      <c r="AC19" s="81">
+        <v>0.87964499096138493</v>
       </c>
       <c r="AD19" s="190"/>
       <c r="AE19" s="164">
@@ -10661,7 +10659,7 @@
       </c>
       <c r="C20" s="65" t="str">
         <f>_xll.qlIMMNextCode(C19,B20,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D20" s="64">
         <v>9</v>
@@ -10679,26 +10677,26 @@
       <c r="I20" s="132">
         <v>0</v>
       </c>
-      <c r="J20" s="67" t="e">
+      <c r="J20" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H20,$H$10,C20,G20,I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_00169#0002</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M20" s="98" t="e">
+      <c r="M20" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_0016b#0002</v>
       </c>
       <c r="N20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O20" s="153" t="str">
+        <v>FUTSEK3F11_Quote</v>
+      </c>
+      <c r="O20" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.25</v>
       </c>
       <c r="P20" s="101" t="b">
         <v>1</v>
@@ -10709,43 +10707,43 @@
       <c r="R20" s="98">
         <v>21</v>
       </c>
-      <c r="S20" s="103" t="str">
+      <c r="S20" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T20" s="103" t="str">
+        <v>43362</v>
+      </c>
+      <c r="T20" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>--</v>
+        <v>43453</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W20" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <v>obj_00114</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y20" s="73" t="str">
+        <v>SEKAB3S10Y_Quote</v>
+      </c>
+      <c r="Y20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="108" t="str">
+        <v>1.5325000000000002E-2</v>
+      </c>
+      <c r="Z20" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v/>
-      </c>
-      <c r="AA20" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB20" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC20" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>46013</v>
+      </c>
+      <c r="AC20" s="81">
+        <v>0.85497433835024284</v>
       </c>
       <c r="AD20" s="190"/>
       <c r="AE20" s="164">
@@ -10788,7 +10786,7 @@
       </c>
       <c r="C21" s="65" t="str">
         <f>_xll.qlIMMNextCode(C20,B21,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D21" s="64">
         <v>10</v>
@@ -10806,26 +10804,26 @@
       <c r="I21" s="132">
         <v>0</v>
       </c>
-      <c r="J21" s="67" t="e">
+      <c r="J21" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H21,$H$10,C21,G21,I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_0016a#0002</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="10" t="str">
         <f t="shared" si="5"/>
         <v>IMMFRA</v>
       </c>
-      <c r="M21" s="98" t="e">
+      <c r="M21" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>obj_0016c#0002</v>
       </c>
       <c r="N21" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O21" s="153" t="str">
+        <v>FUTSEK3F12_Quote</v>
+      </c>
+      <c r="O21" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>--</v>
+        <v>99.094999999999999</v>
       </c>
       <c r="P21" s="101" t="b">
         <v>1</v>
@@ -10836,43 +10834,43 @@
       <c r="R21" s="98">
         <v>21</v>
       </c>
-      <c r="S21" s="103" t="str">
+      <c r="S21" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T21" s="103" t="str">
+        <v>43453</v>
+      </c>
+      <c r="T21" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>--</v>
+        <v>43543</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W21" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <v>obj_00111</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y21" s="73" t="str">
+        <v>SEKAB3S12Y_Quote</v>
+      </c>
+      <c r="Y21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="108" t="str">
+        <v>1.745E-2</v>
+      </c>
+      <c r="Z21" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v/>
-      </c>
-      <c r="AA21" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB21" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC21" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>46742</v>
+      </c>
+      <c r="AC21" s="81">
+        <v>0.80638678844850664</v>
       </c>
       <c r="AD21" s="190"/>
       <c r="AE21" s="164">
@@ -10915,7 +10913,7 @@
       </c>
       <c r="C22" s="65" t="str">
         <f>_xll.qlIMMNextCode(C21,B22,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D22" s="64">
         <v>11</v>
@@ -10933,9 +10931,9 @@
       <c r="I22" s="132">
         <v>0</v>
       </c>
-      <c r="J22" s="67" t="e">
+      <c r="J22" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H22,$H$10,C22,G22,I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_0016b#0002</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="10" t="str">
@@ -10973,33 +10971,33 @@
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W22" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <v>obj_00110</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y22" s="73" t="str">
+        <v>SEKAB3S15Y_Quote</v>
+      </c>
+      <c r="Y22" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="108" t="str">
+        <v>1.9825000000000002E-2</v>
+      </c>
+      <c r="Z22" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v/>
-      </c>
-      <c r="AA22" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC22" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>47840</v>
+      </c>
+      <c r="AC22" s="81">
+        <v>0.73491230835591348</v>
       </c>
       <c r="AD22" s="190"/>
       <c r="AE22" s="164">
@@ -11042,7 +11040,7 @@
       </c>
       <c r="C23" s="65" t="str">
         <f>_xll.qlIMMNextCode(C22,B23,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D23" s="64">
         <v>12</v>
@@ -11060,9 +11058,9 @@
       <c r="I23" s="132">
         <v>0</v>
       </c>
-      <c r="J23" s="67" t="e">
+      <c r="J23" s="67" t="str">
         <f>_xll.qlFuturesRateHelper(,H23,$H$10,C23,G23,I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>obj_0016c#0002</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="10" t="str">
@@ -11100,33 +11098,33 @@
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W23" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W23" s="4" t="str">
+        <v>obj_0010e</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y23" s="73" t="str">
+        <v>SEKAB3S20Y_Quote</v>
+      </c>
+      <c r="Y23" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="108" t="str">
+        <v>2.2574999999999998E-2</v>
+      </c>
+      <c r="Z23" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v/>
-      </c>
-      <c r="AA23" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC23" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>49664</v>
+      </c>
+      <c r="AC23" s="81">
+        <v>0.62307827712304653</v>
       </c>
       <c r="AD23" s="190"/>
       <c r="AE23" s="167">
@@ -11169,7 +11167,7 @@
       </c>
       <c r="C24" s="65" t="str">
         <f>_xll.qlIMMNextCode(C23,B24,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D24" s="64">
         <v>13</v>
@@ -11224,33 +11222,33 @@
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W24" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <v>obj_0010d</v>
       </c>
       <c r="X24" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y24" s="73" t="str">
+        <v>SEKAB3S25Y_Quote</v>
+      </c>
+      <c r="Y24" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="108" t="str">
+        <v>2.3975E-2</v>
+      </c>
+      <c r="Z24" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
-        <v/>
-      </c>
-      <c r="AA24" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB24" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB24" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC24" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>51491</v>
+      </c>
+      <c r="AC24" s="81">
+        <v>0.53187621457277334</v>
       </c>
       <c r="AD24" s="190"/>
     </row>
@@ -11263,7 +11261,7 @@
       </c>
       <c r="C25" s="65" t="str">
         <f>_xll.qlIMMNextCode(C24,B25,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D25" s="64">
         <v>14</v>
@@ -11318,33 +11316,33 @@
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="4" t="e">
-        <v>#NUM!</v>
+        <v>Sw</v>
+      </c>
+      <c r="W25" s="4" t="str">
+        <v>obj_00115</v>
       </c>
       <c r="X25" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y25" s="73" t="str">
+        <v>SEKAB3S30Y_Quote</v>
+      </c>
+      <c r="Y25" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="108" t="str">
+        <v>2.4275000000000001E-2</v>
+      </c>
+      <c r="Z25" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
-        <v/>
-      </c>
-      <c r="AA25" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB25" s="5" t="str">
+        <v>42359</v>
+      </c>
+      <c r="AB25" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC25" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>53317</v>
+      </c>
+      <c r="AC25" s="81">
+        <v>0.466416701833342</v>
       </c>
       <c r="AD25" s="190"/>
     </row>
@@ -11357,7 +11355,7 @@
       </c>
       <c r="C26" s="9" t="str">
         <f>_xll.qlIMMNextCode(C25,B26,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D26" s="7">
         <v>15</v>
@@ -11415,7 +11413,7 @@
         <v/>
       </c>
       <c r="W26" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X26" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -11438,7 +11436,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD26" s="190"/>
     </row>
@@ -11488,7 +11486,7 @@
         <v/>
       </c>
       <c r="W27" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X27" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -11511,7 +11509,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD27" s="190"/>
     </row>
@@ -11585,7 +11583,7 @@
         <v/>
       </c>
       <c r="W28" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X28" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -11608,7 +11606,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="190"/>
     </row>
@@ -11682,7 +11680,7 @@
         <v/>
       </c>
       <c r="W29" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X29" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
@@ -11705,7 +11703,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD29" s="190"/>
     </row>
@@ -11747,7 +11745,7 @@
       </c>
       <c r="M30" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010f#0000</v>
+        <v>obj_00116#0001</v>
       </c>
       <c r="N30" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
@@ -11755,7 +11753,7 @@
       </c>
       <c r="O30" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>-3.1000000000000003E-3</v>
+        <v>-1.9250000000000001E-3</v>
       </c>
       <c r="P30" s="143" t="b">
         <v>1</v>
@@ -11768,18 +11766,18 @@
       </c>
       <c r="S30" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T30" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W30" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X30" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
@@ -11802,7 +11800,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11875,7 +11873,7 @@
         <v/>
       </c>
       <c r="W31" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X31" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
@@ -11898,7 +11896,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11971,7 +11969,7 @@
         <v/>
       </c>
       <c r="W32" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X32" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
@@ -11994,7 +11992,7 @@
         <v/>
       </c>
       <c r="AC32" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12067,7 +12065,7 @@
         <v/>
       </c>
       <c r="W33" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X33" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
@@ -12090,7 +12088,7 @@
         <v/>
       </c>
       <c r="AC33" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12125,7 +12123,7 @@
       </c>
       <c r="J34" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,2,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010f#0000</v>
+        <v>obj_00116#0001</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="74" t="str">
@@ -12134,7 +12132,7 @@
       </c>
       <c r="M34" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00111#0000</v>
+        <v>obj_0011a#0001</v>
       </c>
       <c r="N34" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
@@ -12142,7 +12140,7 @@
       </c>
       <c r="O34" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M34,Trigger),"--")</f>
-        <v>-1.075E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="P34" s="143" t="b">
         <v>1</v>
@@ -12155,18 +12153,18 @@
       </c>
       <c r="S34" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M34,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T34" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M34,Trigger),"--")</f>
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="V34" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W34" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X34" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
@@ -12189,7 +12187,7 @@
         <v/>
       </c>
       <c r="AC34" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12230,7 +12228,7 @@
       </c>
       <c r="M35" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00117#0000</v>
+        <v>obj_00117#0001</v>
       </c>
       <c r="N35" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
@@ -12238,7 +12236,7 @@
       </c>
       <c r="O35" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>1.25E-3</v>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="P35" s="143" t="b">
         <v>1</v>
@@ -12251,18 +12249,18 @@
       </c>
       <c r="S35" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T35" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" ref="V35:V51" si="16">IFERROR(INDEX($L$3:$L$51,MATCH(X35,$N$3:$N$51,0),1),"")</f>
         <v/>
       </c>
       <c r="W35" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X35" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
@@ -12285,7 +12283,7 @@
         <v/>
       </c>
       <c r="AC35" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12326,7 +12324,7 @@
       </c>
       <c r="M36" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00118#0000</v>
+        <v>obj_00119#0001</v>
       </c>
       <c r="N36" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
@@ -12334,7 +12332,7 @@
       </c>
       <c r="O36" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>3.7750000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P36" s="143" t="b">
         <v>1</v>
@@ -12347,18 +12345,18 @@
       </c>
       <c r="S36" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M36,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T36" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M36,Trigger),"--")</f>
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="V36" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W36" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X36" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
@@ -12381,7 +12379,7 @@
         <v/>
       </c>
       <c r="AC36" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12422,7 +12420,7 @@
       </c>
       <c r="M37" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00110#0000</v>
+        <v>obj_00118#0001</v>
       </c>
       <c r="N37" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M37,Trigger),"--")</f>
@@ -12430,7 +12428,7 @@
       </c>
       <c r="O37" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M37,Trigger),"--")</f>
-        <v>6.1500000000000001E-3</v>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="P37" s="143" t="b">
         <v>1</v>
@@ -12443,18 +12441,18 @@
       </c>
       <c r="S37" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M37,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T37" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M37,Trigger),"--")</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="V37" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W37" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X37" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
@@ -12477,7 +12475,7 @@
         <v/>
       </c>
       <c r="AC37" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12512,7 +12510,7 @@
       </c>
       <c r="J38" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H38,2,B38,Calendar,D38,E38,F38,G38,I38,C38,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00111#0000</v>
+        <v>obj_0011a#0001</v>
       </c>
       <c r="K38" s="51"/>
       <c r="L38" s="74" t="str">
@@ -12521,7 +12519,7 @@
       </c>
       <c r="M38" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00115#0000</v>
+        <v>obj_00113#0001</v>
       </c>
       <c r="N38" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
@@ -12529,7 +12527,7 @@
       </c>
       <c r="O38" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M38,Trigger),"--")</f>
-        <v>8.2500000000000004E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="P38" s="143" t="b">
         <v>1</v>
@@ -12542,18 +12540,18 @@
       </c>
       <c r="S38" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M38,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T38" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M38,Trigger),"--")</f>
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="V38" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W38" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X38" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
@@ -12576,7 +12574,7 @@
         <v/>
       </c>
       <c r="AC38" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12611,7 +12609,7 @@
       </c>
       <c r="J39" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H39,2,B39,Calendar,D39,E39,F39,G39,I39,C39,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00117#0000</v>
+        <v>obj_00117#0001</v>
       </c>
       <c r="K39" s="51"/>
       <c r="L39" s="74" t="str">
@@ -12620,7 +12618,7 @@
       </c>
       <c r="M39" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00119#0000</v>
+        <v>obj_0011b#0001</v>
       </c>
       <c r="N39" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -12628,7 +12626,7 @@
       </c>
       <c r="O39" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>1.0050000000000002E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="P39" s="143" t="b">
         <v>1</v>
@@ -12641,18 +12639,18 @@
       </c>
       <c r="S39" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T39" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="V39" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W39" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X39" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
@@ -12675,7 +12673,7 @@
         <v/>
       </c>
       <c r="AC39" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12710,7 +12708,7 @@
       </c>
       <c r="J40" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H40,2,B40,Calendar,D40,E40,F40,G40,I40,C40,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00118#0000</v>
+        <v>obj_00119#0001</v>
       </c>
       <c r="K40" s="51"/>
       <c r="L40" s="74" t="str">
@@ -12719,7 +12717,7 @@
       </c>
       <c r="M40" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010d#0000</v>
+        <v>obj_00112#0001</v>
       </c>
       <c r="N40" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -12727,7 +12725,7 @@
       </c>
       <c r="O40" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>1.1650000000000001E-2</v>
+        <v>1.3975E-2</v>
       </c>
       <c r="P40" s="143" t="b">
         <v>1</v>
@@ -12740,18 +12738,18 @@
       </c>
       <c r="S40" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T40" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="V40" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W40" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X40" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
@@ -12774,7 +12772,7 @@
         <v/>
       </c>
       <c r="AC40" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12809,7 +12807,7 @@
       </c>
       <c r="J41" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H41,2,B41,Calendar,D41,E41,F41,G41,I41,C41,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00110#0000</v>
+        <v>obj_00118#0001</v>
       </c>
       <c r="L41" s="74" t="str">
         <f t="shared" si="12"/>
@@ -12817,7 +12815,7 @@
       </c>
       <c r="M41" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0010e#0000</v>
+        <v>obj_00114#0001</v>
       </c>
       <c r="N41" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -12825,7 +12823,7 @@
       </c>
       <c r="O41" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>1.3050000000000001E-2</v>
+        <v>1.5325000000000002E-2</v>
       </c>
       <c r="P41" s="143" t="b">
         <v>1</v>
@@ -12838,18 +12836,18 @@
       </c>
       <c r="S41" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T41" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>46009</v>
+        <v>46013</v>
       </c>
       <c r="V41" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W41" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X41" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
@@ -12872,7 +12870,7 @@
         <v/>
       </c>
       <c r="AC41" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12907,7 +12905,7 @@
       </c>
       <c r="J42" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H42,2,B42,Calendar,D42,E42,F42,G42,I42,C42,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00115#0000</v>
+        <v>obj_00113#0001</v>
       </c>
       <c r="L42" s="74" t="str">
         <f t="shared" si="12"/>
@@ -12915,7 +12913,7 @@
       </c>
       <c r="M42" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00114#0000</v>
+        <v>obj_00111#0001</v>
       </c>
       <c r="N42" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -12923,7 +12921,7 @@
       </c>
       <c r="O42" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>1.5375000000000002E-2</v>
+        <v>1.745E-2</v>
       </c>
       <c r="P42" s="143" t="b">
         <v>1</v>
@@ -12936,18 +12934,18 @@
       </c>
       <c r="S42" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T42" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>46741</v>
+        <v>46742</v>
       </c>
       <c r="V42" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W42" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X42" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
@@ -12970,7 +12968,7 @@
         <v/>
       </c>
       <c r="AC42" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13005,7 +13003,7 @@
       </c>
       <c r="J43" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H43,2,B43,Calendar,D43,E43,F43,G43,I43,C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00119#0000</v>
+        <v>obj_0011b#0001</v>
       </c>
       <c r="L43" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13013,7 +13011,7 @@
       </c>
       <c r="M43" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0011b#0000</v>
+        <v>obj_00110#0001</v>
       </c>
       <c r="N43" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
@@ -13021,7 +13019,7 @@
       </c>
       <c r="O43" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.9825000000000002E-2</v>
       </c>
       <c r="P43" s="143" t="b">
         <v>1</v>
@@ -13034,18 +13032,18 @@
       </c>
       <c r="S43" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M43,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T43" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M43,Trigger),"--")</f>
-        <v>47835</v>
+        <v>47840</v>
       </c>
       <c r="V43" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W43" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X43" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
@@ -13068,7 +13066,7 @@
         <v/>
       </c>
       <c r="AC43" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13103,7 +13101,7 @@
       </c>
       <c r="J44" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H44,2,B44,Calendar,D44,E44,F44,G44,I44,C44,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010d#0000</v>
+        <v>obj_00112#0001</v>
       </c>
       <c r="L44" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13111,7 +13109,7 @@
       </c>
       <c r="M44" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_0011a#0000</v>
+        <v>obj_0010e#0001</v>
       </c>
       <c r="N44" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
@@ -13119,7 +13117,7 @@
       </c>
       <c r="O44" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M44,Trigger),"--")</f>
-        <v>2.07E-2</v>
+        <v>2.2574999999999998E-2</v>
       </c>
       <c r="P44" s="143" t="b">
         <v>1</v>
@@ -13132,18 +13130,18 @@
       </c>
       <c r="S44" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M44,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T44" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M44,Trigger),"--")</f>
-        <v>49661</v>
+        <v>49664</v>
       </c>
       <c r="V44" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W44" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X44" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
@@ -13166,7 +13164,7 @@
         <v/>
       </c>
       <c r="AC44" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13201,7 +13199,7 @@
       </c>
       <c r="J45" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H45,2,B45,Calendar,D45,E45,F45,G45,I45,C45,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010e#0000</v>
+        <v>obj_00114#0001</v>
       </c>
       <c r="L45" s="74" t="str">
         <f t="shared" si="12"/>
@@ -13209,7 +13207,7 @@
       </c>
       <c r="M45" s="143" t="str">
         <f t="shared" si="13"/>
-        <v>obj_00112#0000</v>
+        <v>obj_0010d#0001</v>
       </c>
       <c r="N45" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
@@ -13217,7 +13215,7 @@
       </c>
       <c r="O45" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M45,Trigger),"--")</f>
-        <v>2.1949999999999997E-2</v>
+        <v>2.3975E-2</v>
       </c>
       <c r="P45" s="143" t="b">
         <v>1</v>
@@ -13230,18 +13228,18 @@
       </c>
       <c r="S45" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M45,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T45" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M45,Trigger),"--")</f>
-        <v>51488</v>
+        <v>51491</v>
       </c>
       <c r="V45" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W45" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X45" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
@@ -13264,7 +13262,7 @@
         <v/>
       </c>
       <c r="AC45" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13299,7 +13297,7 @@
       </c>
       <c r="J46" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H46,2,B46,Calendar,D46,E46,F46,G46,I46,C46,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00114#0000</v>
+        <v>obj_00111#0001</v>
       </c>
       <c r="L46" s="74" t="str">
         <f t="shared" ref="L46:L51" si="17">A50</f>
@@ -13339,7 +13337,7 @@
         <v/>
       </c>
       <c r="W46" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X46" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
@@ -13362,7 +13360,7 @@
         <v/>
       </c>
       <c r="AC46" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13397,7 +13395,7 @@
       </c>
       <c r="J47" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H47,2,B47,Calendar,D47,E47,F47,G47,I47,C47,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011b#0000</v>
+        <v>obj_00110#0001</v>
       </c>
       <c r="L47" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13405,7 +13403,7 @@
       </c>
       <c r="M47" s="143" t="str">
         <f t="shared" si="18"/>
-        <v>obj_00116#0000</v>
+        <v>obj_00115#0001</v>
       </c>
       <c r="N47" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
@@ -13413,7 +13411,7 @@
       </c>
       <c r="O47" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>2.2249999999999995E-2</v>
+        <v>2.4275000000000001E-2</v>
       </c>
       <c r="P47" s="143" t="b">
         <v>1</v>
@@ -13426,18 +13424,18 @@
       </c>
       <c r="S47" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M47,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T47" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M47,Trigger),"--")</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="V47" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W47" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X47" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
@@ -13460,7 +13458,7 @@
         <v/>
       </c>
       <c r="AC47" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13495,7 +13493,7 @@
       </c>
       <c r="J48" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H48,2,B48,Calendar,D48,E48,F48,G48,I48,C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011a#0000</v>
+        <v>obj_0010e#0001</v>
       </c>
       <c r="L48" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13535,7 +13533,7 @@
         <v/>
       </c>
       <c r="W48" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X48" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
@@ -13558,7 +13556,7 @@
         <v/>
       </c>
       <c r="AC48" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13593,7 +13591,7 @@
       </c>
       <c r="J49" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H49,2,B49,Calendar,D49,E49,F49,G49,I49,C49,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00112#0000</v>
+        <v>obj_0010d#0001</v>
       </c>
       <c r="L49" s="74" t="str">
         <f t="shared" si="17"/>
@@ -13633,7 +13631,7 @@
         <v/>
       </c>
       <c r="W49" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X49" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
@@ -13656,7 +13654,7 @@
         <v/>
       </c>
       <c r="AC49" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13728,7 +13726,7 @@
         <v/>
       </c>
       <c r="W50" s="4" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X50" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
@@ -13751,7 +13749,7 @@
         <v/>
       </c>
       <c r="AC50" s="81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13786,7 +13784,7 @@
       </c>
       <c r="J51" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H51,2,B51,Calendar,D51,E51,F51,G51,I51,C51,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00116#0000</v>
+        <v>obj_00115#0001</v>
       </c>
       <c r="L51" s="75" t="str">
         <f t="shared" si="17"/>
@@ -13826,7 +13824,7 @@
         <v/>
       </c>
       <c r="W51" s="6" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="X51" s="6" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
@@ -13849,7 +13847,7 @@
         <v/>
       </c>
       <c r="AC51" s="82" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14194,9 +14192,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80" t="e">
+      <c r="AC2" s="80">
         <f t="array" ref="AC2:AC39">_xll.qlPiecewiseYieldCurveData(YieldCurve_6M,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -14227,7 +14225,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00136#0000</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H12" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -14275,15 +14273,15 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W39">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00150</v>
+        <v>obj_0014f</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
         <v>SEK1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y3" s="73" t="str">
+      <c r="Y3" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v/>
+        <v>-1.8270000000000001E-3</v>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -14291,14 +14289,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42387</v>
-      </c>
-      <c r="AC3" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42390</v>
+      </c>
+      <c r="AC3" s="81">
+        <v>1.0001573497550502</v>
       </c>
       <c r="AD3" s="190"/>
       <c r="AF3" s="200" t="s">
@@ -14373,15 +14371,15 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="4" t="str">
-        <v>obj_0013a</v>
+        <v>obj_00143</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
         <v>SEK2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y4" s="73" t="str">
+      <c r="Y4" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v/>
+        <v>-1.928E-3</v>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -14389,14 +14387,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42418</v>
-      </c>
-      <c r="AC4" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42422</v>
+      </c>
+      <c r="AC4" s="81">
+        <v>1.0003375138771822</v>
       </c>
       <c r="AD4" s="190"/>
       <c r="AF4" s="111" t="s">
@@ -14472,15 +14470,15 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_00153</v>
+        <v>obj_00152</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
         <v>SEK3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y5" s="73" t="str">
+      <c r="Y5" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v/>
+        <v>-2.0230000000000001E-3</v>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -14488,14 +14486,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42447</v>
-      </c>
-      <c r="AC5" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42450</v>
+      </c>
+      <c r="AC5" s="81">
+        <v>1.000511631076944</v>
       </c>
       <c r="AD5" s="190"/>
       <c r="AE5" s="84"/>
@@ -14572,15 +14570,15 @@
         <v>Dp</v>
       </c>
       <c r="W6" s="4" t="str">
-        <v>obj_00151</v>
+        <v>obj_0014e</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
         <v>SEK4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y6" s="73" t="str">
+      <c r="Y6" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v/>
+        <v>-2.1220000000000002E-3</v>
       </c>
       <c r="Z6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -14588,14 +14586,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42478</v>
-      </c>
-      <c r="AC6" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42481</v>
+      </c>
+      <c r="AC6" s="81">
+        <v>1.0007196397311449</v>
       </c>
       <c r="AD6" s="190"/>
       <c r="AF6" s="111" t="s">
@@ -14630,7 +14628,7 @@
       <c r="I7" s="129"/>
       <c r="J7" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00150#0000</v>
+        <v>obj_0014f#0001</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="10" t="str">
@@ -14639,15 +14637,15 @@
       </c>
       <c r="M7" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00150#0000</v>
+        <v>obj_0014f#0001</v>
       </c>
       <c r="N7" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O7" s="102" t="str">
+      <c r="O7" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>--</v>
+        <v>-1.8270000000000001E-3</v>
       </c>
       <c r="P7" s="143" t="b">
         <v>1</v>
@@ -14660,11 +14658,11 @@
       </c>
       <c r="S7" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T7" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42387</v>
+        <v>42390</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -14677,9 +14675,9 @@
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
         <v>SEK5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y7" s="73" t="str">
+      <c r="Y7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v/>
+        <v>-2.209E-3</v>
       </c>
       <c r="Z7" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -14687,14 +14685,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42508</v>
-      </c>
-      <c r="AC7" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42513</v>
+      </c>
+      <c r="AC7" s="81">
+        <v>1.0009458549072152</v>
       </c>
       <c r="AD7" s="190"/>
     </row>
@@ -14723,7 +14721,7 @@
       <c r="I8" s="129"/>
       <c r="J8" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013a#0000</v>
+        <v>obj_00143#0001</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="10" t="str">
@@ -14732,15 +14730,15 @@
       </c>
       <c r="M8" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0013a#0000</v>
+        <v>obj_00143#0001</v>
       </c>
       <c r="N8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
         <v>SEK2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O8" s="102" t="str">
+      <c r="O8" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>--</v>
+        <v>-1.928E-3</v>
       </c>
       <c r="P8" s="143" t="b">
         <v>1</v>
@@ -14753,11 +14751,11 @@
       </c>
       <c r="S8" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T8" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42422</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -14770,9 +14768,9 @@
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
         <v>SEK6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="Y8" s="73" t="str">
+      <c r="Y8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v/>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="Z8" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -14780,14 +14778,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42541</v>
-      </c>
-      <c r="AC8" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42542</v>
+      </c>
+      <c r="AC8" s="81">
+        <v>1.0011552497285827</v>
       </c>
       <c r="AD8" s="190"/>
     </row>
@@ -14816,7 +14814,7 @@
       <c r="I9" s="129"/>
       <c r="J9" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00153#0000</v>
+        <v>obj_00152#0001</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="10" t="str">
@@ -14825,15 +14823,15 @@
       </c>
       <c r="M9" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00153#0000</v>
+        <v>obj_00152#0001</v>
       </c>
       <c r="N9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
         <v>SEK3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O9" s="102" t="str">
+      <c r="O9" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>--</v>
+        <v>-2.0230000000000001E-3</v>
       </c>
       <c r="P9" s="143" t="b">
         <v>1</v>
@@ -14846,26 +14844,26 @@
       </c>
       <c r="S9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_0011c</v>
+        <v>obj_0011f</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
         <v>SEKSB6S1Y_3S6S_Quote</v>
       </c>
-      <c r="Y9" s="73" t="str">
+      <c r="Y9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v/>
+        <v>-2.3998153341275911E-3</v>
       </c>
       <c r="Z9" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -14873,14 +14871,14 @@
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42723</v>
-      </c>
-      <c r="AC9" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42725</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>1.0024062674229812</v>
       </c>
       <c r="AD9" s="190"/>
       <c r="AG9" s="49" t="s">
@@ -14909,7 +14907,7 @@
       </c>
       <c r="G10" s="180" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C10,2,Currency,Calendar,E10,D10,F10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013c#0000</v>
+        <v>obj_0013d#0001</v>
       </c>
       <c r="H10" s="181" t="str">
         <f t="shared" si="0"/>
@@ -14918,7 +14916,7 @@
       <c r="I10" s="179"/>
       <c r="J10" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00151#0000</v>
+        <v>obj_0014e#0001</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="10" t="str">
@@ -14927,15 +14925,15 @@
       </c>
       <c r="M10" s="98" t="str">
         <f t="shared" ref="M10:M12" si="7">IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_00151#0000</v>
+        <v>obj_0014e#0001</v>
       </c>
       <c r="N10" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
         <v>SEK4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O10" s="102" t="str">
+      <c r="O10" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>--</v>
+        <v>-2.1220000000000002E-3</v>
       </c>
       <c r="P10" s="143" t="b">
         <v>1</v>
@@ -14948,26 +14946,26 @@
       </c>
       <c r="S10" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T10" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42478</v>
+        <v>42481</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_00146</v>
+        <v>obj_0014a</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
         <v>SEKSB6S2Y_3S6S_Quote</v>
       </c>
-      <c r="Y10" s="73" t="str">
+      <c r="Y10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v/>
+        <v>-8.2933936871262489E-4</v>
       </c>
       <c r="Z10" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -14975,14 +14973,14 @@
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>43087</v>
-      </c>
-      <c r="AC10" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43090</v>
+      </c>
+      <c r="AC10" s="81">
+        <v>1.0016661041864245</v>
       </c>
       <c r="AD10" s="190"/>
       <c r="AE10" s="77" t="s">
@@ -15032,7 +15030,7 @@
       </c>
       <c r="G11" s="187" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C11,2,Currency,Calendar,E11,D11,F11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014b#0000</v>
+        <v>obj_00147#0001</v>
       </c>
       <c r="H11" s="188" t="str">
         <f t="shared" si="0"/>
@@ -15041,7 +15039,7 @@
       <c r="I11" s="186"/>
       <c r="J11" s="189" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014d#0000</v>
+        <v>obj_0014d#0001</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="10" t="str">
@@ -15050,15 +15048,15 @@
       </c>
       <c r="M11" s="98" t="str">
         <f t="shared" si="7"/>
-        <v>obj_0014d#0000</v>
+        <v>obj_0014d#0001</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
         <v>SEK5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O11" s="102" t="str">
+      <c r="O11" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>--</v>
+        <v>-2.209E-3</v>
       </c>
       <c r="P11" s="143" t="b">
         <v>1</v>
@@ -15071,26 +15069,26 @@
       </c>
       <c r="S11" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T11" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42508</v>
+        <v>42513</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_00143</v>
+        <v>obj_0013c</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
         <v>SEKSB6S3Y_3S6S_Quote</v>
       </c>
-      <c r="Y11" s="73" t="str">
+      <c r="Y11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v/>
+        <v>1.5166579755421404E-3</v>
       </c>
       <c r="Z11" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -15098,14 +15096,14 @@
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>43452</v>
-      </c>
-      <c r="AC11" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43455</v>
+      </c>
+      <c r="AC11" s="81">
+        <v>0.9954681965958192</v>
       </c>
       <c r="AD11" s="190"/>
       <c r="AE11" s="161">
@@ -15164,7 +15162,7 @@
       <c r="I12" s="130"/>
       <c r="J12" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00155#0000</v>
+        <v>obj_00155#0001</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>37</v>
@@ -15175,15 +15173,15 @@
       </c>
       <c r="M12" s="99" t="str">
         <f t="shared" si="7"/>
-        <v>obj_00155#0000</v>
+        <v>obj_00155#0001</v>
       </c>
       <c r="N12" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
         <v>SEK6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="O12" s="105" t="str">
+      <c r="O12" s="105">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>--</v>
+        <v>-2.2699999999999999E-3</v>
       </c>
       <c r="P12" s="146" t="b">
         <v>1</v>
@@ -15196,26 +15194,26 @@
       </c>
       <c r="S12" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T12" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_0013d</v>
+        <v>obj_00149</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
         <v>SEKSB6S4Y_3S6S_Quote</v>
       </c>
-      <c r="Y12" s="73" t="str">
+      <c r="Y12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v/>
+        <v>4.3001943846470705E-3</v>
       </c>
       <c r="Z12" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -15223,14 +15221,14 @@
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43817</v>
-      </c>
-      <c r="AC12" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43822</v>
+      </c>
+      <c r="AC12" s="81">
+        <v>0.98290636565515865</v>
       </c>
       <c r="AD12" s="190"/>
       <c r="AE12" s="164">
@@ -15317,15 +15315,15 @@
         <v>BasSw</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_0014a</v>
+        <v>obj_00145</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
         <v>SEKSB6S5Y_3S6S_Quote</v>
       </c>
-      <c r="Y13" s="73" t="str">
+      <c r="Y13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v/>
+        <v>7.0395318514738618E-3</v>
       </c>
       <c r="Z13" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -15333,14 +15331,14 @@
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>44183</v>
-      </c>
-      <c r="AC13" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44186</v>
+      </c>
+      <c r="AC13" s="81">
+        <v>0.96528539043579276</v>
       </c>
       <c r="AD13" s="190"/>
       <c r="AE13" s="164">
@@ -15412,15 +15410,15 @@
       </c>
       <c r="M14" s="98" t="str">
         <f t="shared" ref="M14:M39" si="12">IF(ISBLANK(J16),"--",J16)</f>
-        <v>obj_0011c#0000</v>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="N14" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
         <v>SEKSB6S1Y_3S6S_Quote</v>
       </c>
-      <c r="O14" s="102" t="str">
+      <c r="O14" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>--</v>
+        <v>-2.3998153341275911E-3</v>
       </c>
       <c r="P14" s="143" t="b">
         <v>1</v>
@@ -15433,26 +15431,26 @@
       </c>
       <c r="S14" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T14" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42723</v>
+        <v>42725</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_00141</v>
+        <v>obj_0013a</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
         <v>SEKSB6S6Y_3S6S_Quote</v>
       </c>
-      <c r="Y14" s="73" t="str">
+      <c r="Y14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v/>
+        <v>9.4801301043018361E-3</v>
       </c>
       <c r="Z14" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -15460,14 +15458,14 @@
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>44550</v>
-      </c>
-      <c r="AC14" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44551</v>
+      </c>
+      <c r="AC14" s="81">
+        <v>0.94433119670124299</v>
       </c>
       <c r="AD14" s="190"/>
       <c r="AE14" s="164">
@@ -15571,15 +15569,15 @@
         <v>BasSw</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_0013f</v>
+        <v>obj_00141</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
         <v>SEKSB6S7Y_3S6S_Quote</v>
       </c>
-      <c r="Y15" s="73" t="str">
+      <c r="Y15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v/>
+        <v>1.1622689668384532E-2</v>
       </c>
       <c r="Z15" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -15587,14 +15585,14 @@
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44914</v>
-      </c>
-      <c r="AC15" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44916</v>
+      </c>
+      <c r="AC15" s="81">
+        <v>0.92108435862056759</v>
       </c>
       <c r="AD15" s="190"/>
       <c r="AE15" s="164">
@@ -15660,7 +15658,7 @@
       </c>
       <c r="J16" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H16,2,B16,Calendar,D16,E16,F16,G16,I16,C16,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011c#0000</v>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="10" t="str">
@@ -15701,15 +15699,15 @@
         <v>BasSw</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_00147</v>
+        <v>obj_0014b</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
         <v>SEKSB6S8Y_3S6S_Quote</v>
       </c>
-      <c r="Y16" s="73" t="str">
+      <c r="Y16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v/>
+        <v>1.346614539375574E-2</v>
       </c>
       <c r="Z16" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -15717,14 +15715,14 @@
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>45278</v>
-      </c>
-      <c r="AC16" s="81" t="e">
-        <v>#NUM!</v>
+        <v>45281</v>
+      </c>
+      <c r="AC16" s="81">
+        <v>0.89654166498626786</v>
       </c>
       <c r="AD16" s="190"/>
       <c r="AE16" s="164">
@@ -15828,15 +15826,15 @@
         <v>BasSw</v>
       </c>
       <c r="W17" s="4" t="str">
-        <v>obj_00140</v>
+        <v>obj_00142</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
         <v>SEKSB6S9Y_3S6S_Quote</v>
       </c>
-      <c r="Y17" s="73" t="str">
+      <c r="Y17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v/>
+        <v>1.498581242570716E-2</v>
       </c>
       <c r="Z17" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -15844,14 +15842,14 @@
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>45644</v>
-      </c>
-      <c r="AC17" s="81" t="e">
-        <v>#NUM!</v>
+        <v>45649</v>
+      </c>
+      <c r="AC17" s="81">
+        <v>0.87178064668339228</v>
       </c>
       <c r="AD17" s="190"/>
       <c r="AE17" s="164">
@@ -15923,15 +15921,15 @@
       </c>
       <c r="M18" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00146#0000</v>
+        <v>obj_0014a#0001</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
         <v>SEKSB6S2Y_3S6S_Quote</v>
       </c>
-      <c r="O18" s="102" t="str">
+      <c r="O18" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>--</v>
+        <v>-8.2933936871262489E-4</v>
       </c>
       <c r="P18" s="143" t="b">
         <v>1</v>
@@ -15944,26 +15942,26 @@
       </c>
       <c r="S18" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T18" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_00149</v>
+        <v>obj_0013b</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
         <v>SEKSB6S10Y_3S6S_Quote</v>
       </c>
-      <c r="Y18" s="73" t="str">
+      <c r="Y18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v/>
+        <v>1.6327052790863328E-2</v>
       </c>
       <c r="Z18" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -15971,14 +15969,14 @@
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>46009</v>
-      </c>
-      <c r="AC18" s="81" t="e">
-        <v>#NUM!</v>
+        <v>46013</v>
+      </c>
+      <c r="AC18" s="81">
+        <v>0.84657687212144772</v>
       </c>
       <c r="AD18" s="190"/>
       <c r="AE18" s="164">
@@ -16082,15 +16080,15 @@
         <v>BasSw</v>
       </c>
       <c r="W19" s="4" t="str">
-        <v>obj_0014c</v>
+        <v>obj_0013e</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
         <v>SEKSB6S12Y_3S6S_Quote</v>
       </c>
-      <c r="Y19" s="73" t="str">
+      <c r="Y19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v/>
+        <v>1.8420032046242998E-2</v>
       </c>
       <c r="Z19" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -16098,14 +16096,14 @@
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>46741</v>
-      </c>
-      <c r="AC19" s="81" t="e">
-        <v>#NUM!</v>
+        <v>46742</v>
+      </c>
+      <c r="AC19" s="81">
+        <v>0.79724741550859513</v>
       </c>
       <c r="AD19" s="190"/>
       <c r="AE19" s="164">
@@ -16171,7 +16169,7 @@
       </c>
       <c r="J20" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H20,2,B20,Calendar,D20,E20,F20,G20,I20,C20,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00146#0000</v>
+        <v>obj_0014a#0001</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
@@ -16212,15 +16210,15 @@
         <v>BasSw</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_0013b</v>
+        <v>obj_00146</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
         <v>SEKSB6S15Y_3S6S_Quote</v>
       </c>
-      <c r="Y20" s="73" t="str">
+      <c r="Y20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v/>
+        <v>2.0722341813750662E-2</v>
       </c>
       <c r="Z20" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -16228,14 +16226,14 @@
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>47835</v>
-      </c>
-      <c r="AC20" s="81" t="e">
-        <v>#NUM!</v>
+        <v>47840</v>
+      </c>
+      <c r="AC20" s="81">
+        <v>0.72542858673587174</v>
       </c>
       <c r="AD20" s="190"/>
       <c r="AE20" s="164">
@@ -16339,15 +16337,15 @@
         <v>BasSw</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_00144</v>
+        <v>obj_00148</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
         <v>SEKSB6S20Y_3S6S_Quote</v>
       </c>
-      <c r="Y21" s="73" t="str">
+      <c r="Y21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v/>
+        <v>2.336787096122055E-2</v>
       </c>
       <c r="Z21" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -16355,14 +16353,14 @@
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>49661</v>
-      </c>
-      <c r="AC21" s="81" t="e">
-        <v>#NUM!</v>
+        <v>49664</v>
+      </c>
+      <c r="AC21" s="81">
+        <v>0.61392124814260307</v>
       </c>
       <c r="AD21" s="190"/>
       <c r="AE21" s="164">
@@ -16434,15 +16432,15 @@
       </c>
       <c r="M22" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00143#0000</v>
+        <v>obj_0013c#0001</v>
       </c>
       <c r="N22" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
         <v>SEKSB6S3Y_3S6S_Quote</v>
       </c>
-      <c r="O22" s="102" t="str">
+      <c r="O22" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.5166579755421404E-3</v>
       </c>
       <c r="P22" s="143" t="b">
         <v>1</v>
@@ -16455,26 +16453,26 @@
       </c>
       <c r="S22" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T22" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W22" s="4" t="str">
-        <v>obj_00142</v>
+        <v>obj_00144</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
         <v>SEKSB6S25Y_3S6S_Quote</v>
       </c>
-      <c r="Y22" s="73" t="str">
+      <c r="Y22" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v/>
+        <v>2.4695648685610621E-2</v>
       </c>
       <c r="Z22" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -16482,14 +16480,14 @@
       </c>
       <c r="AA22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>51488</v>
-      </c>
-      <c r="AC22" s="81" t="e">
-        <v>#NUM!</v>
+        <v>51491</v>
+      </c>
+      <c r="AC22" s="81">
+        <v>0.52330621497180863</v>
       </c>
       <c r="AD22" s="190"/>
       <c r="AE22" s="164">
@@ -16561,15 +16559,15 @@
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013d#0000</v>
+        <v>obj_00149#0001</v>
       </c>
       <c r="N23" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
         <v>SEKSB6S4Y_3S6S_Quote</v>
       </c>
-      <c r="O23" s="102" t="str">
+      <c r="O23" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>--</v>
+        <v>4.3001943846470705E-3</v>
       </c>
       <c r="P23" s="143" t="b">
         <v>1</v>
@@ -16582,26 +16580,26 @@
       </c>
       <c r="S23" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T23" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W23" s="4" t="str">
-        <v>obj_0013e</v>
+        <v>obj_00140</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
         <v>SEKSB6S30Y_3S6S_Quote</v>
       </c>
-      <c r="Y23" s="73" t="str">
+      <c r="Y23" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v/>
+        <v>2.4940434308522448E-2</v>
       </c>
       <c r="Z23" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -16609,14 +16607,14 @@
       </c>
       <c r="AA23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>53314</v>
-      </c>
-      <c r="AC23" s="81" t="e">
-        <v>#NUM!</v>
+        <v>53317</v>
+      </c>
+      <c r="AC23" s="81">
+        <v>0.45839126445886313</v>
       </c>
       <c r="AD23" s="190"/>
       <c r="AE23" s="167">
@@ -16682,7 +16680,7 @@
       </c>
       <c r="J24" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H24,2,B24,Calendar,D24,E24,F24,G24,I24,C24,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00143#0000</v>
+        <v>obj_0013c#0001</v>
       </c>
       <c r="K24" s="51"/>
       <c r="L24" s="10" t="str">
@@ -16691,15 +16689,15 @@
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0014a#0000</v>
+        <v>obj_00145#0001</v>
       </c>
       <c r="N24" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
         <v>SEKSB6S5Y_3S6S_Quote</v>
       </c>
-      <c r="O24" s="102" t="str">
+      <c r="O24" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>--</v>
+        <v>7.0395318514738618E-3</v>
       </c>
       <c r="P24" s="143" t="b">
         <v>1</v>
@@ -16712,11 +16710,11 @@
       </c>
       <c r="S24" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T24" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16746,7 +16744,7 @@
         <v/>
       </c>
       <c r="AC24" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD24" s="190"/>
     </row>
@@ -16782,7 +16780,7 @@
       </c>
       <c r="J25" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H25,2,B25,Calendar,D25,E25,F25,G25,I25,C25,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013d#0000</v>
+        <v>obj_00149#0001</v>
       </c>
       <c r="K25" s="51"/>
       <c r="L25" s="10" t="str">
@@ -16791,15 +16789,15 @@
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00141#0000</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="N25" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
         <v>SEKSB6S6Y_3S6S_Quote</v>
       </c>
-      <c r="O25" s="102" t="str">
+      <c r="O25" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>--</v>
+        <v>9.4801301043018361E-3</v>
       </c>
       <c r="P25" s="143" t="b">
         <v>1</v>
@@ -16812,11 +16810,11 @@
       </c>
       <c r="S25" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T25" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16846,7 +16844,7 @@
         <v/>
       </c>
       <c r="AC25" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD25" s="190"/>
     </row>
@@ -16882,7 +16880,7 @@
       </c>
       <c r="J26" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H26,2,B26,Calendar,D26,E26,F26,G26,I26,C26,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014a#0000</v>
+        <v>obj_00145#0001</v>
       </c>
       <c r="K26" s="51"/>
       <c r="L26" s="10" t="str">
@@ -16891,15 +16889,15 @@
       </c>
       <c r="M26" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013f#0000</v>
+        <v>obj_00141#0001</v>
       </c>
       <c r="N26" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
         <v>SEKSB6S7Y_3S6S_Quote</v>
       </c>
-      <c r="O26" s="102" t="str">
+      <c r="O26" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.1622689668384532E-2</v>
       </c>
       <c r="P26" s="143" t="b">
         <v>1</v>
@@ -16912,11 +16910,11 @@
       </c>
       <c r="S26" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T26" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16946,7 +16944,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD26" s="190"/>
     </row>
@@ -16982,7 +16980,7 @@
       </c>
       <c r="J27" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H27,2,B27,Calendar,D27,E27,F27,G27,I27,C27,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00141#0000</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="K27" s="51"/>
       <c r="L27" s="10" t="str">
@@ -16991,15 +16989,15 @@
       </c>
       <c r="M27" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00147#0000</v>
+        <v>obj_0014b#0001</v>
       </c>
       <c r="N27" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
         <v>SEKSB6S8Y_3S6S_Quote</v>
       </c>
-      <c r="O27" s="102" t="str">
+      <c r="O27" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M27,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.346614539375574E-2</v>
       </c>
       <c r="P27" s="143" t="b">
         <v>1</v>
@@ -17012,11 +17010,11 @@
       </c>
       <c r="S27" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T27" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17046,7 +17044,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD27" s="190"/>
     </row>
@@ -17082,7 +17080,7 @@
       </c>
       <c r="J28" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,2,B28,Calendar,D28,E28,F28,G28,I28,C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013f#0000</v>
+        <v>obj_00141#0001</v>
       </c>
       <c r="K28" s="51"/>
       <c r="L28" s="10" t="str">
@@ -17091,15 +17089,15 @@
       </c>
       <c r="M28" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00140#0000</v>
+        <v>obj_00142#0001</v>
       </c>
       <c r="N28" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
         <v>SEKSB6S9Y_3S6S_Quote</v>
       </c>
-      <c r="O28" s="102" t="str">
+      <c r="O28" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.498581242570716E-2</v>
       </c>
       <c r="P28" s="143" t="b">
         <v>1</v>
@@ -17112,11 +17110,11 @@
       </c>
       <c r="S28" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T28" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17146,7 +17144,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="190"/>
     </row>
@@ -17182,7 +17180,7 @@
       </c>
       <c r="J29" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H29,2,B29,Calendar,D29,E29,F29,G29,I29,C29,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00147#0000</v>
+        <v>obj_0014b#0001</v>
       </c>
       <c r="K29" s="51"/>
       <c r="L29" s="10" t="str">
@@ -17191,15 +17189,15 @@
       </c>
       <c r="M29" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00149#0000</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="N29" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
         <v>SEKSB6S10Y_3S6S_Quote</v>
       </c>
-      <c r="O29" s="102" t="str">
+      <c r="O29" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.6327052790863328E-2</v>
       </c>
       <c r="P29" s="143" t="b">
         <v>1</v>
@@ -17212,11 +17210,11 @@
       </c>
       <c r="S29" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T29" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>46009</v>
+        <v>46013</v>
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17246,7 +17244,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD29" s="190"/>
     </row>
@@ -17282,7 +17280,7 @@
       </c>
       <c r="J30" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,2,B30,Calendar,D30,E30,F30,G30,I30,C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00140#0000</v>
+        <v>obj_00142#0001</v>
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="10" t="str">
@@ -17291,15 +17289,15 @@
       </c>
       <c r="M30" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0014c#0000</v>
+        <v>obj_0013e#0001</v>
       </c>
       <c r="N30" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
         <v>SEKSB6S12Y_3S6S_Quote</v>
       </c>
-      <c r="O30" s="102" t="str">
+      <c r="O30" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.8420032046242998E-2</v>
       </c>
       <c r="P30" s="143" t="b">
         <v>1</v>
@@ -17312,11 +17310,11 @@
       </c>
       <c r="S30" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T30" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>46741</v>
+        <v>46742</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17346,7 +17344,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD30" s="190"/>
     </row>
@@ -17382,7 +17380,7 @@
       </c>
       <c r="J31" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H31,2,B31,Calendar,D31,E31,F31,G31,I31,C31,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00149#0000</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="10" t="str">
@@ -17391,15 +17389,15 @@
       </c>
       <c r="M31" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013b#0000</v>
+        <v>obj_00146#0001</v>
       </c>
       <c r="N31" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
         <v>SEKSB6S15Y_3S6S_Quote</v>
       </c>
-      <c r="O31" s="102" t="str">
+      <c r="O31" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.0722341813750662E-2</v>
       </c>
       <c r="P31" s="143" t="b">
         <v>1</v>
@@ -17412,11 +17410,11 @@
       </c>
       <c r="S31" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T31" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>47835</v>
+        <v>47840</v>
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17446,7 +17444,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD31" s="190"/>
     </row>
@@ -17482,7 +17480,7 @@
       </c>
       <c r="J32" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H32,2,B32,Calendar,D32,E32,F32,G32,I32,C32,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014c#0000</v>
+        <v>obj_0013e#0001</v>
       </c>
       <c r="K32" s="51"/>
       <c r="L32" s="10" t="str">
@@ -17491,15 +17489,15 @@
       </c>
       <c r="M32" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00144#0000</v>
+        <v>obj_00148#0001</v>
       </c>
       <c r="N32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
         <v>SEKSB6S20Y_3S6S_Quote</v>
       </c>
-      <c r="O32" s="102" t="str">
+      <c r="O32" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.336787096122055E-2</v>
       </c>
       <c r="P32" s="143" t="b">
         <v>1</v>
@@ -17512,11 +17510,11 @@
       </c>
       <c r="S32" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T32" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>49661</v>
+        <v>49664</v>
       </c>
       <c r="V32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17546,7 +17544,7 @@
         <v/>
       </c>
       <c r="AC32" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD32" s="190"/>
     </row>
@@ -17582,7 +17580,7 @@
       </c>
       <c r="J33" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H33,2,B33,Calendar,D33,E33,F33,G33,I33,C33,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013b#0000</v>
+        <v>obj_00146#0001</v>
       </c>
       <c r="K33" s="51"/>
       <c r="L33" s="10" t="str">
@@ -17591,15 +17589,15 @@
       </c>
       <c r="M33" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_00142#0000</v>
+        <v>obj_00144#0001</v>
       </c>
       <c r="N33" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
         <v>SEKSB6S25Y_3S6S_Quote</v>
       </c>
-      <c r="O33" s="102" t="str">
+      <c r="O33" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.4695648685610621E-2</v>
       </c>
       <c r="P33" s="143" t="b">
         <v>1</v>
@@ -17612,11 +17610,11 @@
       </c>
       <c r="S33" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T33" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>51488</v>
+        <v>51491</v>
       </c>
       <c r="V33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17646,7 +17644,7 @@
         <v/>
       </c>
       <c r="AC33" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD33" s="190"/>
     </row>
@@ -17682,7 +17680,7 @@
       </c>
       <c r="J34" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,2,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00144#0000</v>
+        <v>obj_00148#0001</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="10" t="str">
@@ -17746,7 +17744,7 @@
         <v/>
       </c>
       <c r="AC34" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD34" s="190"/>
     </row>
@@ -17782,7 +17780,7 @@
       </c>
       <c r="J35" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H35,2,B35,Calendar,D35,E35,F35,G35,I35,C35,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00142#0000</v>
+        <v>obj_00144#0001</v>
       </c>
       <c r="K35" s="51"/>
       <c r="L35" s="10" t="str">
@@ -17791,15 +17789,15 @@
       </c>
       <c r="M35" s="98" t="str">
         <f t="shared" si="12"/>
-        <v>obj_0013e#0000</v>
+        <v>obj_00140#0001</v>
       </c>
       <c r="N35" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
         <v>SEKSB6S30Y_3S6S_Quote</v>
       </c>
-      <c r="O35" s="102" t="str">
+      <c r="O35" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.4940434308522448E-2</v>
       </c>
       <c r="P35" s="143" t="b">
         <v>1</v>
@@ -17812,11 +17810,11 @@
       </c>
       <c r="S35" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M35,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T35" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M35,Trigger),"--")</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17846,7 +17844,7 @@
         <v/>
       </c>
       <c r="AC35" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD35" s="190"/>
     </row>
@@ -17943,7 +17941,7 @@
         <v/>
       </c>
       <c r="AC36" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD36" s="190"/>
     </row>
@@ -17979,7 +17977,7 @@
       </c>
       <c r="J37" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H37,2,B37,Calendar,D37,E37,F37,G37,I37,C37,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0013e#0000</v>
+        <v>obj_00140#0001</v>
       </c>
       <c r="K37" s="51"/>
       <c r="L37" s="10" t="str">
@@ -18043,7 +18041,7 @@
         <v/>
       </c>
       <c r="AC37" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD37" s="190"/>
     </row>
@@ -18140,7 +18138,7 @@
         <v/>
       </c>
       <c r="AC38" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD38" s="190"/>
     </row>
@@ -18237,7 +18235,7 @@
         <v/>
       </c>
       <c r="AC39" s="82" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD39" s="190"/>
     </row>
@@ -18540,9 +18538,9 @@
       <c r="AB2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="80" t="e">
+      <c r="AC2" s="80">
         <f t="array" ref="AC2:AC32">_xll.qlPiecewiseYieldCurveData(YieldCurve_1M,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="191" t="s">
         <v>88</v>
@@ -18573,7 +18571,7 @@
       </c>
       <c r="G3" s="117" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C3,2,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012e#0000</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H7" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -18621,15 +18619,15 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W32">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0014f</v>
+        <v>obj_00153</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
         <v>SEKSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y3" s="73" t="str">
+      <c r="Y3" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v/>
+        <v>-5.8040000000000001E-3</v>
       </c>
       <c r="Z3" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -18637,14 +18635,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
         <v>42366</v>
       </c>
-      <c r="AC3" s="81" t="e">
-        <v>#NUM!</v>
+      <c r="AC3" s="81">
+        <v>1.0001128682933691</v>
       </c>
       <c r="AD3" s="84"/>
       <c r="AF3" s="200" t="s">
@@ -18675,7 +18673,7 @@
       </c>
       <c r="G4" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C4,2,Currency,Calendar,E4,D4,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010c#0000</v>
+        <v>obj_0010c#0001</v>
       </c>
       <c r="H4" s="158" t="str">
         <f t="shared" si="0"/>
@@ -18684,7 +18682,7 @@
       <c r="I4" s="133"/>
       <c r="J4" s="61" t="str">
         <f>_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014f#0000</v>
+        <v>obj_00153#0001</v>
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="10" t="str">
@@ -18693,15 +18691,15 @@
       </c>
       <c r="M4" s="98" t="str">
         <f t="shared" ref="M4:M7" si="3">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_0014f#0000</v>
+        <v>obj_00153#0001</v>
       </c>
       <c r="N4" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
         <v>SEKSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="O4" s="102" t="str">
+      <c r="O4" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>--</v>
+        <v>-5.8040000000000001E-3</v>
       </c>
       <c r="P4" s="143" t="b">
         <v>1</v>
@@ -18714,7 +18712,7 @@
       </c>
       <c r="S4" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T4" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
@@ -18725,15 +18723,15 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="4" t="str">
-        <v>obj_00152</v>
+        <v>obj_00150</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
         <v>SEK2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y4" s="73" t="str">
+      <c r="Y4" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v/>
+        <v>-5.8060000000000004E-3</v>
       </c>
       <c r="Z4" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -18741,14 +18739,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
         <v>42373</v>
       </c>
-      <c r="AC4" s="81" t="e">
-        <v>#NUM!</v>
+      <c r="AC4" s="81">
+        <v>1.0002258398810249</v>
       </c>
       <c r="AD4" s="84"/>
       <c r="AF4" s="111" t="s">
@@ -18780,7 +18778,7 @@
       </c>
       <c r="G5" s="64" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C5,2,Currency,Calendar,E5,D5,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00148#0000</v>
+        <v>obj_0014c#0001</v>
       </c>
       <c r="H5" s="126" t="str">
         <f t="shared" si="0"/>
@@ -18789,7 +18787,7 @@
       <c r="I5" s="129"/>
       <c r="J5" s="67" t="str">
         <f>_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00152#0000</v>
+        <v>obj_00150#0001</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="10" t="str">
@@ -18798,15 +18796,15 @@
       </c>
       <c r="M5" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00152#0000</v>
+        <v>obj_00150#0001</v>
       </c>
       <c r="N5" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
         <v>SEK2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="O5" s="102" t="str">
+      <c r="O5" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>--</v>
+        <v>-5.8060000000000004E-3</v>
       </c>
       <c r="P5" s="143" t="b">
         <v>1</v>
@@ -18819,7 +18817,7 @@
       </c>
       <c r="S5" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T5" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
@@ -18830,15 +18828,15 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_0014e</v>
+        <v>obj_00151</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
         <v>SEK3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y5" s="73" t="str">
+      <c r="Y5" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v/>
+        <v>-5.8110000000000002E-3</v>
       </c>
       <c r="Z5" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -18846,14 +18844,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42377</v>
-      </c>
-      <c r="AC5" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42380</v>
+      </c>
+      <c r="AC5" s="81">
+        <v>1.0003390899430153</v>
       </c>
       <c r="AD5" s="84"/>
       <c r="AE5" s="84"/>
@@ -18886,7 +18884,7 @@
       </c>
       <c r="G6" s="187" t="str">
         <f>_xll.qlIborIndex(,FamilyName,C6,2,Currency,Calendar,E6,D6,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00145#0000</v>
+        <v>obj_0013f#0001</v>
       </c>
       <c r="H6" s="188" t="str">
         <f t="shared" si="0"/>
@@ -18895,7 +18893,7 @@
       <c r="I6" s="186"/>
       <c r="J6" s="189" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0014e#0000</v>
+        <v>obj_00151#0001</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="10" t="str">
@@ -18904,15 +18902,15 @@
       </c>
       <c r="M6" s="98" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0014e#0000</v>
+        <v>obj_00151#0001</v>
       </c>
       <c r="N6" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
         <v>SEK3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="O6" s="102" t="str">
+      <c r="O6" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>--</v>
+        <v>-5.8110000000000002E-3</v>
       </c>
       <c r="P6" s="143" t="b">
         <v>1</v>
@@ -18925,26 +18923,26 @@
       </c>
       <c r="S6" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T6" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="4" t="str">
-        <v>obj_00156</v>
+        <v>obj_00157</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
         <v>SEK1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="Y6" s="73" t="str">
+      <c r="Y6" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v/>
+        <v>-5.8209999999999998E-3</v>
       </c>
       <c r="Z6" s="108" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -18952,14 +18950,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42387</v>
-      </c>
-      <c r="AC6" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42390</v>
+      </c>
+      <c r="AC6" s="81">
+        <v>1.0005015041581526</v>
       </c>
       <c r="AD6" s="84"/>
       <c r="AF6" s="111" t="s">
@@ -18994,7 +18992,7 @@
       <c r="I7" s="130"/>
       <c r="J7" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00156#0000</v>
+        <v>obj_00157#0001</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="11" t="str">
@@ -19003,15 +19001,15 @@
       </c>
       <c r="M7" s="99" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00156#0000</v>
+        <v>obj_00157#0001</v>
       </c>
       <c r="N7" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
         <v>SEK1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="O7" s="105" t="str">
+      <c r="O7" s="105">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>--</v>
+        <v>-5.8209999999999998E-3</v>
       </c>
       <c r="P7" s="146" t="b">
         <v>1</v>
@@ -19024,18 +19022,18 @@
       </c>
       <c r="S7" s="106">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T7" s="106">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42387</v>
+        <v>42390</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W7" s="4" t="str">
-        <v>obj_00124</v>
+        <v>obj_00120</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -19043,7 +19041,7 @@
       </c>
       <c r="Y7" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-4.1749999999999999E-3</v>
+        <v>-3.5499999999999998E-3</v>
       </c>
       <c r="Z7" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -19051,14 +19049,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42723</v>
-      </c>
-      <c r="AC7" s="81" t="e">
-        <v>#NUM!</v>
+        <v>42725</v>
+      </c>
+      <c r="AC7" s="81">
+        <v>1.0043798514848465</v>
       </c>
       <c r="AD7" s="84"/>
     </row>
@@ -19111,7 +19109,7 @@
         <v>BasSw</v>
       </c>
       <c r="W8" s="4" t="str">
-        <v>obj_00126</v>
+        <v>obj_00125</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -19119,7 +19117,7 @@
       </c>
       <c r="Y8" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-3.1000000000000003E-3</v>
+        <v>-1.9250000000000001E-3</v>
       </c>
       <c r="Z8" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -19127,14 +19125,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>43087</v>
-      </c>
-      <c r="AC8" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43090</v>
+      </c>
+      <c r="AC8" s="81">
+        <v>1.0057528446953119</v>
       </c>
       <c r="AD8" s="84"/>
     </row>
@@ -19176,7 +19174,7 @@
       </c>
       <c r="M9" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00124#0000</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="N9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -19184,7 +19182,7 @@
       </c>
       <c r="O9" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-4.1749999999999999E-3</v>
+        <v>-3.5499999999999998E-3</v>
       </c>
       <c r="P9" s="143" t="b">
         <v>1</v>
@@ -19197,18 +19195,18 @@
       </c>
       <c r="S9" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T9" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42723</v>
+        <v>42725</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_0011d</v>
+        <v>obj_00122</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -19216,22 +19214,22 @@
       </c>
       <c r="Y9" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-1.075E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="Z9" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
-        <v>9.810000000000001E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>43452</v>
-      </c>
-      <c r="AC9" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43455</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>1.0016403989704081</v>
       </c>
       <c r="AD9" s="84"/>
       <c r="AG9" s="49" t="s">
@@ -19309,7 +19307,7 @@
         <v>BasSw</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_00120</v>
+        <v>obj_00127</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -19317,22 +19315,22 @@
       </c>
       <c r="Y10" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>1.25E-3</v>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="Z10" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
-        <v>1.0070000000000001E-3</v>
+        <v>1.005E-3</v>
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>43817</v>
-      </c>
-      <c r="AC10" s="81" t="e">
-        <v>#NUM!</v>
+        <v>43822</v>
+      </c>
+      <c r="AC10" s="81">
+        <v>0.99107221207993246</v>
       </c>
       <c r="AD10" s="84"/>
       <c r="AE10" s="77" t="s">
@@ -19393,7 +19391,7 @@
       </c>
       <c r="J11" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H11,2,B11,Calendar,D11,E11,F11,G11,I11,C11,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00124#0000</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="10" t="str">
@@ -19402,7 +19400,7 @@
       </c>
       <c r="M11" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00126#0000</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="N11" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -19410,7 +19408,7 @@
       </c>
       <c r="O11" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>-3.1000000000000003E-3</v>
+        <v>-1.9250000000000001E-3</v>
       </c>
       <c r="P11" s="143" t="b">
         <v>1</v>
@@ -19423,18 +19421,18 @@
       </c>
       <c r="S11" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T11" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_0011f</v>
+        <v>obj_0012c</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -19442,22 +19440,22 @@
       </c>
       <c r="Y11" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>3.7750000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Z11" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
-        <v>1.01E-3</v>
+        <v>1.008E-3</v>
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>44183</v>
-      </c>
-      <c r="AC11" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44186</v>
+      </c>
+      <c r="AC11" s="81">
+        <v>0.97525684152734315</v>
       </c>
       <c r="AD11" s="84"/>
       <c r="AE11" s="161">
@@ -19532,7 +19530,7 @@
       </c>
       <c r="M12" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00123#0000</v>
+        <v>obj_0011e#0001</v>
       </c>
       <c r="N12" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -19553,18 +19551,18 @@
       </c>
       <c r="S12" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T12" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>43269</v>
+        <v>43272</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_0012c</v>
+        <v>obj_00121</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -19572,22 +19570,22 @@
       </c>
       <c r="Y12" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>6.1500000000000001E-3</v>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="Z12" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
-        <v>1.01E-3</v>
+        <v>1.008E-3</v>
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>44550</v>
-      </c>
-      <c r="AC12" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44551</v>
+      </c>
+      <c r="AC12" s="81">
+        <v>0.95597942823085202</v>
       </c>
       <c r="AD12" s="84"/>
       <c r="AE12" s="164">
@@ -19654,7 +19652,7 @@
       </c>
       <c r="J13" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H13,2,B13,Calendar,D13,E13,F13,G13,I13,C13,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00126#0000</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="10" t="str">
@@ -19663,7 +19661,7 @@
       </c>
       <c r="M13" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011d#0000</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="N13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -19671,7 +19669,7 @@
       </c>
       <c r="O13" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>-1.075E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="P13" s="143" t="b">
         <v>1</v>
@@ -19684,18 +19682,18 @@
       </c>
       <c r="S13" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T13" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_0011e</v>
+        <v>obj_00124</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -19703,22 +19701,22 @@
       </c>
       <c r="Y13" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>8.2500000000000004E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="Z13" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
-        <v>1.0089999999999999E-3</v>
+        <v>1.0070000000000001E-3</v>
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>44914</v>
-      </c>
-      <c r="AC13" s="81" t="e">
-        <v>#NUM!</v>
+        <v>44916</v>
+      </c>
+      <c r="AC13" s="81">
+        <v>0.93428228676447589</v>
       </c>
       <c r="AD13" s="84"/>
       <c r="AE13" s="164">
@@ -19785,7 +19783,7 @@
       </c>
       <c r="J14" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H14,2,B14,Calendar,D14,E14,F14,G14,I14,C14,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00123#0000</v>
+        <v>obj_0011e#0001</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="10" t="str">
@@ -19826,7 +19824,7 @@
         <v>BasSw</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_00122</v>
+        <v>obj_0011c</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -19834,22 +19832,22 @@
       </c>
       <c r="Y14" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.0050000000000002E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="Z14" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
-        <v>1.0070000000000001E-3</v>
+        <v>1.005E-3</v>
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>45278</v>
-      </c>
-      <c r="AC14" s="81" t="e">
-        <v>#NUM!</v>
+        <v>45281</v>
+      </c>
+      <c r="AC14" s="81">
+        <v>0.91115839303220869</v>
       </c>
       <c r="AD14" s="84"/>
       <c r="AE14" s="164">
@@ -19916,7 +19914,7 @@
       </c>
       <c r="J15" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H15,2,B15,Calendar,D15,E15,F15,G15,I15,C15,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011d#0000</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="10" t="str">
@@ -19925,7 +19923,7 @@
       </c>
       <c r="M15" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00120#0000</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="N15" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -19933,7 +19931,7 @@
       </c>
       <c r="O15" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>1.25E-3</v>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="P15" s="143" t="b">
         <v>1</v>
@@ -19946,18 +19944,18 @@
       </c>
       <c r="S15" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T15" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_00125</v>
+        <v>obj_00123</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -19965,22 +19963,22 @@
       </c>
       <c r="Y15" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.1650000000000001E-2</v>
+        <v>1.3975E-2</v>
       </c>
       <c r="Z15" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
-        <v>1.005E-3</v>
+        <v>1.003E-3</v>
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>45644</v>
-      </c>
-      <c r="AC15" s="81" t="e">
-        <v>#NUM!</v>
+        <v>45649</v>
+      </c>
+      <c r="AC15" s="81">
+        <v>0.88772510914193314</v>
       </c>
       <c r="AD15" s="84"/>
       <c r="AE15" s="164">
@@ -20085,7 +20083,7 @@
         <v>BasSw</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_00121</v>
+        <v>obj_00129</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -20093,22 +20091,22 @@
       </c>
       <c r="Y16" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.3050000000000001E-2</v>
+        <v>1.5325000000000002E-2</v>
       </c>
       <c r="Z16" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
-        <v>1.0019999999999999E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>46009</v>
-      </c>
-      <c r="AC16" s="81" t="e">
-        <v>#NUM!</v>
+        <v>46013</v>
+      </c>
+      <c r="AC16" s="81">
+        <v>0.86368102467233066</v>
       </c>
       <c r="AD16" s="84"/>
       <c r="AE16" s="164">
@@ -20175,7 +20173,7 @@
       </c>
       <c r="J17" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H17,2,B17,Calendar,D17,E17,F17,G17,I17,C17,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00120#0000</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="10" t="str">
@@ -20184,7 +20182,7 @@
       </c>
       <c r="M17" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011f#0000</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="N17" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -20192,7 +20190,7 @@
       </c>
       <c r="O17" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>3.7750000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P17" s="143" t="b">
         <v>1</v>
@@ -20205,11 +20203,11 @@
       </c>
       <c r="S17" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T17" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20224,7 +20222,7 @@
       </c>
       <c r="Y17" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.5375000000000002E-2</v>
+        <v>1.745E-2</v>
       </c>
       <c r="Z17" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -20232,14 +20230,14 @@
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>46741</v>
-      </c>
-      <c r="AC17" s="81" t="e">
-        <v>#NUM!</v>
+        <v>46742</v>
+      </c>
+      <c r="AC17" s="81">
+        <v>0.81620045143441566</v>
       </c>
       <c r="AD17" s="84"/>
       <c r="AE17" s="164">
@@ -20312,7 +20310,7 @@
       </c>
       <c r="M18" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012c#0000</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -20320,7 +20318,7 @@
       </c>
       <c r="O18" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>6.1500000000000001E-3</v>
+        <v>8.4499999999999992E-3</v>
       </c>
       <c r="P18" s="143" t="b">
         <v>1</v>
@@ -20333,18 +20331,18 @@
       </c>
       <c r="S18" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T18" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_00127</v>
+        <v>obj_00126</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -20352,22 +20350,22 @@
       </c>
       <c r="Y18" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.9825000000000002E-2</v>
       </c>
       <c r="Z18" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v>9.720000000000001E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>47835</v>
-      </c>
-      <c r="AC18" s="81" t="e">
-        <v>#NUM!</v>
+        <v>47840</v>
+      </c>
+      <c r="AC18" s="81">
+        <v>0.74579393697286911</v>
       </c>
       <c r="AD18" s="84"/>
       <c r="AE18" s="164">
@@ -20434,7 +20432,7 @@
       </c>
       <c r="J19" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H19,2,B19,Calendar,D19,E19,F19,G19,I19,C19,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011f#0000</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="10" t="str">
@@ -20443,7 +20441,7 @@
       </c>
       <c r="M19" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0011e#0000</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="N19" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -20451,7 +20449,7 @@
       </c>
       <c r="O19" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>8.2500000000000004E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="P19" s="143" t="b">
         <v>1</v>
@@ -20464,11 +20462,11 @@
       </c>
       <c r="S19" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T19" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20483,22 +20481,22 @@
       </c>
       <c r="Y19" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>2.07E-2</v>
+        <v>2.2574999999999998E-2</v>
       </c>
       <c r="Z19" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v>9.1799999999999998E-4</v>
+        <v>9.19E-4</v>
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>49661</v>
-      </c>
-      <c r="AC19" s="81" t="e">
-        <v>#NUM!</v>
+        <v>49664</v>
+      </c>
+      <c r="AC19" s="81">
+        <v>0.63455152773164081</v>
       </c>
       <c r="AD19" s="84"/>
       <c r="AE19" s="164">
@@ -20565,7 +20563,7 @@
       </c>
       <c r="J20" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H20,2,B20,Calendar,D20,E20,F20,G20,I20,C20,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012c#0000</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="10" t="str">
@@ -20574,7 +20572,7 @@
       </c>
       <c r="M20" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00122#0000</v>
+        <v>obj_0011c#0001</v>
       </c>
       <c r="N20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -20582,7 +20580,7 @@
       </c>
       <c r="O20" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>1.0050000000000002E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="P20" s="143" t="b">
         <v>1</v>
@@ -20595,18 +20593,18 @@
       </c>
       <c r="S20" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T20" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_00129</v>
+        <v>obj_0012a</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -20614,22 +20612,22 @@
       </c>
       <c r="Y20" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>2.1949999999999997E-2</v>
+        <v>2.3975E-2</v>
       </c>
       <c r="Z20" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>8.7599999999999993E-4</v>
+        <v>8.7699999999999996E-4</v>
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>51488</v>
-      </c>
-      <c r="AC20" s="81" t="e">
-        <v>#NUM!</v>
+        <v>51491</v>
+      </c>
+      <c r="AC20" s="81">
+        <v>0.5434026967846588</v>
       </c>
       <c r="AD20" s="84"/>
       <c r="AE20" s="164">
@@ -20696,7 +20694,7 @@
       </c>
       <c r="J21" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H21,2,B21,Calendar,D21,E21,F21,G21,I21,C21,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0011e#0000</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="10" t="str">
@@ -20705,7 +20703,7 @@
       </c>
       <c r="M21" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00125#0000</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="N21" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -20713,7 +20711,7 @@
       </c>
       <c r="O21" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1.1650000000000001E-2</v>
+        <v>1.3975E-2</v>
       </c>
       <c r="P21" s="143" t="b">
         <v>1</v>
@@ -20726,18 +20724,18 @@
       </c>
       <c r="S21" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T21" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_0012a</v>
+        <v>obj_0011d</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -20745,22 +20743,22 @@
       </c>
       <c r="Y21" s="73">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>2.2249999999999995E-2</v>
+        <v>2.4275000000000001E-2</v>
       </c>
       <c r="Z21" s="108">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>8.52E-4</v>
+        <v>8.5299999999999992E-4</v>
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>53314</v>
-      </c>
-      <c r="AC21" s="81" t="e">
-        <v>#NUM!</v>
+        <v>53317</v>
+      </c>
+      <c r="AC21" s="81">
+        <v>0.4781269833413101</v>
       </c>
       <c r="AD21" s="84"/>
       <c r="AE21" s="164">
@@ -20827,7 +20825,7 @@
       </c>
       <c r="J22" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H22,2,B22,Calendar,D22,E22,F22,G22,I22,C22,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00122#0000</v>
+        <v>obj_0011c#0001</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="10" t="str">
@@ -20836,7 +20834,7 @@
       </c>
       <c r="M22" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00121#0000</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="N22" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
@@ -20844,7 +20842,7 @@
       </c>
       <c r="O22" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>1.3050000000000001E-2</v>
+        <v>1.5325000000000002E-2</v>
       </c>
       <c r="P22" s="143" t="b">
         <v>1</v>
@@ -20857,11 +20855,11 @@
       </c>
       <c r="S22" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T22" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>46009</v>
+        <v>46013</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20891,7 +20889,7 @@
         <v/>
       </c>
       <c r="AC22" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD22" s="84"/>
       <c r="AE22" s="164">
@@ -20958,7 +20956,7 @@
       </c>
       <c r="J23" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H23,2,B23,Calendar,D23,E23,F23,G23,I23,C23,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00125#0000</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="10" t="str">
@@ -20967,7 +20965,7 @@
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012b#0000</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="N23" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -20975,7 +20973,7 @@
       </c>
       <c r="O23" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.5375000000000002E-2</v>
+        <v>1.745E-2</v>
       </c>
       <c r="P23" s="143" t="b">
         <v>1</v>
@@ -20988,11 +20986,11 @@
       </c>
       <c r="S23" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T23" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>46741</v>
+        <v>46742</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21022,7 +21020,7 @@
         <v/>
       </c>
       <c r="AC23" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD23" s="84"/>
       <c r="AE23" s="167">
@@ -21089,7 +21087,7 @@
       </c>
       <c r="J24" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H24,2,B24,Calendar,D24,E24,F24,G24,I24,C24,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00121#0000</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="K24" s="51"/>
       <c r="L24" s="10" t="str">
@@ -21098,7 +21096,7 @@
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00127#0000</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="N24" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
@@ -21106,7 +21104,7 @@
       </c>
       <c r="O24" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.9825000000000002E-2</v>
       </c>
       <c r="P24" s="143" t="b">
         <v>1</v>
@@ -21119,11 +21117,11 @@
       </c>
       <c r="S24" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T24" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>47835</v>
+        <v>47840</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21153,7 +21151,7 @@
         <v/>
       </c>
       <c r="AC24" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD24" s="84"/>
     </row>
@@ -21190,7 +21188,7 @@
       </c>
       <c r="J25" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H25,2,B25,Calendar,D25,E25,F25,G25,I25,C25,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012b#0000</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="K25" s="51"/>
       <c r="L25" s="10" t="str">
@@ -21199,7 +21197,7 @@
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00128#0000</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="N25" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
@@ -21207,7 +21205,7 @@
       </c>
       <c r="O25" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>2.07E-2</v>
+        <v>2.2574999999999998E-2</v>
       </c>
       <c r="P25" s="143" t="b">
         <v>1</v>
@@ -21220,11 +21218,11 @@
       </c>
       <c r="S25" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T25" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>49661</v>
+        <v>49664</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21254,7 +21252,7 @@
         <v/>
       </c>
       <c r="AC25" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD25" s="84"/>
     </row>
@@ -21291,7 +21289,7 @@
       </c>
       <c r="J26" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H26,2,B26,Calendar,D26,E26,F26,G26,I26,C26,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00127#0000</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="K26" s="51"/>
       <c r="L26" s="10" t="str">
@@ -21300,7 +21298,7 @@
       </c>
       <c r="M26" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_00129#0000</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="N26" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
@@ -21308,7 +21306,7 @@
       </c>
       <c r="O26" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>2.1949999999999997E-2</v>
+        <v>2.3975E-2</v>
       </c>
       <c r="P26" s="143" t="b">
         <v>1</v>
@@ -21321,11 +21319,11 @@
       </c>
       <c r="S26" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T26" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>51488</v>
+        <v>51491</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21355,7 +21353,7 @@
         <v/>
       </c>
       <c r="AC26" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD26" s="84"/>
     </row>
@@ -21392,7 +21390,7 @@
       </c>
       <c r="J27" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H27,2,B27,Calendar,D27,E27,F27,G27,I27,C27,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00128#0000</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="K27" s="51"/>
       <c r="L27" s="10" t="str">
@@ -21456,7 +21454,7 @@
         <v/>
       </c>
       <c r="AC27" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD27" s="84"/>
     </row>
@@ -21493,7 +21491,7 @@
       </c>
       <c r="J28" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,2,B28,Calendar,D28,E28,F28,G28,I28,C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00129#0000</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="K28" s="51"/>
       <c r="L28" s="10" t="str">
@@ -21502,7 +21500,7 @@
       </c>
       <c r="M28" s="98" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0012a#0000</v>
+        <v>obj_0011d#0001</v>
       </c>
       <c r="N28" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
@@ -21510,7 +21508,7 @@
       </c>
       <c r="O28" s="102">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>2.2249999999999995E-2</v>
+        <v>2.4275000000000001E-2</v>
       </c>
       <c r="P28" s="143" t="b">
         <v>1</v>
@@ -21523,11 +21521,11 @@
       </c>
       <c r="S28" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="T28" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>53314</v>
+        <v>53317</v>
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -21557,7 +21555,7 @@
         <v/>
       </c>
       <c r="AC28" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="84"/>
     </row>
@@ -21655,7 +21653,7 @@
         <v/>
       </c>
       <c r="AC29" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD29" s="84"/>
     </row>
@@ -21692,7 +21690,7 @@
       </c>
       <c r="J30" s="67" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,2,B30,Calendar,D30,E30,F30,G30,I30,C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012a#0000</v>
+        <v>obj_0011d#0001</v>
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="10" t="str">
@@ -21756,7 +21754,7 @@
         <v/>
       </c>
       <c r="AC30" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD30" s="84"/>
     </row>
@@ -21854,7 +21852,7 @@
         <v/>
       </c>
       <c r="AC31" s="81" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD31" s="84"/>
     </row>
@@ -21952,7 +21950,7 @@
         <v/>
       </c>
       <c r="AC32" s="82" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AD32" s="84"/>
     </row>
